--- a/docs/GEMSB_Gantt_Chart.xlsx
+++ b/docs/GEMSB_Gantt_Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3A73ED1-6BCF-4E91-A4CA-92E368565BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D849CB-5A80-4DEB-94DC-BC32FE69766F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
   <si>
     <t>Task 3</t>
   </si>
@@ -217,10 +217,34 @@
     <t>Dummy Database</t>
   </si>
   <si>
-    <t>Prototype Website UI</t>
-  </si>
-  <si>
     <t>Update Readme with Tasks/Deadlines</t>
+  </si>
+  <si>
+    <t>Brendan/Jon</t>
+  </si>
+  <si>
+    <t>PHP Environment Setup</t>
+  </si>
+  <si>
+    <t>Gantt Chart Creation</t>
+  </si>
+  <si>
+    <t>Scrum Meeting Template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laravel/Docker Environment Setup </t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>Open Source Search Engine  Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vue Setup </t>
+  </si>
+  <si>
+    <t>Prototype/Dev Website UI</t>
   </si>
 </sst>
 </file>
@@ -235,7 +259,7 @@
     <numFmt numFmtId="168" formatCode="d"/>
     <numFmt numFmtId="169" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,15 +404,8 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,12 +487,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDBE5F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,7 +653,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -784,9 +795,6 @@
     <xf numFmtId="165" fontId="9" fillId="3" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="9" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="8" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -864,6 +872,12 @@
     <xf numFmtId="9" fontId="0" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -875,15 +889,6 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1395,28 +1400,28 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL37"/>
+  <dimension ref="A1:BL42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="37.36328125" customWidth="1"/>
-    <col min="3" max="3" width="30.6328125" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="2.6328125" customWidth="1"/>
-    <col min="8" max="8" width="6.08984375" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.54296875" customWidth="1"/>
-    <col min="69" max="70" width="10.36328125"/>
+    <col min="1" max="1" width="2.5703125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5703125" customWidth="1"/>
+    <col min="69" max="70" width="10.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="44" t="s">
         <v>19</v>
       </c>
@@ -1428,131 +1433,131 @@
       <c r="E1" s="4"/>
       <c r="F1" s="42"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="66"/>
+      <c r="I1" s="65"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="48"/>
-      <c r="I2" s="67"/>
+      <c r="I2" s="66"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="82">
+      <c r="D3" s="79"/>
+      <c r="E3" s="83">
         <v>44844</v>
       </c>
-      <c r="F3" s="82"/>
+      <c r="F3" s="83"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="84"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="79">
+      <c r="I4" s="80">
         <f>I5</f>
         <v>44844</v>
       </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="79">
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="80">
         <f>P5</f>
         <v>44851</v>
       </c>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="79">
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="80">
         <f>W5</f>
         <v>44858</v>
       </c>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="79">
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="80">
         <f>AD5</f>
         <v>44865</v>
       </c>
-      <c r="AE4" s="80"/>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="80"/>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="81"/>
-      <c r="AK4" s="79">
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="81"/>
+      <c r="AI4" s="81"/>
+      <c r="AJ4" s="82"/>
+      <c r="AK4" s="80">
         <f>AK5</f>
         <v>44872</v>
       </c>
-      <c r="AL4" s="80"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="80"/>
-      <c r="AP4" s="80"/>
-      <c r="AQ4" s="81"/>
-      <c r="AR4" s="79">
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="81"/>
+      <c r="AN4" s="81"/>
+      <c r="AO4" s="81"/>
+      <c r="AP4" s="81"/>
+      <c r="AQ4" s="82"/>
+      <c r="AR4" s="80">
         <f>AR5</f>
         <v>44879</v>
       </c>
-      <c r="AS4" s="80"/>
-      <c r="AT4" s="80"/>
-      <c r="AU4" s="80"/>
-      <c r="AV4" s="80"/>
-      <c r="AW4" s="80"/>
-      <c r="AX4" s="81"/>
-      <c r="AY4" s="79">
+      <c r="AS4" s="81"/>
+      <c r="AT4" s="81"/>
+      <c r="AU4" s="81"/>
+      <c r="AV4" s="81"/>
+      <c r="AW4" s="81"/>
+      <c r="AX4" s="82"/>
+      <c r="AY4" s="80">
         <f>AY5</f>
         <v>44886</v>
       </c>
-      <c r="AZ4" s="80"/>
-      <c r="BA4" s="80"/>
-      <c r="BB4" s="80"/>
-      <c r="BC4" s="80"/>
-      <c r="BD4" s="80"/>
-      <c r="BE4" s="81"/>
-      <c r="BF4" s="79">
+      <c r="AZ4" s="81"/>
+      <c r="BA4" s="81"/>
+      <c r="BB4" s="81"/>
+      <c r="BC4" s="81"/>
+      <c r="BD4" s="81"/>
+      <c r="BE4" s="82"/>
+      <c r="BF4" s="80">
         <f>BF5</f>
         <v>44893</v>
       </c>
-      <c r="BG4" s="80"/>
-      <c r="BH4" s="80"/>
-      <c r="BI4" s="80"/>
-      <c r="BJ4" s="80"/>
-      <c r="BK4" s="80"/>
-      <c r="BL4" s="81"/>
+      <c r="BG4" s="81"/>
+      <c r="BH4" s="81"/>
+      <c r="BI4" s="81"/>
+      <c r="BJ4" s="81"/>
+      <c r="BK4" s="81"/>
+      <c r="BL4" s="82"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44844</v>
@@ -1778,7 +1783,7 @@
         <v>44899</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>22</v>
       </c>
@@ -2026,7 +2031,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
         <v>27</v>
       </c>
@@ -2093,20 +2098,20 @@
       <c r="BK7" s="39"/>
       <c r="BL7" s="39"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H34" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H39" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="39"/>
@@ -2166,24 +2171,24 @@
       <c r="BK8" s="39"/>
       <c r="BL8" s="39"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="73">
         <v>1</v>
       </c>
-      <c r="E9" s="75">
+      <c r="E9" s="74">
         <f>Project_Start</f>
         <v>44844</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="74">
         <f t="shared" ref="F9:F12" si="7">E9+7</f>
         <v>44851</v>
       </c>
@@ -2249,24 +2254,24 @@
       <c r="BK9" s="39"/>
       <c r="BL9" s="39"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="73">
         <v>1</v>
       </c>
-      <c r="E10" s="75">
+      <c r="E10" s="74">
         <f>Project_Start</f>
         <v>44844</v>
       </c>
-      <c r="F10" s="75">
+      <c r="F10" s="74">
         <f t="shared" si="7"/>
         <v>44851</v>
       </c>
@@ -2332,22 +2337,22 @@
       <c r="BK10" s="39"/>
       <c r="BL10" s="39"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="73">
         <v>1</v>
       </c>
-      <c r="E11" s="75">
+      <c r="E11" s="74">
         <f>Project_Start</f>
         <v>44844</v>
       </c>
-      <c r="F11" s="75">
+      <c r="F11" s="74">
         <f t="shared" si="7"/>
         <v>44851</v>
       </c>
@@ -2413,22 +2418,22 @@
       <c r="BK11" s="39"/>
       <c r="BL11" s="39"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="74">
+      <c r="D12" s="73">
         <v>1</v>
       </c>
-      <c r="E12" s="75">
+      <c r="E12" s="74">
         <f>Project_Start</f>
         <v>44844</v>
       </c>
-      <c r="F12" s="75">
+      <c r="F12" s="74">
         <f t="shared" si="7"/>
         <v>44851</v>
       </c>
@@ -2494,22 +2499,22 @@
       <c r="BK12" s="39"/>
       <c r="BL12" s="39"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="78">
+      <c r="D13" s="77">
         <v>1</v>
       </c>
-      <c r="E13" s="75">
+      <c r="E13" s="74">
         <f>F9</f>
         <v>44851</v>
       </c>
-      <c r="F13" s="75">
+      <c r="F13" s="74">
         <f>E13+4</f>
         <v>44855</v>
       </c>
@@ -2572,22 +2577,22 @@
       <c r="BK13" s="39"/>
       <c r="BL13" s="39"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="74">
+      <c r="D14" s="73">
         <v>1</v>
       </c>
-      <c r="E14" s="75">
+      <c r="E14" s="74">
         <f>F9</f>
         <v>44851</v>
       </c>
-      <c r="F14" s="75">
+      <c r="F14" s="74">
         <f>E14+4</f>
         <v>44855</v>
       </c>
@@ -2653,14 +2658,14 @@
       <c r="BK14" s="39"/>
       <c r="BL14" s="39"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
@@ -2726,16 +2731,16 @@
       <c r="BK15" s="39"/>
       <c r="BL15" s="39"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="44"/>
-      <c r="B16" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>40</v>
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="43"/>
+      <c r="B16" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>32</v>
       </c>
       <c r="D16" s="22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E16" s="50">
         <f>F14+1</f>
@@ -2766,7 +2771,7 @@
       <c r="V16" s="39"/>
       <c r="W16" s="39"/>
       <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
+      <c r="Y16" s="40"/>
       <c r="Z16" s="39"/>
       <c r="AA16" s="39"/>
       <c r="AB16" s="39"/>
@@ -2807,16 +2812,16 @@
       <c r="BK16" s="39"/>
       <c r="BL16" s="39"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
-      <c r="B17" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>34</v>
+      <c r="B17" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>32</v>
       </c>
       <c r="D17" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="50">
         <f>F14+1</f>
@@ -2843,13 +2848,13 @@
       <c r="R17" s="39"/>
       <c r="S17" s="39"/>
       <c r="T17" s="39"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
       <c r="W17" s="39"/>
       <c r="X17" s="39"/>
       <c r="Y17" s="39"/>
       <c r="Z17" s="39"/>
-      <c r="AA17" s="85"/>
+      <c r="AA17" s="39"/>
       <c r="AB17" s="39"/>
       <c r="AC17" s="39"/>
       <c r="AD17" s="39"/>
@@ -2888,27 +2893,29 @@
       <c r="BK17" s="39"/>
       <c r="BL17" s="39"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="43"/>
-      <c r="B18" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="55"/>
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="44"/>
+      <c r="B18" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>40</v>
+      </c>
       <c r="D18" s="22">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E18" s="50">
         <f>F14+1</f>
         <v>44856</v>
       </c>
       <c r="F18" s="50">
-        <f>E18+5</f>
-        <v>44861</v>
+        <f>E18+16</f>
+        <v>44872</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
@@ -2967,29 +2974,29 @@
       <c r="BK18" s="39"/>
       <c r="BL18" s="39"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
-      <c r="B19" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>32</v>
+      <c r="B19" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>36</v>
       </c>
       <c r="D19" s="22">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E19" s="50">
         <f>F14+1</f>
         <v>44856</v>
       </c>
       <c r="F19" s="50">
-        <f>E19+5</f>
-        <v>44861</v>
+        <f>E18+16</f>
+        <v>44872</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
@@ -3007,7 +3014,7 @@
       <c r="V19" s="39"/>
       <c r="W19" s="39"/>
       <c r="X19" s="39"/>
-      <c r="Y19" s="40"/>
+      <c r="Y19" s="39"/>
       <c r="Z19" s="39"/>
       <c r="AA19" s="39"/>
       <c r="AB19" s="39"/>
@@ -3048,25 +3055,29 @@
       <c r="BK19" s="39"/>
       <c r="BL19" s="39"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
-      <c r="B20" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="22"/>
+      <c r="B20" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0.9</v>
+      </c>
       <c r="E20" s="50">
-        <f>E19</f>
+        <f>F14+1</f>
         <v>44856</v>
       </c>
       <c r="F20" s="50">
-        <f>E20+3</f>
-        <v>44859</v>
+        <f t="shared" ref="F20:F21" si="8">E20+16</f>
+        <v>44872</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="39"/>
@@ -3125,21 +3136,29 @@
       <c r="BK20" s="39"/>
       <c r="BL20" s="39"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="43"/>
+      <c r="B21" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="E21" s="50">
+        <f>E16</f>
+        <v>44856</v>
+      </c>
+      <c r="F21" s="50">
+        <f t="shared" si="8"/>
+        <v>44872</v>
+      </c>
       <c r="G21" s="17"/>
-      <c r="H21" s="17" t="str">
+      <c r="H21" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>17</v>
       </c>
       <c r="I21" s="39"/>
       <c r="J21" s="39"/>
@@ -3198,25 +3217,29 @@
       <c r="BK21" s="39"/>
       <c r="BL21" s="39"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
-      <c r="B22" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="51">
-        <f>E9+15</f>
-        <v>44859</v>
-      </c>
-      <c r="F22" s="51">
-        <f>E22+5</f>
-        <v>44864</v>
+      <c r="B22" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="E22" s="50">
+        <f>F17+1</f>
+        <v>44862</v>
+      </c>
+      <c r="F22" s="50">
+        <f>E22+18</f>
+        <v>44880</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="39"/>
@@ -3275,25 +3298,29 @@
       <c r="BK22" s="39"/>
       <c r="BL22" s="39"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
-      <c r="B23" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="51">
-        <f>F22+1</f>
-        <v>44865</v>
-      </c>
-      <c r="F23" s="51">
-        <f>E23+4</f>
-        <v>44869</v>
+      <c r="B23" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="22">
+        <v>0</v>
+      </c>
+      <c r="E23" s="50">
+        <f>F17+1</f>
+        <v>44862</v>
+      </c>
+      <c r="F23" s="50">
+        <f>F17+11</f>
+        <v>44872</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I23" s="39"/>
       <c r="J23" s="39"/>
@@ -3352,25 +3379,29 @@
       <c r="BK23" s="39"/>
       <c r="BL23" s="39"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="43"/>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="22">
         <v>0</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="51">
-        <f>E23+5</f>
-        <v>44870</v>
-      </c>
-      <c r="F24" s="51">
-        <f>E24+5</f>
-        <v>44875</v>
+      <c r="E24" s="50">
+        <f>F19+1</f>
+        <v>44873</v>
+      </c>
+      <c r="F24" s="50">
+        <f>E24+7</f>
+        <v>44880</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I24" s="39"/>
       <c r="J24" s="39"/>
@@ -3429,25 +3460,29 @@
       <c r="BK24" s="39"/>
       <c r="BL24" s="39"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43"/>
-      <c r="B25" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="51">
-        <f>F24+1</f>
-        <v>44876</v>
-      </c>
-      <c r="F25" s="51">
-        <f>E25+4</f>
+      <c r="B25" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="22">
+        <v>0</v>
+      </c>
+      <c r="E25" s="50">
+        <f>F18+1</f>
+        <v>44873</v>
+      </c>
+      <c r="F25" s="50">
+        <f>E25+7</f>
         <v>44880</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
@@ -3506,25 +3541,21 @@
       <c r="BK25" s="39"/>
       <c r="BL25" s="39"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="43"/>
-      <c r="B26" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="51">
-        <f>E24</f>
-        <v>44870</v>
-      </c>
-      <c r="F26" s="51">
-        <f>E26+4</f>
-        <v>44874</v>
-      </c>
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="17">
+      <c r="H26" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="39"/>
@@ -3583,21 +3614,23 @@
       <c r="BK26" s="39"/>
       <c r="BL26" s="39"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="43"/>
+      <c r="B27" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="17" t="str">
+      <c r="H27" s="17" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
@@ -3656,17 +3689,17 @@
       <c r="BK27" s="39"/>
       <c r="BL27" s="39"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
-      <c r="B28" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="52" t="s">
+      <c r="B28" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="56"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="52" t="s">
+      <c r="F28" s="51" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="17"/>
@@ -3731,17 +3764,17 @@
       <c r="BK28" s="39"/>
       <c r="BL28" s="39"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
-      <c r="B29" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="52" t="s">
+      <c r="B29" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="56"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="51" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="17"/>
@@ -3806,17 +3839,17 @@
       <c r="BK29" s="39"/>
       <c r="BL29" s="39"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
-      <c r="B30" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="52" t="s">
+      <c r="B30" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="56"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="52" t="s">
+      <c r="F30" s="51" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="17"/>
@@ -3881,17 +3914,17 @@
       <c r="BK30" s="39"/>
       <c r="BL30" s="39"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
-      <c r="B31" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="52" t="s">
+      <c r="B31" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="56"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="52" t="s">
+      <c r="F31" s="51" t="s">
         <v>15</v>
       </c>
       <c r="G31" s="17"/>
@@ -3956,23 +3989,21 @@
       <c r="BK31" s="39"/>
       <c r="BL31" s="39"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="43"/>
-      <c r="B32" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="52" t="s">
-        <v>15</v>
-      </c>
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="57"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="17" t="e">
+      <c r="H32" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I32" s="39"/>
       <c r="J32" s="39"/>
@@ -4031,19 +4062,23 @@
       <c r="BK32" s="39"/>
       <c r="BL32" s="39"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="64"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="43"/>
+      <c r="B33" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="58"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="G33" s="17"/>
-      <c r="H33" s="17" t="str">
+      <c r="H33" s="17" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I33" s="39"/>
       <c r="J33" s="39"/>
@@ -4102,104 +4137,475 @@
       <c r="BK33" s="39"/>
       <c r="BL33" s="39"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38" t="str">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="43"/>
+      <c r="B34" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="58"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="39"/>
+      <c r="AF34" s="39"/>
+      <c r="AG34" s="39"/>
+      <c r="AH34" s="39"/>
+      <c r="AI34" s="39"/>
+      <c r="AJ34" s="39"/>
+      <c r="AK34" s="39"/>
+      <c r="AL34" s="39"/>
+      <c r="AM34" s="39"/>
+      <c r="AN34" s="39"/>
+      <c r="AO34" s="39"/>
+      <c r="AP34" s="39"/>
+      <c r="AQ34" s="39"/>
+      <c r="AR34" s="39"/>
+      <c r="AS34" s="39"/>
+      <c r="AT34" s="39"/>
+      <c r="AU34" s="39"/>
+      <c r="AV34" s="39"/>
+      <c r="AW34" s="39"/>
+      <c r="AX34" s="39"/>
+      <c r="AY34" s="39"/>
+      <c r="AZ34" s="39"/>
+      <c r="BA34" s="39"/>
+      <c r="BB34" s="39"/>
+      <c r="BC34" s="39"/>
+      <c r="BD34" s="39"/>
+      <c r="BE34" s="39"/>
+      <c r="BF34" s="39"/>
+      <c r="BG34" s="39"/>
+      <c r="BH34" s="39"/>
+      <c r="BI34" s="39"/>
+      <c r="BJ34" s="39"/>
+      <c r="BK34" s="39"/>
+      <c r="BL34" s="39"/>
+    </row>
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="43"/>
+      <c r="B35" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="58"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="39"/>
+      <c r="AF35" s="39"/>
+      <c r="AG35" s="39"/>
+      <c r="AH35" s="39"/>
+      <c r="AI35" s="39"/>
+      <c r="AJ35" s="39"/>
+      <c r="AK35" s="39"/>
+      <c r="AL35" s="39"/>
+      <c r="AM35" s="39"/>
+      <c r="AN35" s="39"/>
+      <c r="AO35" s="39"/>
+      <c r="AP35" s="39"/>
+      <c r="AQ35" s="39"/>
+      <c r="AR35" s="39"/>
+      <c r="AS35" s="39"/>
+      <c r="AT35" s="39"/>
+      <c r="AU35" s="39"/>
+      <c r="AV35" s="39"/>
+      <c r="AW35" s="39"/>
+      <c r="AX35" s="39"/>
+      <c r="AY35" s="39"/>
+      <c r="AZ35" s="39"/>
+      <c r="BA35" s="39"/>
+      <c r="BB35" s="39"/>
+      <c r="BC35" s="39"/>
+      <c r="BD35" s="39"/>
+      <c r="BE35" s="39"/>
+      <c r="BF35" s="39"/>
+      <c r="BG35" s="39"/>
+      <c r="BH35" s="39"/>
+      <c r="BI35" s="39"/>
+      <c r="BJ35" s="39"/>
+      <c r="BK35" s="39"/>
+      <c r="BL35" s="39"/>
+    </row>
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="43"/>
+      <c r="B36" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="58"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="39"/>
+      <c r="AD36" s="39"/>
+      <c r="AE36" s="39"/>
+      <c r="AF36" s="39"/>
+      <c r="AG36" s="39"/>
+      <c r="AH36" s="39"/>
+      <c r="AI36" s="39"/>
+      <c r="AJ36" s="39"/>
+      <c r="AK36" s="39"/>
+      <c r="AL36" s="39"/>
+      <c r="AM36" s="39"/>
+      <c r="AN36" s="39"/>
+      <c r="AO36" s="39"/>
+      <c r="AP36" s="39"/>
+      <c r="AQ36" s="39"/>
+      <c r="AR36" s="39"/>
+      <c r="AS36" s="39"/>
+      <c r="AT36" s="39"/>
+      <c r="AU36" s="39"/>
+      <c r="AV36" s="39"/>
+      <c r="AW36" s="39"/>
+      <c r="AX36" s="39"/>
+      <c r="AY36" s="39"/>
+      <c r="AZ36" s="39"/>
+      <c r="BA36" s="39"/>
+      <c r="BB36" s="39"/>
+      <c r="BC36" s="39"/>
+      <c r="BD36" s="39"/>
+      <c r="BE36" s="39"/>
+      <c r="BF36" s="39"/>
+      <c r="BG36" s="39"/>
+      <c r="BH36" s="39"/>
+      <c r="BI36" s="39"/>
+      <c r="BJ36" s="39"/>
+      <c r="BK36" s="39"/>
+      <c r="BL36" s="39"/>
+    </row>
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="43"/>
+      <c r="B37" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="58"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="39"/>
+      <c r="AD37" s="39"/>
+      <c r="AE37" s="39"/>
+      <c r="AF37" s="39"/>
+      <c r="AG37" s="39"/>
+      <c r="AH37" s="39"/>
+      <c r="AI37" s="39"/>
+      <c r="AJ37" s="39"/>
+      <c r="AK37" s="39"/>
+      <c r="AL37" s="39"/>
+      <c r="AM37" s="39"/>
+      <c r="AN37" s="39"/>
+      <c r="AO37" s="39"/>
+      <c r="AP37" s="39"/>
+      <c r="AQ37" s="39"/>
+      <c r="AR37" s="39"/>
+      <c r="AS37" s="39"/>
+      <c r="AT37" s="39"/>
+      <c r="AU37" s="39"/>
+      <c r="AV37" s="39"/>
+      <c r="AW37" s="39"/>
+      <c r="AX37" s="39"/>
+      <c r="AY37" s="39"/>
+      <c r="AZ37" s="39"/>
+      <c r="BA37" s="39"/>
+      <c r="BB37" s="39"/>
+      <c r="BC37" s="39"/>
+      <c r="BD37" s="39"/>
+      <c r="BE37" s="39"/>
+      <c r="BF37" s="39"/>
+      <c r="BG37" s="39"/>
+      <c r="BH37" s="39"/>
+      <c r="BI37" s="39"/>
+      <c r="BJ37" s="39"/>
+      <c r="BK37" s="39"/>
+      <c r="BL37" s="39"/>
+    </row>
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="63"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="41"/>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="41"/>
-      <c r="AE34" s="41"/>
-      <c r="AF34" s="41"/>
-      <c r="AG34" s="41"/>
-      <c r="AH34" s="41"/>
-      <c r="AI34" s="41"/>
-      <c r="AJ34" s="41"/>
-      <c r="AK34" s="41"/>
-      <c r="AL34" s="41"/>
-      <c r="AM34" s="41"/>
-      <c r="AN34" s="41"/>
-      <c r="AO34" s="41"/>
-      <c r="AP34" s="41"/>
-      <c r="AQ34" s="41"/>
-      <c r="AR34" s="41"/>
-      <c r="AS34" s="41"/>
-      <c r="AT34" s="41"/>
-      <c r="AU34" s="41"/>
-      <c r="AV34" s="41"/>
-      <c r="AW34" s="41"/>
-      <c r="AX34" s="41"/>
-      <c r="AY34" s="41"/>
-      <c r="AZ34" s="41"/>
-      <c r="BA34" s="41"/>
-      <c r="BB34" s="41"/>
-      <c r="BC34" s="41"/>
-      <c r="BD34" s="41"/>
-      <c r="BE34" s="41"/>
-      <c r="BF34" s="41"/>
-      <c r="BG34" s="41"/>
-      <c r="BH34" s="41"/>
-      <c r="BI34" s="41"/>
-      <c r="BJ34" s="41"/>
-      <c r="BK34" s="41"/>
-      <c r="BL34" s="41"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="39"/>
+      <c r="AB38" s="39"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="39"/>
+      <c r="AE38" s="39"/>
+      <c r="AF38" s="39"/>
+      <c r="AG38" s="39"/>
+      <c r="AH38" s="39"/>
+      <c r="AI38" s="39"/>
+      <c r="AJ38" s="39"/>
+      <c r="AK38" s="39"/>
+      <c r="AL38" s="39"/>
+      <c r="AM38" s="39"/>
+      <c r="AN38" s="39"/>
+      <c r="AO38" s="39"/>
+      <c r="AP38" s="39"/>
+      <c r="AQ38" s="39"/>
+      <c r="AR38" s="39"/>
+      <c r="AS38" s="39"/>
+      <c r="AT38" s="39"/>
+      <c r="AU38" s="39"/>
+      <c r="AV38" s="39"/>
+      <c r="AW38" s="39"/>
+      <c r="AX38" s="39"/>
+      <c r="AY38" s="39"/>
+      <c r="AZ38" s="39"/>
+      <c r="BA38" s="39"/>
+      <c r="BB38" s="39"/>
+      <c r="BC38" s="39"/>
+      <c r="BD38" s="39"/>
+      <c r="BE38" s="39"/>
+      <c r="BF38" s="39"/>
+      <c r="BG38" s="39"/>
+      <c r="BH38" s="39"/>
+      <c r="BI38" s="39"/>
+      <c r="BJ38" s="39"/>
+      <c r="BK38" s="39"/>
+      <c r="BL38" s="39"/>
     </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G35" s="6"/>
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="41"/>
+      <c r="AB39" s="41"/>
+      <c r="AC39" s="41"/>
+      <c r="AD39" s="41"/>
+      <c r="AE39" s="41"/>
+      <c r="AF39" s="41"/>
+      <c r="AG39" s="41"/>
+      <c r="AH39" s="41"/>
+      <c r="AI39" s="41"/>
+      <c r="AJ39" s="41"/>
+      <c r="AK39" s="41"/>
+      <c r="AL39" s="41"/>
+      <c r="AM39" s="41"/>
+      <c r="AN39" s="41"/>
+      <c r="AO39" s="41"/>
+      <c r="AP39" s="41"/>
+      <c r="AQ39" s="41"/>
+      <c r="AR39" s="41"/>
+      <c r="AS39" s="41"/>
+      <c r="AT39" s="41"/>
+      <c r="AU39" s="41"/>
+      <c r="AV39" s="41"/>
+      <c r="AW39" s="41"/>
+      <c r="AX39" s="41"/>
+      <c r="AY39" s="41"/>
+      <c r="AZ39" s="41"/>
+      <c r="BA39" s="41"/>
+      <c r="BB39" s="41"/>
+      <c r="BC39" s="41"/>
+      <c r="BD39" s="41"/>
+      <c r="BE39" s="41"/>
+      <c r="BF39" s="41"/>
+      <c r="BG39" s="41"/>
+      <c r="BH39" s="41"/>
+      <c r="BI39" s="41"/>
+      <c r="BJ39" s="41"/>
+      <c r="BK39" s="41"/>
+      <c r="BL39" s="41"/>
     </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="14"/>
-      <c r="F36" s="45"/>
+    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="6"/>
     </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="15"/>
+    <row r="41" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="14"/>
+      <c r="F41" s="45"/>
+    </row>
+    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D15:D34 D7">
+  <conditionalFormatting sqref="D15:D39 D7">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4213,12 +4619,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL34">
+  <conditionalFormatting sqref="I5:BL39">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL34">
+  <conditionalFormatting sqref="I7:BL39">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4237,9 +4643,6 @@
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="F23:F24 E24" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4256,7 +4659,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D15:D34 D7</xm:sqref>
+          <xm:sqref>D15:D39 D7</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/docs/GEMSB_Gantt_Chart.xlsx
+++ b/docs/GEMSB_Gantt_Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D849CB-5A80-4DEB-94DC-BC32FE69766F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C280A47-03A6-481E-BFEB-8FE55E3D89D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
   <si>
     <t>Task 3</t>
   </si>
@@ -220,9 +220,6 @@
     <t>Update Readme with Tasks/Deadlines</t>
   </si>
   <si>
-    <t>Brendan/Jon</t>
-  </si>
-  <si>
     <t>PHP Environment Setup</t>
   </si>
   <si>
@@ -245,6 +242,12 @@
   </si>
   <si>
     <t>Prototype/Dev Website UI</t>
+  </si>
+  <si>
+    <t>Bren dan/Mohammed</t>
+  </si>
+  <si>
+    <t>Mashad/Jon</t>
   </si>
 </sst>
 </file>
@@ -872,23 +875,23 @@
     <xf numFmtId="9" fontId="0" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1404,7 +1407,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1447,106 +1450,106 @@
         <v>26</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="83">
+      <c r="D3" s="83"/>
+      <c r="E3" s="81">
         <v>44844</v>
       </c>
-      <c r="F3" s="83"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="79"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="80">
+      <c r="I4" s="78">
         <f>I5</f>
         <v>44844</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="80">
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="78">
         <f>P5</f>
         <v>44851</v>
       </c>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="80">
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="78">
         <f>W5</f>
         <v>44858</v>
       </c>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="80">
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="78">
         <f>AD5</f>
         <v>44865</v>
       </c>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="81"/>
-      <c r="AI4" s="81"/>
-      <c r="AJ4" s="82"/>
-      <c r="AK4" s="80">
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="79"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="79"/>
+      <c r="AI4" s="79"/>
+      <c r="AJ4" s="80"/>
+      <c r="AK4" s="78">
         <f>AK5</f>
         <v>44872</v>
       </c>
-      <c r="AL4" s="81"/>
-      <c r="AM4" s="81"/>
-      <c r="AN4" s="81"/>
-      <c r="AO4" s="81"/>
-      <c r="AP4" s="81"/>
-      <c r="AQ4" s="82"/>
-      <c r="AR4" s="80">
+      <c r="AL4" s="79"/>
+      <c r="AM4" s="79"/>
+      <c r="AN4" s="79"/>
+      <c r="AO4" s="79"/>
+      <c r="AP4" s="79"/>
+      <c r="AQ4" s="80"/>
+      <c r="AR4" s="78">
         <f>AR5</f>
         <v>44879</v>
       </c>
-      <c r="AS4" s="81"/>
-      <c r="AT4" s="81"/>
-      <c r="AU4" s="81"/>
-      <c r="AV4" s="81"/>
-      <c r="AW4" s="81"/>
-      <c r="AX4" s="82"/>
-      <c r="AY4" s="80">
+      <c r="AS4" s="79"/>
+      <c r="AT4" s="79"/>
+      <c r="AU4" s="79"/>
+      <c r="AV4" s="79"/>
+      <c r="AW4" s="79"/>
+      <c r="AX4" s="80"/>
+      <c r="AY4" s="78">
         <f>AY5</f>
         <v>44886</v>
       </c>
-      <c r="AZ4" s="81"/>
-      <c r="BA4" s="81"/>
-      <c r="BB4" s="81"/>
-      <c r="BC4" s="81"/>
-      <c r="BD4" s="81"/>
-      <c r="BE4" s="82"/>
-      <c r="BF4" s="80">
+      <c r="AZ4" s="79"/>
+      <c r="BA4" s="79"/>
+      <c r="BB4" s="79"/>
+      <c r="BC4" s="79"/>
+      <c r="BD4" s="79"/>
+      <c r="BE4" s="80"/>
+      <c r="BF4" s="78">
         <f>BF5</f>
         <v>44893</v>
       </c>
-      <c r="BG4" s="81"/>
-      <c r="BH4" s="81"/>
-      <c r="BI4" s="81"/>
-      <c r="BJ4" s="81"/>
-      <c r="BK4" s="81"/>
-      <c r="BL4" s="82"/>
+      <c r="BG4" s="79"/>
+      <c r="BH4" s="79"/>
+      <c r="BI4" s="79"/>
+      <c r="BJ4" s="79"/>
+      <c r="BK4" s="79"/>
+      <c r="BL4" s="80"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
@@ -2815,7 +2818,7 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
       <c r="B17" s="60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="54" t="s">
         <v>32</v>
@@ -2902,7 +2905,7 @@
         <v>40</v>
       </c>
       <c r="D18" s="22">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E18" s="50">
         <f>F14+1</f>
@@ -2977,13 +2980,13 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="54" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="22">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E19" s="50">
         <f>F14+1</f>
@@ -3058,13 +3061,13 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="54" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="22">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E20" s="50">
         <f>F14+1</f>
@@ -3139,13 +3142,13 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="54" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="22">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E21" s="50">
         <f>E16</f>
@@ -3220,13 +3223,13 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
       <c r="B22" s="60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D22" s="22">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E22" s="50">
         <f>F17+1</f>
@@ -3301,7 +3304,7 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
       <c r="B23" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="54" t="s">
         <v>32</v>
@@ -3385,10 +3388,10 @@
         <v>46</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D24" s="22">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E24" s="50">
         <f>F19+1</f>
@@ -3463,10 +3466,10 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43"/>
       <c r="B25" s="60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="22">
         <v>0</v>
@@ -4593,17 +4596,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D15:D39 D7">
     <cfRule type="dataBar" priority="14">

--- a/docs/GEMSB_Gantt_Chart.xlsx
+++ b/docs/GEMSB_Gantt_Chart.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C280A47-03A6-481E-BFEB-8FE55E3D89D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7119C1-6A08-4DBA-82D3-D973AC42BE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <t>Task 3</t>
   </si>
@@ -248,6 +248,18 @@
   </si>
   <si>
     <t>Mashad/Jon</t>
+  </si>
+  <si>
+    <t>Search Function</t>
+  </si>
+  <si>
+    <t>Database Migration SQLite &gt; MySQL</t>
+  </si>
+  <si>
+    <t>Scrolling Sidebar Function</t>
+  </si>
+  <si>
+    <t>Jon/Mashad</t>
   </si>
 </sst>
 </file>
@@ -875,6 +887,12 @@
     <xf numFmtId="9" fontId="0" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -886,12 +904,6 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -909,7 +921,37 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1036,15 +1078,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="firstColumn" dxfId="11"/>
+      <tableStyleElement type="lastColumn" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1405,9 +1447,9 @@
   </sheetPr>
   <dimension ref="A1:BL42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="BO11" sqref="BO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1450,106 +1492,106 @@
         <v>26</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="81">
+      <c r="D3" s="79"/>
+      <c r="E3" s="83">
         <v>44844</v>
       </c>
-      <c r="F3" s="81"/>
+      <c r="F3" s="83"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="83"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="78">
+      <c r="I4" s="80">
         <f>I5</f>
         <v>44844</v>
       </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="78">
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="80">
         <f>P5</f>
         <v>44851</v>
       </c>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="78">
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="80">
         <f>W5</f>
         <v>44858</v>
       </c>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="78">
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="80">
         <f>AD5</f>
         <v>44865</v>
       </c>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="79"/>
-      <c r="AJ4" s="80"/>
-      <c r="AK4" s="78">
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="81"/>
+      <c r="AI4" s="81"/>
+      <c r="AJ4" s="82"/>
+      <c r="AK4" s="80">
         <f>AK5</f>
         <v>44872</v>
       </c>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="79"/>
-      <c r="AN4" s="79"/>
-      <c r="AO4" s="79"/>
-      <c r="AP4" s="79"/>
-      <c r="AQ4" s="80"/>
-      <c r="AR4" s="78">
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="81"/>
+      <c r="AN4" s="81"/>
+      <c r="AO4" s="81"/>
+      <c r="AP4" s="81"/>
+      <c r="AQ4" s="82"/>
+      <c r="AR4" s="80">
         <f>AR5</f>
         <v>44879</v>
       </c>
-      <c r="AS4" s="79"/>
-      <c r="AT4" s="79"/>
-      <c r="AU4" s="79"/>
-      <c r="AV4" s="79"/>
-      <c r="AW4" s="79"/>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="78">
+      <c r="AS4" s="81"/>
+      <c r="AT4" s="81"/>
+      <c r="AU4" s="81"/>
+      <c r="AV4" s="81"/>
+      <c r="AW4" s="81"/>
+      <c r="AX4" s="82"/>
+      <c r="AY4" s="80">
         <f>AY5</f>
         <v>44886</v>
       </c>
-      <c r="AZ4" s="79"/>
-      <c r="BA4" s="79"/>
-      <c r="BB4" s="79"/>
-      <c r="BC4" s="79"/>
-      <c r="BD4" s="79"/>
-      <c r="BE4" s="80"/>
-      <c r="BF4" s="78">
+      <c r="AZ4" s="81"/>
+      <c r="BA4" s="81"/>
+      <c r="BB4" s="81"/>
+      <c r="BC4" s="81"/>
+      <c r="BD4" s="81"/>
+      <c r="BE4" s="82"/>
+      <c r="BF4" s="80">
         <f>BF5</f>
         <v>44893</v>
       </c>
-      <c r="BG4" s="79"/>
-      <c r="BH4" s="79"/>
-      <c r="BI4" s="79"/>
-      <c r="BJ4" s="79"/>
-      <c r="BK4" s="79"/>
-      <c r="BL4" s="80"/>
+      <c r="BG4" s="81"/>
+      <c r="BH4" s="81"/>
+      <c r="BI4" s="81"/>
+      <c r="BJ4" s="81"/>
+      <c r="BK4" s="81"/>
+      <c r="BL4" s="82"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
@@ -1954,7 +1996,7 @@
         <v>M</v>
       </c>
       <c r="AS6" s="13" t="str">
-        <f t="shared" ref="AS6:BL6" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
+        <f t="shared" ref="AS6:CV6" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="AT6" s="13" t="str">
@@ -3620,20 +3662,24 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
       <c r="B27" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="56"/>
+        <v>59</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>36</v>
+      </c>
       <c r="D27" s="27"/>
-      <c r="E27" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>15</v>
+      <c r="E27" s="51">
+        <f>E9+91</f>
+        <v>44935</v>
+      </c>
+      <c r="F27" s="51">
+        <f>E27+16</f>
+        <v>44951</v>
       </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="17" t="e">
+      <c r="H27" s="17">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>17</v>
       </c>
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
@@ -3695,20 +3741,24 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
       <c r="B28" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="56"/>
+        <v>58</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>38</v>
+      </c>
       <c r="D28" s="27"/>
-      <c r="E28" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="51" t="s">
-        <v>15</v>
+      <c r="E28" s="51">
+        <f>E9+91</f>
+        <v>44935</v>
+      </c>
+      <c r="F28" s="51">
+        <f>E27+16</f>
+        <v>44951</v>
       </c>
       <c r="G28" s="17"/>
-      <c r="H28" s="17" t="e">
+      <c r="H28" s="17">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>17</v>
       </c>
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
@@ -3770,20 +3820,24 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
       <c r="B29" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="56"/>
+        <v>60</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>61</v>
+      </c>
       <c r="D29" s="27"/>
-      <c r="E29" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="51" t="s">
-        <v>15</v>
+      <c r="E29" s="51">
+        <f>E9+91</f>
+        <v>44935</v>
+      </c>
+      <c r="F29" s="51">
+        <f>E27+16</f>
+        <v>44951</v>
       </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="17" t="e">
+      <c r="H29" s="17">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>17</v>
       </c>
       <c r="I29" s="39"/>
       <c r="J29" s="39"/>
@@ -4596,17 +4650,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D15:D39 D7">
     <cfRule type="dataBar" priority="14">

--- a/docs/GEMSB_Gantt_Chart.xlsx
+++ b/docs/GEMSB_Gantt_Chart.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D849CB-5A80-4DEB-94DC-BC32FE69766F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73FF5E9-789C-4E3C-B7AD-5F38AEACDF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
   <si>
     <t>Task 3</t>
   </si>
@@ -246,12 +246,34 @@
   <si>
     <t>Prototype/Dev Website UI</t>
   </si>
+  <si>
+    <t>Database Migration SQLite &gt; MySQL</t>
+  </si>
+  <si>
+    <t>Search Function</t>
+  </si>
+  <si>
+    <t>Scrolling Sidebar Function</t>
+  </si>
+  <si>
+    <t>Jon/Mashad</t>
+  </si>
+  <si>
+    <t>Fix Edit Function on all pages</t>
+  </si>
+  <si>
+    <t>Display Info Entries in better format</t>
+  </si>
+  <si>
+    <t>Reformat welcome page + search</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="6">
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="166" formatCode="ddd\,\ m/d/yyyy"/>
@@ -623,7 +645,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -652,8 +674,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -872,12 +895,6 @@
     <xf numFmtId="9" fontId="0" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -890,9 +907,38 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="165" fontId="9" fillId="8" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="12" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Comma 2" xfId="13" xr:uid="{E5194353-1EC4-4B46-A3CA-2552272992BC}"/>
     <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
@@ -906,7 +952,19 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -924,6 +982,18 @@
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1033,15 +1103,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="totalRow" dxfId="11"/>
+      <tableStyleElement type="firstColumn" dxfId="10"/>
+      <tableStyleElement type="lastColumn" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="secondRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1400,11 +1470,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL42"/>
+  <dimension ref="A1:GA44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1417,11 +1487,12 @@
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="2.5703125" customWidth="1"/>
     <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5703125" customWidth="1"/>
-    <col min="69" max="70" width="10.42578125"/>
+    <col min="9" max="70" width="2.5703125" customWidth="1"/>
+    <col min="71" max="71" width="2.7109375" customWidth="1"/>
+    <col min="72" max="183" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:183" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="44" t="s">
         <v>19</v>
       </c>
@@ -1435,120 +1506,290 @@
       <c r="H1" s="2"/>
       <c r="I1" s="65"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:183" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="48"/>
       <c r="I2" s="66"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:183" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="83">
+      <c r="D3" s="83"/>
+      <c r="E3" s="81">
         <v>44844</v>
       </c>
-      <c r="F3" s="83"/>
+      <c r="F3" s="81"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:183" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="79"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="80">
+      <c r="I4" s="78">
         <f>I5</f>
         <v>44844</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="80">
-        <f>P5</f>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="78">
+        <f t="shared" ref="P4" si="0">P5</f>
         <v>44851</v>
       </c>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="80">
-        <f>W5</f>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="78">
+        <f t="shared" ref="W4" si="1">W5</f>
         <v>44858</v>
       </c>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="80">
-        <f>AD5</f>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="78">
+        <f t="shared" ref="AD4" si="2">AD5</f>
         <v>44865</v>
       </c>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="81"/>
-      <c r="AI4" s="81"/>
-      <c r="AJ4" s="82"/>
-      <c r="AK4" s="80">
-        <f>AK5</f>
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="79"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="79"/>
+      <c r="AI4" s="79"/>
+      <c r="AJ4" s="80"/>
+      <c r="AK4" s="78">
+        <f t="shared" ref="AK4" si="3">AK5</f>
         <v>44872</v>
       </c>
-      <c r="AL4" s="81"/>
-      <c r="AM4" s="81"/>
-      <c r="AN4" s="81"/>
-      <c r="AO4" s="81"/>
-      <c r="AP4" s="81"/>
-      <c r="AQ4" s="82"/>
-      <c r="AR4" s="80">
-        <f>AR5</f>
+      <c r="AL4" s="79"/>
+      <c r="AM4" s="79"/>
+      <c r="AN4" s="79"/>
+      <c r="AO4" s="79"/>
+      <c r="AP4" s="79"/>
+      <c r="AQ4" s="80"/>
+      <c r="AR4" s="78">
+        <f t="shared" ref="AR4" si="4">AR5</f>
         <v>44879</v>
       </c>
-      <c r="AS4" s="81"/>
-      <c r="AT4" s="81"/>
-      <c r="AU4" s="81"/>
-      <c r="AV4" s="81"/>
-      <c r="AW4" s="81"/>
-      <c r="AX4" s="82"/>
-      <c r="AY4" s="80">
-        <f>AY5</f>
+      <c r="AS4" s="79"/>
+      <c r="AT4" s="79"/>
+      <c r="AU4" s="79"/>
+      <c r="AV4" s="79"/>
+      <c r="AW4" s="79"/>
+      <c r="AX4" s="80"/>
+      <c r="AY4" s="78">
+        <f t="shared" ref="AY4" si="5">AY5</f>
         <v>44886</v>
       </c>
-      <c r="AZ4" s="81"/>
-      <c r="BA4" s="81"/>
-      <c r="BB4" s="81"/>
-      <c r="BC4" s="81"/>
-      <c r="BD4" s="81"/>
-      <c r="BE4" s="82"/>
-      <c r="BF4" s="80">
-        <f>BF5</f>
+      <c r="AZ4" s="79"/>
+      <c r="BA4" s="79"/>
+      <c r="BB4" s="79"/>
+      <c r="BC4" s="79"/>
+      <c r="BD4" s="79"/>
+      <c r="BE4" s="80"/>
+      <c r="BF4" s="78">
+        <f t="shared" ref="BF4" si="6">BF5</f>
         <v>44893</v>
       </c>
-      <c r="BG4" s="81"/>
-      <c r="BH4" s="81"/>
-      <c r="BI4" s="81"/>
-      <c r="BJ4" s="81"/>
-      <c r="BK4" s="81"/>
-      <c r="BL4" s="82"/>
+      <c r="BG4" s="79"/>
+      <c r="BH4" s="79"/>
+      <c r="BI4" s="79"/>
+      <c r="BJ4" s="79"/>
+      <c r="BK4" s="79"/>
+      <c r="BL4" s="80"/>
+      <c r="BM4" s="78">
+        <f>BM5</f>
+        <v>44900</v>
+      </c>
+      <c r="BN4" s="79"/>
+      <c r="BO4" s="79"/>
+      <c r="BP4" s="79"/>
+      <c r="BQ4" s="79"/>
+      <c r="BR4" s="79"/>
+      <c r="BS4" s="80"/>
+      <c r="BT4" s="78">
+        <f t="shared" ref="BT4" si="7">BT5</f>
+        <v>44907</v>
+      </c>
+      <c r="BU4" s="79"/>
+      <c r="BV4" s="79"/>
+      <c r="BW4" s="79"/>
+      <c r="BX4" s="79"/>
+      <c r="BY4" s="79"/>
+      <c r="BZ4" s="80"/>
+      <c r="CA4" s="78">
+        <f t="shared" ref="CA4" si="8">CA5</f>
+        <v>44914</v>
+      </c>
+      <c r="CB4" s="79"/>
+      <c r="CC4" s="79"/>
+      <c r="CD4" s="79"/>
+      <c r="CE4" s="79"/>
+      <c r="CF4" s="79"/>
+      <c r="CG4" s="80"/>
+      <c r="CH4" s="78">
+        <f t="shared" ref="CH4" si="9">CH5</f>
+        <v>44921</v>
+      </c>
+      <c r="CI4" s="79"/>
+      <c r="CJ4" s="79"/>
+      <c r="CK4" s="79"/>
+      <c r="CL4" s="79"/>
+      <c r="CM4" s="79"/>
+      <c r="CN4" s="80"/>
+      <c r="CO4" s="78">
+        <f t="shared" ref="CO4" si="10">CO5</f>
+        <v>44928</v>
+      </c>
+      <c r="CP4" s="79"/>
+      <c r="CQ4" s="79"/>
+      <c r="CR4" s="79"/>
+      <c r="CS4" s="79"/>
+      <c r="CT4" s="79"/>
+      <c r="CU4" s="80"/>
+      <c r="CV4" s="78">
+        <f t="shared" ref="CV4" si="11">CV5</f>
+        <v>44935</v>
+      </c>
+      <c r="CW4" s="79"/>
+      <c r="CX4" s="79"/>
+      <c r="CY4" s="79"/>
+      <c r="CZ4" s="79"/>
+      <c r="DA4" s="79"/>
+      <c r="DB4" s="80"/>
+      <c r="DC4" s="78">
+        <f t="shared" ref="DC4" si="12">DC5</f>
+        <v>44942</v>
+      </c>
+      <c r="DD4" s="79"/>
+      <c r="DE4" s="79"/>
+      <c r="DF4" s="79"/>
+      <c r="DG4" s="79"/>
+      <c r="DH4" s="79"/>
+      <c r="DI4" s="80"/>
+      <c r="DJ4" s="78">
+        <f t="shared" ref="DJ4" si="13">DJ5</f>
+        <v>44949</v>
+      </c>
+      <c r="DK4" s="79"/>
+      <c r="DL4" s="79"/>
+      <c r="DM4" s="79"/>
+      <c r="DN4" s="79"/>
+      <c r="DO4" s="79"/>
+      <c r="DP4" s="80"/>
+      <c r="DQ4" s="78">
+        <f t="shared" ref="DQ4" si="14">DQ5</f>
+        <v>44956</v>
+      </c>
+      <c r="DR4" s="79"/>
+      <c r="DS4" s="79"/>
+      <c r="DT4" s="79"/>
+      <c r="DU4" s="79"/>
+      <c r="DV4" s="79"/>
+      <c r="DW4" s="80"/>
+      <c r="DX4" s="78">
+        <f t="shared" ref="DX4" si="15">DX5</f>
+        <v>44963</v>
+      </c>
+      <c r="DY4" s="79"/>
+      <c r="DZ4" s="79"/>
+      <c r="EA4" s="79"/>
+      <c r="EB4" s="79"/>
+      <c r="EC4" s="79"/>
+      <c r="ED4" s="80"/>
+      <c r="EE4" s="78">
+        <f t="shared" ref="EE4" si="16">EE5</f>
+        <v>44970</v>
+      </c>
+      <c r="EF4" s="79"/>
+      <c r="EG4" s="79"/>
+      <c r="EH4" s="79"/>
+      <c r="EI4" s="79"/>
+      <c r="EJ4" s="79"/>
+      <c r="EK4" s="80"/>
+      <c r="EL4" s="78">
+        <f t="shared" ref="EL4" si="17">EL5</f>
+        <v>44977</v>
+      </c>
+      <c r="EM4" s="79"/>
+      <c r="EN4" s="79"/>
+      <c r="EO4" s="79"/>
+      <c r="EP4" s="79"/>
+      <c r="EQ4" s="79"/>
+      <c r="ER4" s="80"/>
+      <c r="ES4" s="78">
+        <f t="shared" ref="ES4" si="18">ES5</f>
+        <v>44984</v>
+      </c>
+      <c r="ET4" s="79"/>
+      <c r="EU4" s="79"/>
+      <c r="EV4" s="79"/>
+      <c r="EW4" s="79"/>
+      <c r="EX4" s="79"/>
+      <c r="EY4" s="80"/>
+      <c r="EZ4" s="78">
+        <f t="shared" ref="EZ4" si="19">EZ5</f>
+        <v>44991</v>
+      </c>
+      <c r="FA4" s="79"/>
+      <c r="FB4" s="79"/>
+      <c r="FC4" s="79"/>
+      <c r="FD4" s="79"/>
+      <c r="FE4" s="79"/>
+      <c r="FF4" s="80"/>
+      <c r="FG4" s="78">
+        <f t="shared" ref="FG4" si="20">FG5</f>
+        <v>44998</v>
+      </c>
+      <c r="FH4" s="79"/>
+      <c r="FI4" s="79"/>
+      <c r="FJ4" s="79"/>
+      <c r="FK4" s="79"/>
+      <c r="FL4" s="79"/>
+      <c r="FM4" s="80"/>
+      <c r="FN4" s="78">
+        <f t="shared" ref="FN4" si="21">FN5</f>
+        <v>45005</v>
+      </c>
+      <c r="FO4" s="79"/>
+      <c r="FP4" s="79"/>
+      <c r="FQ4" s="79"/>
+      <c r="FR4" s="79"/>
+      <c r="FS4" s="79"/>
+      <c r="FT4" s="80"/>
+      <c r="FU4" s="78">
+        <f t="shared" ref="FU4" si="22">FU5</f>
+        <v>45012</v>
+      </c>
+      <c r="FV4" s="79"/>
+      <c r="FW4" s="79"/>
+      <c r="FX4" s="79"/>
+      <c r="FY4" s="79"/>
+      <c r="FZ4" s="79"/>
+      <c r="GA4" s="80"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:183" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>21</v>
       </c>
@@ -1567,23 +1808,23 @@
         <v>44845</v>
       </c>
       <c r="K5" s="10">
-        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
+        <f t="shared" ref="K5:AX5" si="23">J5+1</f>
         <v>44846</v>
       </c>
       <c r="L5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44847</v>
       </c>
       <c r="M5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44848</v>
       </c>
       <c r="N5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44849</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44850</v>
       </c>
       <c r="P5" s="11">
@@ -1595,23 +1836,23 @@
         <v>44852</v>
       </c>
       <c r="R5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44853</v>
       </c>
       <c r="S5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44854</v>
       </c>
       <c r="T5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44855</v>
       </c>
       <c r="U5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44856</v>
       </c>
       <c r="V5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44857</v>
       </c>
       <c r="W5" s="11">
@@ -1623,23 +1864,23 @@
         <v>44859</v>
       </c>
       <c r="Y5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44860</v>
       </c>
       <c r="Z5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44861</v>
       </c>
       <c r="AA5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44862</v>
       </c>
       <c r="AB5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44863</v>
       </c>
       <c r="AC5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44864</v>
       </c>
       <c r="AD5" s="11">
@@ -1651,23 +1892,23 @@
         <v>44866</v>
       </c>
       <c r="AF5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44867</v>
       </c>
       <c r="AG5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44868</v>
       </c>
       <c r="AH5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44869</v>
       </c>
       <c r="AI5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44870</v>
       </c>
       <c r="AJ5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44871</v>
       </c>
       <c r="AK5" s="11">
@@ -1679,23 +1920,23 @@
         <v>44873</v>
       </c>
       <c r="AM5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44874</v>
       </c>
       <c r="AN5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44875</v>
       </c>
       <c r="AO5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44876</v>
       </c>
       <c r="AP5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44877</v>
       </c>
       <c r="AQ5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44878</v>
       </c>
       <c r="AR5" s="11">
@@ -1707,23 +1948,23 @@
         <v>44880</v>
       </c>
       <c r="AT5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44881</v>
       </c>
       <c r="AU5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44882</v>
       </c>
       <c r="AV5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44883</v>
       </c>
       <c r="AW5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44884</v>
       </c>
       <c r="AX5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>44885</v>
       </c>
       <c r="AY5" s="11">
@@ -1735,23 +1976,23 @@
         <v>44887</v>
       </c>
       <c r="BA5" s="10">
-        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
+        <f t="shared" ref="BA5:BE5" si="24">AZ5+1</f>
         <v>44888</v>
       </c>
       <c r="BB5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="24"/>
         <v>44889</v>
       </c>
       <c r="BC5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="24"/>
         <v>44890</v>
       </c>
       <c r="BD5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="24"/>
         <v>44891</v>
       </c>
       <c r="BE5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="24"/>
         <v>44892</v>
       </c>
       <c r="BF5" s="11">
@@ -1763,27 +2004,503 @@
         <v>44894</v>
       </c>
       <c r="BH5" s="10">
-        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
+        <f t="shared" ref="BH5:BL5" si="25">BG5+1</f>
         <v>44895</v>
       </c>
       <c r="BI5" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="25"/>
         <v>44896</v>
       </c>
       <c r="BJ5" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="25"/>
         <v>44897</v>
       </c>
       <c r="BK5" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="25"/>
         <v>44898</v>
       </c>
       <c r="BL5" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="25"/>
         <v>44899</v>
       </c>
+      <c r="BM5" s="10">
+        <f t="shared" ref="BM5" si="26">BL5+1</f>
+        <v>44900</v>
+      </c>
+      <c r="BN5" s="10">
+        <f t="shared" ref="BN5" si="27">BM5+1</f>
+        <v>44901</v>
+      </c>
+      <c r="BO5" s="10">
+        <f t="shared" ref="BO5" si="28">BN5+1</f>
+        <v>44902</v>
+      </c>
+      <c r="BP5" s="10">
+        <f t="shared" ref="BP5" si="29">BO5+1</f>
+        <v>44903</v>
+      </c>
+      <c r="BQ5" s="12">
+        <f t="shared" ref="BQ5" si="30">BP5+1</f>
+        <v>44904</v>
+      </c>
+      <c r="BR5" s="11">
+        <f>BQ5+1</f>
+        <v>44905</v>
+      </c>
+      <c r="BS5" s="10">
+        <f>BR5+1</f>
+        <v>44906</v>
+      </c>
+      <c r="BT5" s="10">
+        <f t="shared" ref="BT5" si="31">BS5+1</f>
+        <v>44907</v>
+      </c>
+      <c r="BU5" s="10">
+        <f t="shared" ref="BU5" si="32">BT5+1</f>
+        <v>44908</v>
+      </c>
+      <c r="BV5" s="10">
+        <f t="shared" ref="BV5" si="33">BU5+1</f>
+        <v>44909</v>
+      </c>
+      <c r="BW5" s="10">
+        <f t="shared" ref="BW5" si="34">BV5+1</f>
+        <v>44910</v>
+      </c>
+      <c r="BX5" s="10">
+        <f t="shared" ref="BX5" si="35">BW5+1</f>
+        <v>44911</v>
+      </c>
+      <c r="BY5" s="12">
+        <f t="shared" ref="BY5:CA5" si="36">BX5+1</f>
+        <v>44912</v>
+      </c>
+      <c r="BZ5" s="11">
+        <f t="shared" si="36"/>
+        <v>44913</v>
+      </c>
+      <c r="CA5" s="10">
+        <f t="shared" si="36"/>
+        <v>44914</v>
+      </c>
+      <c r="CB5" s="10">
+        <f t="shared" ref="CB5" si="37">CA5+1</f>
+        <v>44915</v>
+      </c>
+      <c r="CC5" s="10">
+        <f t="shared" ref="CC5" si="38">CB5+1</f>
+        <v>44916</v>
+      </c>
+      <c r="CD5" s="10">
+        <f t="shared" ref="CD5" si="39">CC5+1</f>
+        <v>44917</v>
+      </c>
+      <c r="CE5" s="10">
+        <f t="shared" ref="CE5" si="40">CD5+1</f>
+        <v>44918</v>
+      </c>
+      <c r="CF5" s="12">
+        <f t="shared" ref="CF5:CH5" si="41">CE5+1</f>
+        <v>44919</v>
+      </c>
+      <c r="CG5" s="11">
+        <f t="shared" si="41"/>
+        <v>44920</v>
+      </c>
+      <c r="CH5" s="10">
+        <f t="shared" si="41"/>
+        <v>44921</v>
+      </c>
+      <c r="CI5" s="10">
+        <f t="shared" ref="CI5" si="42">CH5+1</f>
+        <v>44922</v>
+      </c>
+      <c r="CJ5" s="10">
+        <f t="shared" ref="CJ5" si="43">CI5+1</f>
+        <v>44923</v>
+      </c>
+      <c r="CK5" s="10">
+        <f t="shared" ref="CK5" si="44">CJ5+1</f>
+        <v>44924</v>
+      </c>
+      <c r="CL5" s="10">
+        <f t="shared" ref="CL5" si="45">CK5+1</f>
+        <v>44925</v>
+      </c>
+      <c r="CM5" s="12">
+        <f t="shared" ref="CM5" si="46">CL5+1</f>
+        <v>44926</v>
+      </c>
+      <c r="CN5" s="10">
+        <f t="shared" ref="CN5" si="47">CM5+1</f>
+        <v>44927</v>
+      </c>
+      <c r="CO5" s="10">
+        <f t="shared" ref="CO5" si="48">CN5+1</f>
+        <v>44928</v>
+      </c>
+      <c r="CP5" s="10">
+        <f t="shared" ref="CP5" si="49">CO5+1</f>
+        <v>44929</v>
+      </c>
+      <c r="CQ5" s="10">
+        <f t="shared" ref="CQ5" si="50">CP5+1</f>
+        <v>44930</v>
+      </c>
+      <c r="CR5" s="12">
+        <f t="shared" ref="CR5:CT5" si="51">CQ5+1</f>
+        <v>44931</v>
+      </c>
+      <c r="CS5" s="11">
+        <f t="shared" si="51"/>
+        <v>44932</v>
+      </c>
+      <c r="CT5" s="10">
+        <f t="shared" si="51"/>
+        <v>44933</v>
+      </c>
+      <c r="CU5" s="10">
+        <f t="shared" ref="CU5" si="52">CT5+1</f>
+        <v>44934</v>
+      </c>
+      <c r="CV5" s="10">
+        <f t="shared" ref="CV5" si="53">CU5+1</f>
+        <v>44935</v>
+      </c>
+      <c r="CW5" s="10">
+        <f t="shared" ref="CW5" si="54">CV5+1</f>
+        <v>44936</v>
+      </c>
+      <c r="CX5" s="10">
+        <f t="shared" ref="CX5" si="55">CW5+1</f>
+        <v>44937</v>
+      </c>
+      <c r="CY5" s="10">
+        <f t="shared" ref="CY5" si="56">CX5+1</f>
+        <v>44938</v>
+      </c>
+      <c r="CZ5" s="12">
+        <f t="shared" ref="CZ5:DB5" si="57">CY5+1</f>
+        <v>44939</v>
+      </c>
+      <c r="DA5" s="11">
+        <f t="shared" si="57"/>
+        <v>44940</v>
+      </c>
+      <c r="DB5" s="10">
+        <f t="shared" si="57"/>
+        <v>44941</v>
+      </c>
+      <c r="DC5" s="10">
+        <f t="shared" ref="DC5" si="58">DB5+1</f>
+        <v>44942</v>
+      </c>
+      <c r="DD5" s="10">
+        <f t="shared" ref="DD5" si="59">DC5+1</f>
+        <v>44943</v>
+      </c>
+      <c r="DE5" s="10">
+        <f t="shared" ref="DE5" si="60">DD5+1</f>
+        <v>44944</v>
+      </c>
+      <c r="DF5" s="10">
+        <f t="shared" ref="DF5" si="61">DE5+1</f>
+        <v>44945</v>
+      </c>
+      <c r="DG5" s="12">
+        <f t="shared" ref="DG5:DI5" si="62">DF5+1</f>
+        <v>44946</v>
+      </c>
+      <c r="DH5" s="11">
+        <f t="shared" si="62"/>
+        <v>44947</v>
+      </c>
+      <c r="DI5" s="10">
+        <f t="shared" si="62"/>
+        <v>44948</v>
+      </c>
+      <c r="DJ5" s="10">
+        <f t="shared" ref="DJ5" si="63">DI5+1</f>
+        <v>44949</v>
+      </c>
+      <c r="DK5" s="10">
+        <f t="shared" ref="DK5" si="64">DJ5+1</f>
+        <v>44950</v>
+      </c>
+      <c r="DL5" s="10">
+        <f t="shared" ref="DL5" si="65">DK5+1</f>
+        <v>44951</v>
+      </c>
+      <c r="DM5" s="10">
+        <f t="shared" ref="DM5" si="66">DL5+1</f>
+        <v>44952</v>
+      </c>
+      <c r="DN5" s="12">
+        <f t="shared" ref="DN5" si="67">DM5+1</f>
+        <v>44953</v>
+      </c>
+      <c r="DO5" s="10">
+        <f t="shared" ref="DO5" si="68">DN5+1</f>
+        <v>44954</v>
+      </c>
+      <c r="DP5" s="10">
+        <f t="shared" ref="DP5" si="69">DO5+1</f>
+        <v>44955</v>
+      </c>
+      <c r="DQ5" s="10">
+        <f t="shared" ref="DQ5" si="70">DP5+1</f>
+        <v>44956</v>
+      </c>
+      <c r="DR5" s="10">
+        <f t="shared" ref="DR5" si="71">DQ5+1</f>
+        <v>44957</v>
+      </c>
+      <c r="DS5" s="10">
+        <f t="shared" ref="DS5" si="72">DR5+1</f>
+        <v>44958</v>
+      </c>
+      <c r="DT5" s="10">
+        <f t="shared" ref="DT5" si="73">DS5+1</f>
+        <v>44959</v>
+      </c>
+      <c r="DU5" s="10">
+        <f t="shared" ref="DU5" si="74">DT5+1</f>
+        <v>44960</v>
+      </c>
+      <c r="DV5" s="10">
+        <f t="shared" ref="DV5" si="75">DU5+1</f>
+        <v>44961</v>
+      </c>
+      <c r="DW5" s="10">
+        <f t="shared" ref="DW5" si="76">DV5+1</f>
+        <v>44962</v>
+      </c>
+      <c r="DX5" s="10">
+        <f t="shared" ref="DX5" si="77">DW5+1</f>
+        <v>44963</v>
+      </c>
+      <c r="DY5" s="12">
+        <f t="shared" ref="DY5" si="78">DX5+1</f>
+        <v>44964</v>
+      </c>
+      <c r="DZ5" s="10">
+        <f t="shared" ref="DZ5" si="79">DY5+1</f>
+        <v>44965</v>
+      </c>
+      <c r="EA5" s="10">
+        <f t="shared" ref="EA5" si="80">DZ5+1</f>
+        <v>44966</v>
+      </c>
+      <c r="EB5" s="10">
+        <f t="shared" ref="EB5" si="81">EA5+1</f>
+        <v>44967</v>
+      </c>
+      <c r="EC5" s="10">
+        <f t="shared" ref="EC5" si="82">EB5+1</f>
+        <v>44968</v>
+      </c>
+      <c r="ED5" s="12">
+        <f t="shared" ref="ED5" si="83">EC5+1</f>
+        <v>44969</v>
+      </c>
+      <c r="EE5" s="11">
+        <f t="shared" ref="EE5" si="84">ED5+1</f>
+        <v>44970</v>
+      </c>
+      <c r="EF5" s="10">
+        <f t="shared" ref="EF5" si="85">EE5+1</f>
+        <v>44971</v>
+      </c>
+      <c r="EG5" s="10">
+        <f t="shared" ref="EG5" si="86">EF5+1</f>
+        <v>44972</v>
+      </c>
+      <c r="EH5" s="10">
+        <f t="shared" ref="EH5" si="87">EG5+1</f>
+        <v>44973</v>
+      </c>
+      <c r="EI5" s="10">
+        <f t="shared" ref="EI5" si="88">EH5+1</f>
+        <v>44974</v>
+      </c>
+      <c r="EJ5" s="10">
+        <f t="shared" ref="EJ5" si="89">EI5+1</f>
+        <v>44975</v>
+      </c>
+      <c r="EK5" s="10">
+        <f t="shared" ref="EK5" si="90">EJ5+1</f>
+        <v>44976</v>
+      </c>
+      <c r="EL5" s="12">
+        <f t="shared" ref="EL5" si="91">EK5+1</f>
+        <v>44977</v>
+      </c>
+      <c r="EM5" s="11">
+        <f t="shared" ref="EM5" si="92">EL5+1</f>
+        <v>44978</v>
+      </c>
+      <c r="EN5" s="10">
+        <f t="shared" ref="EN5" si="93">EM5+1</f>
+        <v>44979</v>
+      </c>
+      <c r="EO5" s="10">
+        <f t="shared" ref="EO5" si="94">EN5+1</f>
+        <v>44980</v>
+      </c>
+      <c r="EP5" s="10">
+        <f t="shared" ref="EP5" si="95">EO5+1</f>
+        <v>44981</v>
+      </c>
+      <c r="EQ5" s="10">
+        <f t="shared" ref="EQ5" si="96">EP5+1</f>
+        <v>44982</v>
+      </c>
+      <c r="ER5" s="10">
+        <f t="shared" ref="ER5" si="97">EQ5+1</f>
+        <v>44983</v>
+      </c>
+      <c r="ES5" s="10">
+        <f t="shared" ref="ES5" si="98">ER5+1</f>
+        <v>44984</v>
+      </c>
+      <c r="ET5" s="12">
+        <f t="shared" ref="ET5" si="99">ES5+1</f>
+        <v>44985</v>
+      </c>
+      <c r="EU5" s="11">
+        <f t="shared" ref="EU5" si="100">ET5+1</f>
+        <v>44986</v>
+      </c>
+      <c r="EV5" s="10">
+        <f t="shared" ref="EV5" si="101">EU5+1</f>
+        <v>44987</v>
+      </c>
+      <c r="EW5" s="10">
+        <f t="shared" ref="EW5" si="102">EV5+1</f>
+        <v>44988</v>
+      </c>
+      <c r="EX5" s="10">
+        <f t="shared" ref="EX5" si="103">EW5+1</f>
+        <v>44989</v>
+      </c>
+      <c r="EY5" s="10">
+        <f t="shared" ref="EY5" si="104">EX5+1</f>
+        <v>44990</v>
+      </c>
+      <c r="EZ5" s="10">
+        <f t="shared" ref="EZ5" si="105">EY5+1</f>
+        <v>44991</v>
+      </c>
+      <c r="FA5" s="12">
+        <f t="shared" ref="FA5" si="106">EZ5+1</f>
+        <v>44992</v>
+      </c>
+      <c r="FB5" s="10">
+        <f t="shared" ref="FB5" si="107">FA5+1</f>
+        <v>44993</v>
+      </c>
+      <c r="FC5" s="10">
+        <f t="shared" ref="FC5" si="108">FB5+1</f>
+        <v>44994</v>
+      </c>
+      <c r="FD5" s="10">
+        <f t="shared" ref="FD5" si="109">FC5+1</f>
+        <v>44995</v>
+      </c>
+      <c r="FE5" s="10">
+        <f t="shared" ref="FE5" si="110">FD5+1</f>
+        <v>44996</v>
+      </c>
+      <c r="FF5" s="10">
+        <f t="shared" ref="FF5" si="111">FE5+1</f>
+        <v>44997</v>
+      </c>
+      <c r="FG5" s="10">
+        <f t="shared" ref="FG5" si="112">FF5+1</f>
+        <v>44998</v>
+      </c>
+      <c r="FH5" s="10">
+        <f t="shared" ref="FH5" si="113">FG5+1</f>
+        <v>44999</v>
+      </c>
+      <c r="FI5" s="10">
+        <f t="shared" ref="FI5" si="114">FH5+1</f>
+        <v>45000</v>
+      </c>
+      <c r="FJ5" s="10">
+        <f t="shared" ref="FJ5" si="115">FI5+1</f>
+        <v>45001</v>
+      </c>
+      <c r="FK5" s="10">
+        <f t="shared" ref="FK5" si="116">FJ5+1</f>
+        <v>45002</v>
+      </c>
+      <c r="FL5" s="12">
+        <f t="shared" ref="FL5" si="117">FK5+1</f>
+        <v>45003</v>
+      </c>
+      <c r="FM5" s="11">
+        <f t="shared" ref="FM5" si="118">FL5+1</f>
+        <v>45004</v>
+      </c>
+      <c r="FN5" s="10">
+        <f t="shared" ref="FN5" si="119">FM5+1</f>
+        <v>45005</v>
+      </c>
+      <c r="FO5" s="10">
+        <f t="shared" ref="FO5" si="120">FN5+1</f>
+        <v>45006</v>
+      </c>
+      <c r="FP5" s="10">
+        <f t="shared" ref="FP5" si="121">FO5+1</f>
+        <v>45007</v>
+      </c>
+      <c r="FQ5" s="10">
+        <f t="shared" ref="FQ5" si="122">FP5+1</f>
+        <v>45008</v>
+      </c>
+      <c r="FR5" s="10">
+        <f t="shared" ref="FR5" si="123">FQ5+1</f>
+        <v>45009</v>
+      </c>
+      <c r="FS5" s="12">
+        <f t="shared" ref="FS5" si="124">FR5+1</f>
+        <v>45010</v>
+      </c>
+      <c r="FT5" s="10">
+        <f t="shared" ref="FT5" si="125">FS5+1</f>
+        <v>45011</v>
+      </c>
+      <c r="FU5" s="10">
+        <f t="shared" ref="FU5" si="126">FT5+1</f>
+        <v>45012</v>
+      </c>
+      <c r="FV5" s="10">
+        <f t="shared" ref="FV5" si="127">FU5+1</f>
+        <v>45013</v>
+      </c>
+      <c r="FW5" s="10">
+        <f t="shared" ref="FW5:FX5" si="128">FV5+1</f>
+        <v>45014</v>
+      </c>
+      <c r="FX5" s="10">
+        <f t="shared" si="128"/>
+        <v>45015</v>
+      </c>
+      <c r="FY5" s="10">
+        <f t="shared" ref="FY5" si="129">FX5+1</f>
+        <v>45016</v>
+      </c>
+      <c r="FZ5" s="10">
+        <f t="shared" ref="FZ5" si="130">FY5+1</f>
+        <v>45017</v>
+      </c>
+      <c r="GA5" s="10">
+        <f t="shared" ref="GA5" si="131">FZ5+1</f>
+        <v>45018</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:183" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>22</v>
       </c>
@@ -1807,231 +2524,707 @@
         <v>11</v>
       </c>
       <c r="I6" s="13" t="str">
-        <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
+        <f t="shared" ref="I6" si="132">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="J6" s="13" t="str">
-        <f t="shared" ref="J6:AR6" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
+        <f t="shared" ref="J6:AR6" si="133">LEFT(TEXT(J5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="K6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>W</v>
       </c>
       <c r="L6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>T</v>
       </c>
       <c r="M6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>F</v>
       </c>
       <c r="N6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>S</v>
       </c>
       <c r="O6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>S</v>
       </c>
       <c r="P6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>M</v>
       </c>
       <c r="Q6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>T</v>
       </c>
       <c r="R6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>W</v>
       </c>
       <c r="S6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>T</v>
       </c>
       <c r="T6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>F</v>
       </c>
       <c r="U6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>S</v>
       </c>
       <c r="V6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>S</v>
       </c>
       <c r="W6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>M</v>
       </c>
       <c r="X6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>T</v>
       </c>
       <c r="Y6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>W</v>
       </c>
       <c r="Z6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>T</v>
       </c>
       <c r="AA6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>F</v>
       </c>
       <c r="AB6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>S</v>
       </c>
       <c r="AC6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>S</v>
       </c>
       <c r="AD6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>M</v>
       </c>
       <c r="AE6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>T</v>
       </c>
       <c r="AF6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>W</v>
       </c>
       <c r="AG6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>T</v>
       </c>
       <c r="AH6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>F</v>
       </c>
       <c r="AI6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>S</v>
       </c>
       <c r="AJ6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>S</v>
       </c>
       <c r="AK6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>M</v>
       </c>
       <c r="AL6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>T</v>
       </c>
       <c r="AM6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>W</v>
       </c>
       <c r="AN6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>T</v>
       </c>
       <c r="AO6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>F</v>
       </c>
       <c r="AP6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>S</v>
       </c>
       <c r="AQ6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>S</v>
       </c>
       <c r="AR6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="133"/>
         <v>M</v>
       </c>
       <c r="AS6" s="13" t="str">
-        <f t="shared" ref="AS6:BL6" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
+        <f t="shared" ref="AS6:DD6" si="134">LEFT(TEXT(AS5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="AT6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="134"/>
         <v>W</v>
       </c>
       <c r="AU6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="134"/>
         <v>T</v>
       </c>
       <c r="AV6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="134"/>
         <v>F</v>
       </c>
       <c r="AW6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="134"/>
         <v>S</v>
       </c>
       <c r="AX6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="134"/>
         <v>S</v>
       </c>
       <c r="AY6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="134"/>
         <v>M</v>
       </c>
       <c r="AZ6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="134"/>
         <v>T</v>
       </c>
       <c r="BA6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="134"/>
         <v>W</v>
       </c>
       <c r="BB6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="134"/>
         <v>T</v>
       </c>
       <c r="BC6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="134"/>
         <v>F</v>
       </c>
       <c r="BD6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="134"/>
         <v>S</v>
       </c>
       <c r="BE6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="134"/>
         <v>S</v>
       </c>
       <c r="BF6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="134"/>
         <v>M</v>
       </c>
       <c r="BG6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="134"/>
         <v>T</v>
       </c>
       <c r="BH6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="134"/>
         <v>W</v>
       </c>
       <c r="BI6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="134"/>
         <v>T</v>
       </c>
       <c r="BJ6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="134"/>
         <v>F</v>
       </c>
       <c r="BK6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="134"/>
         <v>S</v>
       </c>
       <c r="BL6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="134"/>
         <v>S</v>
       </c>
+      <c r="BM6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>M</v>
+      </c>
+      <c r="BN6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>T</v>
+      </c>
+      <c r="BO6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>W</v>
+      </c>
+      <c r="BP6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>T</v>
+      </c>
+      <c r="BQ6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>F</v>
+      </c>
+      <c r="BR6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>S</v>
+      </c>
+      <c r="BS6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>S</v>
+      </c>
+      <c r="BT6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>M</v>
+      </c>
+      <c r="BU6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>T</v>
+      </c>
+      <c r="BV6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>W</v>
+      </c>
+      <c r="BW6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>T</v>
+      </c>
+      <c r="BX6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>F</v>
+      </c>
+      <c r="BY6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>S</v>
+      </c>
+      <c r="BZ6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>S</v>
+      </c>
+      <c r="CA6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>M</v>
+      </c>
+      <c r="CB6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>T</v>
+      </c>
+      <c r="CC6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>W</v>
+      </c>
+      <c r="CD6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>T</v>
+      </c>
+      <c r="CE6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>F</v>
+      </c>
+      <c r="CF6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>S</v>
+      </c>
+      <c r="CG6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>S</v>
+      </c>
+      <c r="CH6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>M</v>
+      </c>
+      <c r="CI6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>T</v>
+      </c>
+      <c r="CJ6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>W</v>
+      </c>
+      <c r="CK6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>T</v>
+      </c>
+      <c r="CL6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>F</v>
+      </c>
+      <c r="CM6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>S</v>
+      </c>
+      <c r="CN6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>S</v>
+      </c>
+      <c r="CO6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>M</v>
+      </c>
+      <c r="CP6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>T</v>
+      </c>
+      <c r="CQ6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>W</v>
+      </c>
+      <c r="CR6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>T</v>
+      </c>
+      <c r="CS6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>F</v>
+      </c>
+      <c r="CT6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>S</v>
+      </c>
+      <c r="CU6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>S</v>
+      </c>
+      <c r="CV6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>M</v>
+      </c>
+      <c r="CW6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>T</v>
+      </c>
+      <c r="CX6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>W</v>
+      </c>
+      <c r="CY6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>T</v>
+      </c>
+      <c r="CZ6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>F</v>
+      </c>
+      <c r="DA6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>S</v>
+      </c>
+      <c r="DB6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>S</v>
+      </c>
+      <c r="DC6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>M</v>
+      </c>
+      <c r="DD6" s="13" t="str">
+        <f t="shared" si="134"/>
+        <v>T</v>
+      </c>
+      <c r="DE6" s="13" t="str">
+        <f t="shared" ref="DE6:FP6" si="135">LEFT(TEXT(DE5,"ddd"),1)</f>
+        <v>W</v>
+      </c>
+      <c r="DF6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>T</v>
+      </c>
+      <c r="DG6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>F</v>
+      </c>
+      <c r="DH6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>S</v>
+      </c>
+      <c r="DI6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>S</v>
+      </c>
+      <c r="DJ6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>M</v>
+      </c>
+      <c r="DK6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>T</v>
+      </c>
+      <c r="DL6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>W</v>
+      </c>
+      <c r="DM6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>T</v>
+      </c>
+      <c r="DN6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>F</v>
+      </c>
+      <c r="DO6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>S</v>
+      </c>
+      <c r="DP6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>S</v>
+      </c>
+      <c r="DQ6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>M</v>
+      </c>
+      <c r="DR6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>T</v>
+      </c>
+      <c r="DS6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>W</v>
+      </c>
+      <c r="DT6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>T</v>
+      </c>
+      <c r="DU6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>F</v>
+      </c>
+      <c r="DV6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>S</v>
+      </c>
+      <c r="DW6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>S</v>
+      </c>
+      <c r="DX6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>M</v>
+      </c>
+      <c r="DY6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>T</v>
+      </c>
+      <c r="DZ6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>W</v>
+      </c>
+      <c r="EA6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>T</v>
+      </c>
+      <c r="EB6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>F</v>
+      </c>
+      <c r="EC6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>S</v>
+      </c>
+      <c r="ED6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>S</v>
+      </c>
+      <c r="EE6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>M</v>
+      </c>
+      <c r="EF6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>T</v>
+      </c>
+      <c r="EG6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>W</v>
+      </c>
+      <c r="EH6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>T</v>
+      </c>
+      <c r="EI6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>F</v>
+      </c>
+      <c r="EJ6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>S</v>
+      </c>
+      <c r="EK6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>S</v>
+      </c>
+      <c r="EL6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>M</v>
+      </c>
+      <c r="EM6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>T</v>
+      </c>
+      <c r="EN6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>W</v>
+      </c>
+      <c r="EO6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>T</v>
+      </c>
+      <c r="EP6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>F</v>
+      </c>
+      <c r="EQ6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>S</v>
+      </c>
+      <c r="ER6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>S</v>
+      </c>
+      <c r="ES6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>M</v>
+      </c>
+      <c r="ET6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>T</v>
+      </c>
+      <c r="EU6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>W</v>
+      </c>
+      <c r="EV6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>T</v>
+      </c>
+      <c r="EW6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>F</v>
+      </c>
+      <c r="EX6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>S</v>
+      </c>
+      <c r="EY6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>S</v>
+      </c>
+      <c r="EZ6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>M</v>
+      </c>
+      <c r="FA6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>T</v>
+      </c>
+      <c r="FB6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>W</v>
+      </c>
+      <c r="FC6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>T</v>
+      </c>
+      <c r="FD6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>F</v>
+      </c>
+      <c r="FE6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>S</v>
+      </c>
+      <c r="FF6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>S</v>
+      </c>
+      <c r="FG6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>M</v>
+      </c>
+      <c r="FH6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>T</v>
+      </c>
+      <c r="FI6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>W</v>
+      </c>
+      <c r="FJ6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>T</v>
+      </c>
+      <c r="FK6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>F</v>
+      </c>
+      <c r="FL6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>S</v>
+      </c>
+      <c r="FM6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>S</v>
+      </c>
+      <c r="FN6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>M</v>
+      </c>
+      <c r="FO6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>T</v>
+      </c>
+      <c r="FP6" s="13" t="str">
+        <f t="shared" si="135"/>
+        <v>W</v>
+      </c>
+      <c r="FQ6" s="13" t="str">
+        <f t="shared" ref="FQ6:GA6" si="136">LEFT(TEXT(FQ5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="FR6" s="13" t="str">
+        <f t="shared" si="136"/>
+        <v>F</v>
+      </c>
+      <c r="FS6" s="13" t="str">
+        <f t="shared" si="136"/>
+        <v>S</v>
+      </c>
+      <c r="FT6" s="13" t="str">
+        <f t="shared" si="136"/>
+        <v>S</v>
+      </c>
+      <c r="FU6" s="13" t="str">
+        <f t="shared" si="136"/>
+        <v>M</v>
+      </c>
+      <c r="FV6" s="13" t="str">
+        <f t="shared" si="136"/>
+        <v>T</v>
+      </c>
+      <c r="FW6" s="13" t="str">
+        <f t="shared" si="136"/>
+        <v>W</v>
+      </c>
+      <c r="FX6" s="13" t="str">
+        <f t="shared" si="136"/>
+        <v>T</v>
+      </c>
+      <c r="FY6" s="13" t="str">
+        <f t="shared" si="136"/>
+        <v>F</v>
+      </c>
+      <c r="FZ6" s="13" t="str">
+        <f t="shared" si="136"/>
+        <v>S</v>
+      </c>
+      <c r="GA6" s="13" t="str">
+        <f t="shared" si="136"/>
+        <v>S</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:183" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
         <v>27</v>
       </c>
@@ -2098,7 +3291,7 @@
       <c r="BK7" s="39"/>
       <c r="BL7" s="39"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>23</v>
       </c>
@@ -2111,7 +3304,7 @@
       <c r="F8" s="70"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H39" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H41" si="137">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="39"/>
@@ -2170,8 +3363,127 @@
       <c r="BJ8" s="39"/>
       <c r="BK8" s="39"/>
       <c r="BL8" s="39"/>
+      <c r="BM8" s="39"/>
+      <c r="BN8" s="39"/>
+      <c r="BO8" s="39"/>
+      <c r="BP8" s="39"/>
+      <c r="BQ8" s="39"/>
+      <c r="BR8" s="39"/>
+      <c r="BS8" s="39"/>
+      <c r="BT8" s="39"/>
+      <c r="BU8" s="39"/>
+      <c r="BV8" s="39"/>
+      <c r="BW8" s="39"/>
+      <c r="BX8" s="39"/>
+      <c r="BY8" s="39"/>
+      <c r="BZ8" s="39"/>
+      <c r="CA8" s="39"/>
+      <c r="CB8" s="39"/>
+      <c r="CC8" s="39"/>
+      <c r="CD8" s="39"/>
+      <c r="CE8" s="39"/>
+      <c r="CF8" s="39"/>
+      <c r="CG8" s="39"/>
+      <c r="CH8" s="39"/>
+      <c r="CI8" s="39"/>
+      <c r="CJ8" s="39"/>
+      <c r="CK8" s="39"/>
+      <c r="CL8" s="39"/>
+      <c r="CM8" s="39"/>
+      <c r="CN8" s="39"/>
+      <c r="CO8" s="39"/>
+      <c r="CP8" s="39"/>
+      <c r="CQ8" s="39"/>
+      <c r="CR8" s="39"/>
+      <c r="CS8" s="39"/>
+      <c r="CT8" s="39"/>
+      <c r="CU8" s="39"/>
+      <c r="CV8" s="39"/>
+      <c r="CW8" s="39"/>
+      <c r="CX8" s="39"/>
+      <c r="CY8" s="39"/>
+      <c r="CZ8" s="39"/>
+      <c r="DA8" s="39"/>
+      <c r="DB8" s="39"/>
+      <c r="DC8" s="39"/>
+      <c r="DD8" s="39"/>
+      <c r="DE8" s="39"/>
+      <c r="DF8" s="39"/>
+      <c r="DG8" s="39"/>
+      <c r="DH8" s="39"/>
+      <c r="DI8" s="39"/>
+      <c r="DJ8" s="39"/>
+      <c r="DK8" s="39"/>
+      <c r="DL8" s="39"/>
+      <c r="DM8" s="39"/>
+      <c r="DN8" s="39"/>
+      <c r="DO8" s="39"/>
+      <c r="DP8" s="39"/>
+      <c r="DQ8" s="39"/>
+      <c r="DR8" s="39"/>
+      <c r="DS8" s="39"/>
+      <c r="DT8" s="39"/>
+      <c r="DU8" s="39"/>
+      <c r="DV8" s="39"/>
+      <c r="DW8" s="39"/>
+      <c r="DX8" s="39"/>
+      <c r="DY8" s="39"/>
+      <c r="DZ8" s="39"/>
+      <c r="EA8" s="39"/>
+      <c r="EB8" s="39"/>
+      <c r="EC8" s="39"/>
+      <c r="ED8" s="39"/>
+      <c r="EE8" s="39"/>
+      <c r="EF8" s="39"/>
+      <c r="EG8" s="39"/>
+      <c r="EH8" s="39"/>
+      <c r="EI8" s="39"/>
+      <c r="EJ8" s="39"/>
+      <c r="EK8" s="39"/>
+      <c r="EL8" s="39"/>
+      <c r="EM8" s="39"/>
+      <c r="EN8" s="39"/>
+      <c r="EO8" s="39"/>
+      <c r="EP8" s="39"/>
+      <c r="EQ8" s="39"/>
+      <c r="ER8" s="39"/>
+      <c r="ES8" s="39"/>
+      <c r="ET8" s="39"/>
+      <c r="EU8" s="39"/>
+      <c r="EV8" s="39"/>
+      <c r="EW8" s="39"/>
+      <c r="EX8" s="39"/>
+      <c r="EY8" s="39"/>
+      <c r="EZ8" s="39"/>
+      <c r="FA8" s="39"/>
+      <c r="FB8" s="39"/>
+      <c r="FC8" s="39"/>
+      <c r="FD8" s="39"/>
+      <c r="FE8" s="39"/>
+      <c r="FF8" s="39"/>
+      <c r="FG8" s="39"/>
+      <c r="FH8" s="39"/>
+      <c r="FI8" s="39"/>
+      <c r="FJ8" s="39"/>
+      <c r="FK8" s="39"/>
+      <c r="FL8" s="39"/>
+      <c r="FM8" s="39"/>
+      <c r="FN8" s="39"/>
+      <c r="FO8" s="39"/>
+      <c r="FP8" s="39"/>
+      <c r="FQ8" s="39"/>
+      <c r="FR8" s="39"/>
+      <c r="FS8" s="39"/>
+      <c r="FT8" s="39"/>
+      <c r="FU8" s="39"/>
+      <c r="FV8" s="39"/>
+      <c r="FW8" s="39"/>
+      <c r="FX8" s="39"/>
+      <c r="FY8" s="39"/>
+      <c r="FZ8" s="39"/>
+      <c r="GA8" s="39"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>28</v>
       </c>
@@ -2189,12 +3501,12 @@
         <v>44844</v>
       </c>
       <c r="F9" s="74">
-        <f t="shared" ref="F9:F12" si="7">E9+7</f>
+        <f t="shared" ref="F9:F12" si="138">E9+7</f>
         <v>44851</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="137"/>
         <v>8</v>
       </c>
       <c r="I9" s="39"/>
@@ -2253,8 +3565,127 @@
       <c r="BJ9" s="39"/>
       <c r="BK9" s="39"/>
       <c r="BL9" s="39"/>
+      <c r="BM9" s="39"/>
+      <c r="BN9" s="39"/>
+      <c r="BO9" s="39"/>
+      <c r="BP9" s="39"/>
+      <c r="BQ9" s="39"/>
+      <c r="BR9" s="39"/>
+      <c r="BS9" s="39"/>
+      <c r="BT9" s="39"/>
+      <c r="BU9" s="39"/>
+      <c r="BV9" s="39"/>
+      <c r="BW9" s="39"/>
+      <c r="BX9" s="39"/>
+      <c r="BY9" s="39"/>
+      <c r="BZ9" s="39"/>
+      <c r="CA9" s="39"/>
+      <c r="CB9" s="39"/>
+      <c r="CC9" s="39"/>
+      <c r="CD9" s="39"/>
+      <c r="CE9" s="39"/>
+      <c r="CF9" s="39"/>
+      <c r="CG9" s="39"/>
+      <c r="CH9" s="39"/>
+      <c r="CI9" s="39"/>
+      <c r="CJ9" s="39"/>
+      <c r="CK9" s="39"/>
+      <c r="CL9" s="39"/>
+      <c r="CM9" s="39"/>
+      <c r="CN9" s="39"/>
+      <c r="CO9" s="39"/>
+      <c r="CP9" s="39"/>
+      <c r="CQ9" s="39"/>
+      <c r="CR9" s="39"/>
+      <c r="CS9" s="39"/>
+      <c r="CT9" s="39"/>
+      <c r="CU9" s="39"/>
+      <c r="CV9" s="39"/>
+      <c r="CW9" s="39"/>
+      <c r="CX9" s="39"/>
+      <c r="CY9" s="39"/>
+      <c r="CZ9" s="39"/>
+      <c r="DA9" s="39"/>
+      <c r="DB9" s="39"/>
+      <c r="DC9" s="39"/>
+      <c r="DD9" s="39"/>
+      <c r="DE9" s="39"/>
+      <c r="DF9" s="39"/>
+      <c r="DG9" s="39"/>
+      <c r="DH9" s="39"/>
+      <c r="DI9" s="39"/>
+      <c r="DJ9" s="39"/>
+      <c r="DK9" s="39"/>
+      <c r="DL9" s="39"/>
+      <c r="DM9" s="39"/>
+      <c r="DN9" s="39"/>
+      <c r="DO9" s="39"/>
+      <c r="DP9" s="39"/>
+      <c r="DQ9" s="39"/>
+      <c r="DR9" s="39"/>
+      <c r="DS9" s="39"/>
+      <c r="DT9" s="39"/>
+      <c r="DU9" s="39"/>
+      <c r="DV9" s="39"/>
+      <c r="DW9" s="39"/>
+      <c r="DX9" s="39"/>
+      <c r="DY9" s="39"/>
+      <c r="DZ9" s="39"/>
+      <c r="EA9" s="39"/>
+      <c r="EB9" s="39"/>
+      <c r="EC9" s="39"/>
+      <c r="ED9" s="39"/>
+      <c r="EE9" s="39"/>
+      <c r="EF9" s="39"/>
+      <c r="EG9" s="39"/>
+      <c r="EH9" s="39"/>
+      <c r="EI9" s="39"/>
+      <c r="EJ9" s="39"/>
+      <c r="EK9" s="39"/>
+      <c r="EL9" s="39"/>
+      <c r="EM9" s="39"/>
+      <c r="EN9" s="39"/>
+      <c r="EO9" s="39"/>
+      <c r="EP9" s="39"/>
+      <c r="EQ9" s="39"/>
+      <c r="ER9" s="39"/>
+      <c r="ES9" s="39"/>
+      <c r="ET9" s="39"/>
+      <c r="EU9" s="39"/>
+      <c r="EV9" s="39"/>
+      <c r="EW9" s="39"/>
+      <c r="EX9" s="39"/>
+      <c r="EY9" s="39"/>
+      <c r="EZ9" s="39"/>
+      <c r="FA9" s="39"/>
+      <c r="FB9" s="39"/>
+      <c r="FC9" s="39"/>
+      <c r="FD9" s="39"/>
+      <c r="FE9" s="39"/>
+      <c r="FF9" s="39"/>
+      <c r="FG9" s="39"/>
+      <c r="FH9" s="39"/>
+      <c r="FI9" s="39"/>
+      <c r="FJ9" s="39"/>
+      <c r="FK9" s="39"/>
+      <c r="FL9" s="39"/>
+      <c r="FM9" s="39"/>
+      <c r="FN9" s="39"/>
+      <c r="FO9" s="39"/>
+      <c r="FP9" s="39"/>
+      <c r="FQ9" s="39"/>
+      <c r="FR9" s="39"/>
+      <c r="FS9" s="39"/>
+      <c r="FT9" s="39"/>
+      <c r="FU9" s="39"/>
+      <c r="FV9" s="39"/>
+      <c r="FW9" s="39"/>
+      <c r="FX9" s="39"/>
+      <c r="FY9" s="39"/>
+      <c r="FZ9" s="39"/>
+      <c r="GA9" s="39"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>24</v>
       </c>
@@ -2272,12 +3703,12 @@
         <v>44844</v>
       </c>
       <c r="F10" s="74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="138"/>
         <v>44851</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="137"/>
         <v>8</v>
       </c>
       <c r="I10" s="39"/>
@@ -2336,8 +3767,127 @@
       <c r="BJ10" s="39"/>
       <c r="BK10" s="39"/>
       <c r="BL10" s="39"/>
+      <c r="BM10" s="39"/>
+      <c r="BN10" s="39"/>
+      <c r="BO10" s="39"/>
+      <c r="BP10" s="39"/>
+      <c r="BQ10" s="39"/>
+      <c r="BR10" s="39"/>
+      <c r="BS10" s="39"/>
+      <c r="BT10" s="39"/>
+      <c r="BU10" s="39"/>
+      <c r="BV10" s="39"/>
+      <c r="BW10" s="39"/>
+      <c r="BX10" s="39"/>
+      <c r="BY10" s="39"/>
+      <c r="BZ10" s="39"/>
+      <c r="CA10" s="39"/>
+      <c r="CB10" s="39"/>
+      <c r="CC10" s="39"/>
+      <c r="CD10" s="39"/>
+      <c r="CE10" s="39"/>
+      <c r="CF10" s="39"/>
+      <c r="CG10" s="39"/>
+      <c r="CH10" s="39"/>
+      <c r="CI10" s="39"/>
+      <c r="CJ10" s="39"/>
+      <c r="CK10" s="39"/>
+      <c r="CL10" s="39"/>
+      <c r="CM10" s="39"/>
+      <c r="CN10" s="39"/>
+      <c r="CO10" s="39"/>
+      <c r="CP10" s="39"/>
+      <c r="CQ10" s="39"/>
+      <c r="CR10" s="39"/>
+      <c r="CS10" s="39"/>
+      <c r="CT10" s="39"/>
+      <c r="CU10" s="39"/>
+      <c r="CV10" s="39"/>
+      <c r="CW10" s="39"/>
+      <c r="CX10" s="39"/>
+      <c r="CY10" s="39"/>
+      <c r="CZ10" s="39"/>
+      <c r="DA10" s="39"/>
+      <c r="DB10" s="39"/>
+      <c r="DC10" s="39"/>
+      <c r="DD10" s="39"/>
+      <c r="DE10" s="39"/>
+      <c r="DF10" s="39"/>
+      <c r="DG10" s="39"/>
+      <c r="DH10" s="39"/>
+      <c r="DI10" s="39"/>
+      <c r="DJ10" s="39"/>
+      <c r="DK10" s="39"/>
+      <c r="DL10" s="39"/>
+      <c r="DM10" s="39"/>
+      <c r="DN10" s="39"/>
+      <c r="DO10" s="39"/>
+      <c r="DP10" s="39"/>
+      <c r="DQ10" s="39"/>
+      <c r="DR10" s="39"/>
+      <c r="DS10" s="39"/>
+      <c r="DT10" s="39"/>
+      <c r="DU10" s="39"/>
+      <c r="DV10" s="39"/>
+      <c r="DW10" s="39"/>
+      <c r="DX10" s="39"/>
+      <c r="DY10" s="39"/>
+      <c r="DZ10" s="39"/>
+      <c r="EA10" s="39"/>
+      <c r="EB10" s="39"/>
+      <c r="EC10" s="39"/>
+      <c r="ED10" s="39"/>
+      <c r="EE10" s="39"/>
+      <c r="EF10" s="39"/>
+      <c r="EG10" s="39"/>
+      <c r="EH10" s="39"/>
+      <c r="EI10" s="39"/>
+      <c r="EJ10" s="39"/>
+      <c r="EK10" s="39"/>
+      <c r="EL10" s="39"/>
+      <c r="EM10" s="39"/>
+      <c r="EN10" s="39"/>
+      <c r="EO10" s="39"/>
+      <c r="EP10" s="39"/>
+      <c r="EQ10" s="39"/>
+      <c r="ER10" s="39"/>
+      <c r="ES10" s="39"/>
+      <c r="ET10" s="39"/>
+      <c r="EU10" s="39"/>
+      <c r="EV10" s="39"/>
+      <c r="EW10" s="39"/>
+      <c r="EX10" s="39"/>
+      <c r="EY10" s="39"/>
+      <c r="EZ10" s="39"/>
+      <c r="FA10" s="39"/>
+      <c r="FB10" s="39"/>
+      <c r="FC10" s="39"/>
+      <c r="FD10" s="39"/>
+      <c r="FE10" s="39"/>
+      <c r="FF10" s="39"/>
+      <c r="FG10" s="39"/>
+      <c r="FH10" s="39"/>
+      <c r="FI10" s="39"/>
+      <c r="FJ10" s="39"/>
+      <c r="FK10" s="39"/>
+      <c r="FL10" s="39"/>
+      <c r="FM10" s="39"/>
+      <c r="FN10" s="39"/>
+      <c r="FO10" s="39"/>
+      <c r="FP10" s="39"/>
+      <c r="FQ10" s="39"/>
+      <c r="FR10" s="39"/>
+      <c r="FS10" s="39"/>
+      <c r="FT10" s="39"/>
+      <c r="FU10" s="39"/>
+      <c r="FV10" s="39"/>
+      <c r="FW10" s="39"/>
+      <c r="FX10" s="39"/>
+      <c r="FY10" s="39"/>
+      <c r="FZ10" s="39"/>
+      <c r="GA10" s="39"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="71" t="s">
         <v>35</v>
@@ -2353,12 +3903,12 @@
         <v>44844</v>
       </c>
       <c r="F11" s="74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="138"/>
         <v>44851</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="137"/>
         <v>8</v>
       </c>
       <c r="I11" s="39"/>
@@ -2417,8 +3967,127 @@
       <c r="BJ11" s="39"/>
       <c r="BK11" s="39"/>
       <c r="BL11" s="39"/>
+      <c r="BM11" s="39"/>
+      <c r="BN11" s="39"/>
+      <c r="BO11" s="39"/>
+      <c r="BP11" s="39"/>
+      <c r="BQ11" s="39"/>
+      <c r="BR11" s="39"/>
+      <c r="BS11" s="39"/>
+      <c r="BT11" s="39"/>
+      <c r="BU11" s="39"/>
+      <c r="BV11" s="39"/>
+      <c r="BW11" s="39"/>
+      <c r="BX11" s="39"/>
+      <c r="BY11" s="39"/>
+      <c r="BZ11" s="39"/>
+      <c r="CA11" s="39"/>
+      <c r="CB11" s="39"/>
+      <c r="CC11" s="39"/>
+      <c r="CD11" s="39"/>
+      <c r="CE11" s="39"/>
+      <c r="CF11" s="39"/>
+      <c r="CG11" s="39"/>
+      <c r="CH11" s="39"/>
+      <c r="CI11" s="39"/>
+      <c r="CJ11" s="39"/>
+      <c r="CK11" s="39"/>
+      <c r="CL11" s="39"/>
+      <c r="CM11" s="39"/>
+      <c r="CN11" s="39"/>
+      <c r="CO11" s="39"/>
+      <c r="CP11" s="39"/>
+      <c r="CQ11" s="39"/>
+      <c r="CR11" s="39"/>
+      <c r="CS11" s="39"/>
+      <c r="CT11" s="39"/>
+      <c r="CU11" s="39"/>
+      <c r="CV11" s="39"/>
+      <c r="CW11" s="39"/>
+      <c r="CX11" s="39"/>
+      <c r="CY11" s="39"/>
+      <c r="CZ11" s="39"/>
+      <c r="DA11" s="39"/>
+      <c r="DB11" s="39"/>
+      <c r="DC11" s="39"/>
+      <c r="DD11" s="39"/>
+      <c r="DE11" s="39"/>
+      <c r="DF11" s="39"/>
+      <c r="DG11" s="39"/>
+      <c r="DH11" s="39"/>
+      <c r="DI11" s="39"/>
+      <c r="DJ11" s="39"/>
+      <c r="DK11" s="39"/>
+      <c r="DL11" s="39"/>
+      <c r="DM11" s="39"/>
+      <c r="DN11" s="39"/>
+      <c r="DO11" s="39"/>
+      <c r="DP11" s="39"/>
+      <c r="DQ11" s="39"/>
+      <c r="DR11" s="39"/>
+      <c r="DS11" s="39"/>
+      <c r="DT11" s="39"/>
+      <c r="DU11" s="39"/>
+      <c r="DV11" s="39"/>
+      <c r="DW11" s="39"/>
+      <c r="DX11" s="39"/>
+      <c r="DY11" s="39"/>
+      <c r="DZ11" s="39"/>
+      <c r="EA11" s="39"/>
+      <c r="EB11" s="39"/>
+      <c r="EC11" s="39"/>
+      <c r="ED11" s="39"/>
+      <c r="EE11" s="39"/>
+      <c r="EF11" s="39"/>
+      <c r="EG11" s="39"/>
+      <c r="EH11" s="39"/>
+      <c r="EI11" s="39"/>
+      <c r="EJ11" s="39"/>
+      <c r="EK11" s="39"/>
+      <c r="EL11" s="39"/>
+      <c r="EM11" s="39"/>
+      <c r="EN11" s="39"/>
+      <c r="EO11" s="39"/>
+      <c r="EP11" s="39"/>
+      <c r="EQ11" s="39"/>
+      <c r="ER11" s="39"/>
+      <c r="ES11" s="39"/>
+      <c r="ET11" s="39"/>
+      <c r="EU11" s="39"/>
+      <c r="EV11" s="39"/>
+      <c r="EW11" s="39"/>
+      <c r="EX11" s="39"/>
+      <c r="EY11" s="39"/>
+      <c r="EZ11" s="39"/>
+      <c r="FA11" s="39"/>
+      <c r="FB11" s="39"/>
+      <c r="FC11" s="39"/>
+      <c r="FD11" s="39"/>
+      <c r="FE11" s="39"/>
+      <c r="FF11" s="39"/>
+      <c r="FG11" s="39"/>
+      <c r="FH11" s="39"/>
+      <c r="FI11" s="39"/>
+      <c r="FJ11" s="39"/>
+      <c r="FK11" s="39"/>
+      <c r="FL11" s="39"/>
+      <c r="FM11" s="39"/>
+      <c r="FN11" s="39"/>
+      <c r="FO11" s="39"/>
+      <c r="FP11" s="39"/>
+      <c r="FQ11" s="39"/>
+      <c r="FR11" s="39"/>
+      <c r="FS11" s="39"/>
+      <c r="FT11" s="39"/>
+      <c r="FU11" s="39"/>
+      <c r="FV11" s="39"/>
+      <c r="FW11" s="39"/>
+      <c r="FX11" s="39"/>
+      <c r="FY11" s="39"/>
+      <c r="FZ11" s="39"/>
+      <c r="GA11" s="39"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="71" t="s">
         <v>37</v>
@@ -2434,12 +4103,12 @@
         <v>44844</v>
       </c>
       <c r="F12" s="74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="138"/>
         <v>44851</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="137"/>
         <v>8</v>
       </c>
       <c r="I12" s="39"/>
@@ -2498,8 +4167,127 @@
       <c r="BJ12" s="39"/>
       <c r="BK12" s="39"/>
       <c r="BL12" s="39"/>
+      <c r="BM12" s="39"/>
+      <c r="BN12" s="39"/>
+      <c r="BO12" s="39"/>
+      <c r="BP12" s="39"/>
+      <c r="BQ12" s="39"/>
+      <c r="BR12" s="39"/>
+      <c r="BS12" s="39"/>
+      <c r="BT12" s="39"/>
+      <c r="BU12" s="39"/>
+      <c r="BV12" s="39"/>
+      <c r="BW12" s="39"/>
+      <c r="BX12" s="39"/>
+      <c r="BY12" s="39"/>
+      <c r="BZ12" s="39"/>
+      <c r="CA12" s="39"/>
+      <c r="CB12" s="39"/>
+      <c r="CC12" s="39"/>
+      <c r="CD12" s="39"/>
+      <c r="CE12" s="39"/>
+      <c r="CF12" s="39"/>
+      <c r="CG12" s="39"/>
+      <c r="CH12" s="39"/>
+      <c r="CI12" s="39"/>
+      <c r="CJ12" s="39"/>
+      <c r="CK12" s="39"/>
+      <c r="CL12" s="39"/>
+      <c r="CM12" s="39"/>
+      <c r="CN12" s="39"/>
+      <c r="CO12" s="39"/>
+      <c r="CP12" s="39"/>
+      <c r="CQ12" s="39"/>
+      <c r="CR12" s="39"/>
+      <c r="CS12" s="39"/>
+      <c r="CT12" s="39"/>
+      <c r="CU12" s="39"/>
+      <c r="CV12" s="39"/>
+      <c r="CW12" s="39"/>
+      <c r="CX12" s="39"/>
+      <c r="CY12" s="39"/>
+      <c r="CZ12" s="39"/>
+      <c r="DA12" s="39"/>
+      <c r="DB12" s="39"/>
+      <c r="DC12" s="39"/>
+      <c r="DD12" s="39"/>
+      <c r="DE12" s="39"/>
+      <c r="DF12" s="39"/>
+      <c r="DG12" s="39"/>
+      <c r="DH12" s="39"/>
+      <c r="DI12" s="39"/>
+      <c r="DJ12" s="39"/>
+      <c r="DK12" s="39"/>
+      <c r="DL12" s="39"/>
+      <c r="DM12" s="39"/>
+      <c r="DN12" s="39"/>
+      <c r="DO12" s="39"/>
+      <c r="DP12" s="39"/>
+      <c r="DQ12" s="39"/>
+      <c r="DR12" s="39"/>
+      <c r="DS12" s="39"/>
+      <c r="DT12" s="39"/>
+      <c r="DU12" s="39"/>
+      <c r="DV12" s="39"/>
+      <c r="DW12" s="39"/>
+      <c r="DX12" s="39"/>
+      <c r="DY12" s="39"/>
+      <c r="DZ12" s="39"/>
+      <c r="EA12" s="39"/>
+      <c r="EB12" s="39"/>
+      <c r="EC12" s="39"/>
+      <c r="ED12" s="39"/>
+      <c r="EE12" s="39"/>
+      <c r="EF12" s="39"/>
+      <c r="EG12" s="39"/>
+      <c r="EH12" s="39"/>
+      <c r="EI12" s="39"/>
+      <c r="EJ12" s="39"/>
+      <c r="EK12" s="39"/>
+      <c r="EL12" s="39"/>
+      <c r="EM12" s="39"/>
+      <c r="EN12" s="39"/>
+      <c r="EO12" s="39"/>
+      <c r="EP12" s="39"/>
+      <c r="EQ12" s="39"/>
+      <c r="ER12" s="39"/>
+      <c r="ES12" s="39"/>
+      <c r="ET12" s="39"/>
+      <c r="EU12" s="39"/>
+      <c r="EV12" s="39"/>
+      <c r="EW12" s="39"/>
+      <c r="EX12" s="39"/>
+      <c r="EY12" s="39"/>
+      <c r="EZ12" s="39"/>
+      <c r="FA12" s="39"/>
+      <c r="FB12" s="39"/>
+      <c r="FC12" s="39"/>
+      <c r="FD12" s="39"/>
+      <c r="FE12" s="39"/>
+      <c r="FF12" s="39"/>
+      <c r="FG12" s="39"/>
+      <c r="FH12" s="39"/>
+      <c r="FI12" s="39"/>
+      <c r="FJ12" s="39"/>
+      <c r="FK12" s="39"/>
+      <c r="FL12" s="39"/>
+      <c r="FM12" s="39"/>
+      <c r="FN12" s="39"/>
+      <c r="FO12" s="39"/>
+      <c r="FP12" s="39"/>
+      <c r="FQ12" s="39"/>
+      <c r="FR12" s="39"/>
+      <c r="FS12" s="39"/>
+      <c r="FT12" s="39"/>
+      <c r="FU12" s="39"/>
+      <c r="FV12" s="39"/>
+      <c r="FW12" s="39"/>
+      <c r="FX12" s="39"/>
+      <c r="FY12" s="39"/>
+      <c r="FZ12" s="39"/>
+      <c r="GA12" s="39"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
       <c r="B13" s="75" t="s">
         <v>42</v>
@@ -2576,8 +4364,127 @@
       <c r="BJ13" s="39"/>
       <c r="BK13" s="39"/>
       <c r="BL13" s="39"/>
+      <c r="BM13" s="39"/>
+      <c r="BN13" s="39"/>
+      <c r="BO13" s="39"/>
+      <c r="BP13" s="39"/>
+      <c r="BQ13" s="39"/>
+      <c r="BR13" s="39"/>
+      <c r="BS13" s="39"/>
+      <c r="BT13" s="39"/>
+      <c r="BU13" s="39"/>
+      <c r="BV13" s="39"/>
+      <c r="BW13" s="39"/>
+      <c r="BX13" s="39"/>
+      <c r="BY13" s="39"/>
+      <c r="BZ13" s="39"/>
+      <c r="CA13" s="39"/>
+      <c r="CB13" s="39"/>
+      <c r="CC13" s="39"/>
+      <c r="CD13" s="39"/>
+      <c r="CE13" s="39"/>
+      <c r="CF13" s="39"/>
+      <c r="CG13" s="39"/>
+      <c r="CH13" s="39"/>
+      <c r="CI13" s="39"/>
+      <c r="CJ13" s="39"/>
+      <c r="CK13" s="39"/>
+      <c r="CL13" s="39"/>
+      <c r="CM13" s="39"/>
+      <c r="CN13" s="39"/>
+      <c r="CO13" s="39"/>
+      <c r="CP13" s="39"/>
+      <c r="CQ13" s="39"/>
+      <c r="CR13" s="39"/>
+      <c r="CS13" s="39"/>
+      <c r="CT13" s="39"/>
+      <c r="CU13" s="39"/>
+      <c r="CV13" s="39"/>
+      <c r="CW13" s="39"/>
+      <c r="CX13" s="39"/>
+      <c r="CY13" s="39"/>
+      <c r="CZ13" s="39"/>
+      <c r="DA13" s="39"/>
+      <c r="DB13" s="39"/>
+      <c r="DC13" s="39"/>
+      <c r="DD13" s="39"/>
+      <c r="DE13" s="39"/>
+      <c r="DF13" s="39"/>
+      <c r="DG13" s="39"/>
+      <c r="DH13" s="39"/>
+      <c r="DI13" s="39"/>
+      <c r="DJ13" s="39"/>
+      <c r="DK13" s="39"/>
+      <c r="DL13" s="39"/>
+      <c r="DM13" s="39"/>
+      <c r="DN13" s="39"/>
+      <c r="DO13" s="39"/>
+      <c r="DP13" s="39"/>
+      <c r="DQ13" s="39"/>
+      <c r="DR13" s="39"/>
+      <c r="DS13" s="39"/>
+      <c r="DT13" s="39"/>
+      <c r="DU13" s="39"/>
+      <c r="DV13" s="39"/>
+      <c r="DW13" s="39"/>
+      <c r="DX13" s="39"/>
+      <c r="DY13" s="39"/>
+      <c r="DZ13" s="39"/>
+      <c r="EA13" s="39"/>
+      <c r="EB13" s="39"/>
+      <c r="EC13" s="39"/>
+      <c r="ED13" s="39"/>
+      <c r="EE13" s="39"/>
+      <c r="EF13" s="39"/>
+      <c r="EG13" s="39"/>
+      <c r="EH13" s="39"/>
+      <c r="EI13" s="39"/>
+      <c r="EJ13" s="39"/>
+      <c r="EK13" s="39"/>
+      <c r="EL13" s="39"/>
+      <c r="EM13" s="39"/>
+      <c r="EN13" s="39"/>
+      <c r="EO13" s="39"/>
+      <c r="EP13" s="39"/>
+      <c r="EQ13" s="39"/>
+      <c r="ER13" s="39"/>
+      <c r="ES13" s="39"/>
+      <c r="ET13" s="39"/>
+      <c r="EU13" s="39"/>
+      <c r="EV13" s="39"/>
+      <c r="EW13" s="39"/>
+      <c r="EX13" s="39"/>
+      <c r="EY13" s="39"/>
+      <c r="EZ13" s="39"/>
+      <c r="FA13" s="39"/>
+      <c r="FB13" s="39"/>
+      <c r="FC13" s="39"/>
+      <c r="FD13" s="39"/>
+      <c r="FE13" s="39"/>
+      <c r="FF13" s="39"/>
+      <c r="FG13" s="39"/>
+      <c r="FH13" s="39"/>
+      <c r="FI13" s="39"/>
+      <c r="FJ13" s="39"/>
+      <c r="FK13" s="39"/>
+      <c r="FL13" s="39"/>
+      <c r="FM13" s="39"/>
+      <c r="FN13" s="39"/>
+      <c r="FO13" s="39"/>
+      <c r="FP13" s="39"/>
+      <c r="FQ13" s="39"/>
+      <c r="FR13" s="39"/>
+      <c r="FS13" s="39"/>
+      <c r="FT13" s="39"/>
+      <c r="FU13" s="39"/>
+      <c r="FV13" s="39"/>
+      <c r="FW13" s="39"/>
+      <c r="FX13" s="39"/>
+      <c r="FY13" s="39"/>
+      <c r="FZ13" s="39"/>
+      <c r="GA13" s="39"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="71" t="s">
         <v>39</v>
@@ -2598,7 +4505,7 @@
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="137"/>
         <v>5</v>
       </c>
       <c r="I14" s="39"/>
@@ -2657,8 +4564,127 @@
       <c r="BJ14" s="39"/>
       <c r="BK14" s="39"/>
       <c r="BL14" s="39"/>
+      <c r="BM14" s="39"/>
+      <c r="BN14" s="39"/>
+      <c r="BO14" s="39"/>
+      <c r="BP14" s="39"/>
+      <c r="BQ14" s="39"/>
+      <c r="BR14" s="39"/>
+      <c r="BS14" s="39"/>
+      <c r="BT14" s="39"/>
+      <c r="BU14" s="39"/>
+      <c r="BV14" s="39"/>
+      <c r="BW14" s="39"/>
+      <c r="BX14" s="39"/>
+      <c r="BY14" s="39"/>
+      <c r="BZ14" s="39"/>
+      <c r="CA14" s="39"/>
+      <c r="CB14" s="39"/>
+      <c r="CC14" s="39"/>
+      <c r="CD14" s="39"/>
+      <c r="CE14" s="39"/>
+      <c r="CF14" s="39"/>
+      <c r="CG14" s="39"/>
+      <c r="CH14" s="39"/>
+      <c r="CI14" s="39"/>
+      <c r="CJ14" s="39"/>
+      <c r="CK14" s="39"/>
+      <c r="CL14" s="39"/>
+      <c r="CM14" s="39"/>
+      <c r="CN14" s="39"/>
+      <c r="CO14" s="39"/>
+      <c r="CP14" s="39"/>
+      <c r="CQ14" s="39"/>
+      <c r="CR14" s="39"/>
+      <c r="CS14" s="39"/>
+      <c r="CT14" s="39"/>
+      <c r="CU14" s="39"/>
+      <c r="CV14" s="39"/>
+      <c r="CW14" s="39"/>
+      <c r="CX14" s="39"/>
+      <c r="CY14" s="39"/>
+      <c r="CZ14" s="39"/>
+      <c r="DA14" s="39"/>
+      <c r="DB14" s="39"/>
+      <c r="DC14" s="39"/>
+      <c r="DD14" s="39"/>
+      <c r="DE14" s="39"/>
+      <c r="DF14" s="39"/>
+      <c r="DG14" s="39"/>
+      <c r="DH14" s="39"/>
+      <c r="DI14" s="39"/>
+      <c r="DJ14" s="39"/>
+      <c r="DK14" s="39"/>
+      <c r="DL14" s="39"/>
+      <c r="DM14" s="39"/>
+      <c r="DN14" s="39"/>
+      <c r="DO14" s="39"/>
+      <c r="DP14" s="39"/>
+      <c r="DQ14" s="39"/>
+      <c r="DR14" s="39"/>
+      <c r="DS14" s="39"/>
+      <c r="DT14" s="39"/>
+      <c r="DU14" s="39"/>
+      <c r="DV14" s="39"/>
+      <c r="DW14" s="39"/>
+      <c r="DX14" s="39"/>
+      <c r="DY14" s="39"/>
+      <c r="DZ14" s="39"/>
+      <c r="EA14" s="39"/>
+      <c r="EB14" s="39"/>
+      <c r="EC14" s="39"/>
+      <c r="ED14" s="39"/>
+      <c r="EE14" s="39"/>
+      <c r="EF14" s="39"/>
+      <c r="EG14" s="39"/>
+      <c r="EH14" s="39"/>
+      <c r="EI14" s="39"/>
+      <c r="EJ14" s="39"/>
+      <c r="EK14" s="39"/>
+      <c r="EL14" s="39"/>
+      <c r="EM14" s="39"/>
+      <c r="EN14" s="39"/>
+      <c r="EO14" s="39"/>
+      <c r="EP14" s="39"/>
+      <c r="EQ14" s="39"/>
+      <c r="ER14" s="39"/>
+      <c r="ES14" s="39"/>
+      <c r="ET14" s="39"/>
+      <c r="EU14" s="39"/>
+      <c r="EV14" s="39"/>
+      <c r="EW14" s="39"/>
+      <c r="EX14" s="39"/>
+      <c r="EY14" s="39"/>
+      <c r="EZ14" s="39"/>
+      <c r="FA14" s="39"/>
+      <c r="FB14" s="39"/>
+      <c r="FC14" s="39"/>
+      <c r="FD14" s="39"/>
+      <c r="FE14" s="39"/>
+      <c r="FF14" s="39"/>
+      <c r="FG14" s="39"/>
+      <c r="FH14" s="39"/>
+      <c r="FI14" s="39"/>
+      <c r="FJ14" s="39"/>
+      <c r="FK14" s="39"/>
+      <c r="FL14" s="39"/>
+      <c r="FM14" s="39"/>
+      <c r="FN14" s="39"/>
+      <c r="FO14" s="39"/>
+      <c r="FP14" s="39"/>
+      <c r="FQ14" s="39"/>
+      <c r="FR14" s="39"/>
+      <c r="FS14" s="39"/>
+      <c r="FT14" s="39"/>
+      <c r="FU14" s="39"/>
+      <c r="FV14" s="39"/>
+      <c r="FW14" s="39"/>
+      <c r="FX14" s="39"/>
+      <c r="FY14" s="39"/>
+      <c r="FZ14" s="39"/>
+      <c r="GA14" s="39"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>25</v>
       </c>
@@ -2671,7 +4697,7 @@
       <c r="F15" s="21"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="137"/>
         <v/>
       </c>
       <c r="I15" s="39"/>
@@ -2730,8 +4756,127 @@
       <c r="BJ15" s="39"/>
       <c r="BK15" s="39"/>
       <c r="BL15" s="39"/>
+      <c r="BM15" s="39"/>
+      <c r="BN15" s="39"/>
+      <c r="BO15" s="39"/>
+      <c r="BP15" s="39"/>
+      <c r="BQ15" s="39"/>
+      <c r="BR15" s="39"/>
+      <c r="BS15" s="39"/>
+      <c r="BT15" s="39"/>
+      <c r="BU15" s="39"/>
+      <c r="BV15" s="39"/>
+      <c r="BW15" s="39"/>
+      <c r="BX15" s="39"/>
+      <c r="BY15" s="39"/>
+      <c r="BZ15" s="39"/>
+      <c r="CA15" s="39"/>
+      <c r="CB15" s="39"/>
+      <c r="CC15" s="39"/>
+      <c r="CD15" s="39"/>
+      <c r="CE15" s="39"/>
+      <c r="CF15" s="39"/>
+      <c r="CG15" s="39"/>
+      <c r="CH15" s="39"/>
+      <c r="CI15" s="39"/>
+      <c r="CJ15" s="39"/>
+      <c r="CK15" s="39"/>
+      <c r="CL15" s="39"/>
+      <c r="CM15" s="39"/>
+      <c r="CN15" s="39"/>
+      <c r="CO15" s="39"/>
+      <c r="CP15" s="39"/>
+      <c r="CQ15" s="39"/>
+      <c r="CR15" s="39"/>
+      <c r="CS15" s="39"/>
+      <c r="CT15" s="39"/>
+      <c r="CU15" s="39"/>
+      <c r="CV15" s="39"/>
+      <c r="CW15" s="39"/>
+      <c r="CX15" s="39"/>
+      <c r="CY15" s="39"/>
+      <c r="CZ15" s="39"/>
+      <c r="DA15" s="39"/>
+      <c r="DB15" s="39"/>
+      <c r="DC15" s="39"/>
+      <c r="DD15" s="39"/>
+      <c r="DE15" s="39"/>
+      <c r="DF15" s="39"/>
+      <c r="DG15" s="39"/>
+      <c r="DH15" s="39"/>
+      <c r="DI15" s="39"/>
+      <c r="DJ15" s="39"/>
+      <c r="DK15" s="39"/>
+      <c r="DL15" s="39"/>
+      <c r="DM15" s="39"/>
+      <c r="DN15" s="39"/>
+      <c r="DO15" s="39"/>
+      <c r="DP15" s="39"/>
+      <c r="DQ15" s="39"/>
+      <c r="DR15" s="39"/>
+      <c r="DS15" s="39"/>
+      <c r="DT15" s="39"/>
+      <c r="DU15" s="39"/>
+      <c r="DV15" s="39"/>
+      <c r="DW15" s="39"/>
+      <c r="DX15" s="39"/>
+      <c r="DY15" s="39"/>
+      <c r="DZ15" s="39"/>
+      <c r="EA15" s="39"/>
+      <c r="EB15" s="39"/>
+      <c r="EC15" s="39"/>
+      <c r="ED15" s="39"/>
+      <c r="EE15" s="39"/>
+      <c r="EF15" s="39"/>
+      <c r="EG15" s="39"/>
+      <c r="EH15" s="39"/>
+      <c r="EI15" s="39"/>
+      <c r="EJ15" s="39"/>
+      <c r="EK15" s="39"/>
+      <c r="EL15" s="39"/>
+      <c r="EM15" s="39"/>
+      <c r="EN15" s="39"/>
+      <c r="EO15" s="39"/>
+      <c r="EP15" s="39"/>
+      <c r="EQ15" s="39"/>
+      <c r="ER15" s="39"/>
+      <c r="ES15" s="39"/>
+      <c r="ET15" s="39"/>
+      <c r="EU15" s="39"/>
+      <c r="EV15" s="39"/>
+      <c r="EW15" s="39"/>
+      <c r="EX15" s="39"/>
+      <c r="EY15" s="39"/>
+      <c r="EZ15" s="39"/>
+      <c r="FA15" s="39"/>
+      <c r="FB15" s="39"/>
+      <c r="FC15" s="39"/>
+      <c r="FD15" s="39"/>
+      <c r="FE15" s="39"/>
+      <c r="FF15" s="39"/>
+      <c r="FG15" s="39"/>
+      <c r="FH15" s="39"/>
+      <c r="FI15" s="39"/>
+      <c r="FJ15" s="39"/>
+      <c r="FK15" s="39"/>
+      <c r="FL15" s="39"/>
+      <c r="FM15" s="39"/>
+      <c r="FN15" s="39"/>
+      <c r="FO15" s="39"/>
+      <c r="FP15" s="39"/>
+      <c r="FQ15" s="39"/>
+      <c r="FR15" s="39"/>
+      <c r="FS15" s="39"/>
+      <c r="FT15" s="39"/>
+      <c r="FU15" s="39"/>
+      <c r="FV15" s="39"/>
+      <c r="FW15" s="39"/>
+      <c r="FX15" s="39"/>
+      <c r="FY15" s="39"/>
+      <c r="FZ15" s="39"/>
+      <c r="GA15" s="39"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
       <c r="B16" s="60" t="s">
         <v>47</v>
@@ -2752,7 +4897,7 @@
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="137"/>
         <v>6</v>
       </c>
       <c r="I16" s="39"/>
@@ -2811,8 +4956,127 @@
       <c r="BJ16" s="39"/>
       <c r="BK16" s="39"/>
       <c r="BL16" s="39"/>
+      <c r="BM16" s="39"/>
+      <c r="BN16" s="39"/>
+      <c r="BO16" s="39"/>
+      <c r="BP16" s="39"/>
+      <c r="BQ16" s="39"/>
+      <c r="BR16" s="39"/>
+      <c r="BS16" s="39"/>
+      <c r="BT16" s="39"/>
+      <c r="BU16" s="39"/>
+      <c r="BV16" s="39"/>
+      <c r="BW16" s="39"/>
+      <c r="BX16" s="39"/>
+      <c r="BY16" s="39"/>
+      <c r="BZ16" s="39"/>
+      <c r="CA16" s="39"/>
+      <c r="CB16" s="39"/>
+      <c r="CC16" s="39"/>
+      <c r="CD16" s="39"/>
+      <c r="CE16" s="39"/>
+      <c r="CF16" s="39"/>
+      <c r="CG16" s="39"/>
+      <c r="CH16" s="39"/>
+      <c r="CI16" s="39"/>
+      <c r="CJ16" s="39"/>
+      <c r="CK16" s="39"/>
+      <c r="CL16" s="39"/>
+      <c r="CM16" s="39"/>
+      <c r="CN16" s="39"/>
+      <c r="CO16" s="39"/>
+      <c r="CP16" s="39"/>
+      <c r="CQ16" s="39"/>
+      <c r="CR16" s="39"/>
+      <c r="CS16" s="39"/>
+      <c r="CT16" s="39"/>
+      <c r="CU16" s="39"/>
+      <c r="CV16" s="39"/>
+      <c r="CW16" s="39"/>
+      <c r="CX16" s="39"/>
+      <c r="CY16" s="39"/>
+      <c r="CZ16" s="39"/>
+      <c r="DA16" s="39"/>
+      <c r="DB16" s="39"/>
+      <c r="DC16" s="39"/>
+      <c r="DD16" s="39"/>
+      <c r="DE16" s="39"/>
+      <c r="DF16" s="39"/>
+      <c r="DG16" s="39"/>
+      <c r="DH16" s="39"/>
+      <c r="DI16" s="39"/>
+      <c r="DJ16" s="39"/>
+      <c r="DK16" s="39"/>
+      <c r="DL16" s="39"/>
+      <c r="DM16" s="39"/>
+      <c r="DN16" s="39"/>
+      <c r="DO16" s="39"/>
+      <c r="DP16" s="39"/>
+      <c r="DQ16" s="39"/>
+      <c r="DR16" s="39"/>
+      <c r="DS16" s="39"/>
+      <c r="DT16" s="39"/>
+      <c r="DU16" s="39"/>
+      <c r="DV16" s="39"/>
+      <c r="DW16" s="39"/>
+      <c r="DX16" s="39"/>
+      <c r="DY16" s="39"/>
+      <c r="DZ16" s="39"/>
+      <c r="EA16" s="39"/>
+      <c r="EB16" s="39"/>
+      <c r="EC16" s="39"/>
+      <c r="ED16" s="39"/>
+      <c r="EE16" s="39"/>
+      <c r="EF16" s="39"/>
+      <c r="EG16" s="39"/>
+      <c r="EH16" s="39"/>
+      <c r="EI16" s="39"/>
+      <c r="EJ16" s="39"/>
+      <c r="EK16" s="39"/>
+      <c r="EL16" s="39"/>
+      <c r="EM16" s="39"/>
+      <c r="EN16" s="39"/>
+      <c r="EO16" s="39"/>
+      <c r="EP16" s="39"/>
+      <c r="EQ16" s="39"/>
+      <c r="ER16" s="39"/>
+      <c r="ES16" s="39"/>
+      <c r="ET16" s="39"/>
+      <c r="EU16" s="39"/>
+      <c r="EV16" s="39"/>
+      <c r="EW16" s="39"/>
+      <c r="EX16" s="39"/>
+      <c r="EY16" s="39"/>
+      <c r="EZ16" s="39"/>
+      <c r="FA16" s="39"/>
+      <c r="FB16" s="39"/>
+      <c r="FC16" s="39"/>
+      <c r="FD16" s="39"/>
+      <c r="FE16" s="39"/>
+      <c r="FF16" s="39"/>
+      <c r="FG16" s="39"/>
+      <c r="FH16" s="39"/>
+      <c r="FI16" s="39"/>
+      <c r="FJ16" s="39"/>
+      <c r="FK16" s="39"/>
+      <c r="FL16" s="39"/>
+      <c r="FM16" s="39"/>
+      <c r="FN16" s="39"/>
+      <c r="FO16" s="39"/>
+      <c r="FP16" s="39"/>
+      <c r="FQ16" s="39"/>
+      <c r="FR16" s="39"/>
+      <c r="FS16" s="39"/>
+      <c r="FT16" s="39"/>
+      <c r="FU16" s="39"/>
+      <c r="FV16" s="39"/>
+      <c r="FW16" s="39"/>
+      <c r="FX16" s="39"/>
+      <c r="FY16" s="39"/>
+      <c r="FZ16" s="39"/>
+      <c r="GA16" s="39"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
       <c r="B17" s="60" t="s">
         <v>50</v>
@@ -2833,7 +5097,7 @@
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="137"/>
         <v>6</v>
       </c>
       <c r="I17" s="39"/>
@@ -2892,8 +5156,127 @@
       <c r="BJ17" s="39"/>
       <c r="BK17" s="39"/>
       <c r="BL17" s="39"/>
+      <c r="BM17" s="39"/>
+      <c r="BN17" s="39"/>
+      <c r="BO17" s="39"/>
+      <c r="BP17" s="39"/>
+      <c r="BQ17" s="39"/>
+      <c r="BR17" s="39"/>
+      <c r="BS17" s="39"/>
+      <c r="BT17" s="39"/>
+      <c r="BU17" s="39"/>
+      <c r="BV17" s="39"/>
+      <c r="BW17" s="39"/>
+      <c r="BX17" s="39"/>
+      <c r="BY17" s="39"/>
+      <c r="BZ17" s="39"/>
+      <c r="CA17" s="39"/>
+      <c r="CB17" s="39"/>
+      <c r="CC17" s="39"/>
+      <c r="CD17" s="39"/>
+      <c r="CE17" s="39"/>
+      <c r="CF17" s="39"/>
+      <c r="CG17" s="39"/>
+      <c r="CH17" s="39"/>
+      <c r="CI17" s="39"/>
+      <c r="CJ17" s="39"/>
+      <c r="CK17" s="39"/>
+      <c r="CL17" s="39"/>
+      <c r="CM17" s="39"/>
+      <c r="CN17" s="39"/>
+      <c r="CO17" s="39"/>
+      <c r="CP17" s="39"/>
+      <c r="CQ17" s="39"/>
+      <c r="CR17" s="39"/>
+      <c r="CS17" s="39"/>
+      <c r="CT17" s="39"/>
+      <c r="CU17" s="39"/>
+      <c r="CV17" s="39"/>
+      <c r="CW17" s="39"/>
+      <c r="CX17" s="39"/>
+      <c r="CY17" s="39"/>
+      <c r="CZ17" s="39"/>
+      <c r="DA17" s="39"/>
+      <c r="DB17" s="39"/>
+      <c r="DC17" s="39"/>
+      <c r="DD17" s="39"/>
+      <c r="DE17" s="39"/>
+      <c r="DF17" s="39"/>
+      <c r="DG17" s="39"/>
+      <c r="DH17" s="39"/>
+      <c r="DI17" s="39"/>
+      <c r="DJ17" s="39"/>
+      <c r="DK17" s="39"/>
+      <c r="DL17" s="39"/>
+      <c r="DM17" s="39"/>
+      <c r="DN17" s="39"/>
+      <c r="DO17" s="39"/>
+      <c r="DP17" s="39"/>
+      <c r="DQ17" s="39"/>
+      <c r="DR17" s="39"/>
+      <c r="DS17" s="39"/>
+      <c r="DT17" s="39"/>
+      <c r="DU17" s="39"/>
+      <c r="DV17" s="39"/>
+      <c r="DW17" s="39"/>
+      <c r="DX17" s="39"/>
+      <c r="DY17" s="39"/>
+      <c r="DZ17" s="39"/>
+      <c r="EA17" s="39"/>
+      <c r="EB17" s="39"/>
+      <c r="EC17" s="39"/>
+      <c r="ED17" s="39"/>
+      <c r="EE17" s="39"/>
+      <c r="EF17" s="39"/>
+      <c r="EG17" s="39"/>
+      <c r="EH17" s="39"/>
+      <c r="EI17" s="39"/>
+      <c r="EJ17" s="39"/>
+      <c r="EK17" s="39"/>
+      <c r="EL17" s="39"/>
+      <c r="EM17" s="39"/>
+      <c r="EN17" s="39"/>
+      <c r="EO17" s="39"/>
+      <c r="EP17" s="39"/>
+      <c r="EQ17" s="39"/>
+      <c r="ER17" s="39"/>
+      <c r="ES17" s="39"/>
+      <c r="ET17" s="39"/>
+      <c r="EU17" s="39"/>
+      <c r="EV17" s="39"/>
+      <c r="EW17" s="39"/>
+      <c r="EX17" s="39"/>
+      <c r="EY17" s="39"/>
+      <c r="EZ17" s="39"/>
+      <c r="FA17" s="39"/>
+      <c r="FB17" s="39"/>
+      <c r="FC17" s="39"/>
+      <c r="FD17" s="39"/>
+      <c r="FE17" s="39"/>
+      <c r="FF17" s="39"/>
+      <c r="FG17" s="39"/>
+      <c r="FH17" s="39"/>
+      <c r="FI17" s="39"/>
+      <c r="FJ17" s="39"/>
+      <c r="FK17" s="39"/>
+      <c r="FL17" s="39"/>
+      <c r="FM17" s="39"/>
+      <c r="FN17" s="39"/>
+      <c r="FO17" s="39"/>
+      <c r="FP17" s="39"/>
+      <c r="FQ17" s="39"/>
+      <c r="FR17" s="39"/>
+      <c r="FS17" s="39"/>
+      <c r="FT17" s="39"/>
+      <c r="FU17" s="39"/>
+      <c r="FV17" s="39"/>
+      <c r="FW17" s="39"/>
+      <c r="FX17" s="39"/>
+      <c r="FY17" s="39"/>
+      <c r="FZ17" s="39"/>
+      <c r="GA17" s="39"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" s="60" t="s">
         <v>45</v>
@@ -2914,7 +5297,7 @@
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="137"/>
         <v>17</v>
       </c>
       <c r="I18" s="39"/>
@@ -2973,8 +5356,127 @@
       <c r="BJ18" s="39"/>
       <c r="BK18" s="39"/>
       <c r="BL18" s="39"/>
+      <c r="BM18" s="39"/>
+      <c r="BN18" s="39"/>
+      <c r="BO18" s="39"/>
+      <c r="BP18" s="39"/>
+      <c r="BQ18" s="39"/>
+      <c r="BR18" s="39"/>
+      <c r="BS18" s="39"/>
+      <c r="BT18" s="39"/>
+      <c r="BU18" s="39"/>
+      <c r="BV18" s="39"/>
+      <c r="BW18" s="39"/>
+      <c r="BX18" s="39"/>
+      <c r="BY18" s="39"/>
+      <c r="BZ18" s="39"/>
+      <c r="CA18" s="39"/>
+      <c r="CB18" s="39"/>
+      <c r="CC18" s="39"/>
+      <c r="CD18" s="39"/>
+      <c r="CE18" s="39"/>
+      <c r="CF18" s="39"/>
+      <c r="CG18" s="39"/>
+      <c r="CH18" s="39"/>
+      <c r="CI18" s="39"/>
+      <c r="CJ18" s="39"/>
+      <c r="CK18" s="39"/>
+      <c r="CL18" s="39"/>
+      <c r="CM18" s="39"/>
+      <c r="CN18" s="39"/>
+      <c r="CO18" s="39"/>
+      <c r="CP18" s="39"/>
+      <c r="CQ18" s="39"/>
+      <c r="CR18" s="39"/>
+      <c r="CS18" s="39"/>
+      <c r="CT18" s="39"/>
+      <c r="CU18" s="39"/>
+      <c r="CV18" s="39"/>
+      <c r="CW18" s="39"/>
+      <c r="CX18" s="39"/>
+      <c r="CY18" s="39"/>
+      <c r="CZ18" s="39"/>
+      <c r="DA18" s="39"/>
+      <c r="DB18" s="39"/>
+      <c r="DC18" s="39"/>
+      <c r="DD18" s="39"/>
+      <c r="DE18" s="39"/>
+      <c r="DF18" s="39"/>
+      <c r="DG18" s="39"/>
+      <c r="DH18" s="39"/>
+      <c r="DI18" s="39"/>
+      <c r="DJ18" s="39"/>
+      <c r="DK18" s="39"/>
+      <c r="DL18" s="39"/>
+      <c r="DM18" s="39"/>
+      <c r="DN18" s="39"/>
+      <c r="DO18" s="39"/>
+      <c r="DP18" s="39"/>
+      <c r="DQ18" s="39"/>
+      <c r="DR18" s="39"/>
+      <c r="DS18" s="39"/>
+      <c r="DT18" s="39"/>
+      <c r="DU18" s="39"/>
+      <c r="DV18" s="39"/>
+      <c r="DW18" s="39"/>
+      <c r="DX18" s="39"/>
+      <c r="DY18" s="39"/>
+      <c r="DZ18" s="39"/>
+      <c r="EA18" s="39"/>
+      <c r="EB18" s="39"/>
+      <c r="EC18" s="39"/>
+      <c r="ED18" s="39"/>
+      <c r="EE18" s="39"/>
+      <c r="EF18" s="39"/>
+      <c r="EG18" s="39"/>
+      <c r="EH18" s="39"/>
+      <c r="EI18" s="39"/>
+      <c r="EJ18" s="39"/>
+      <c r="EK18" s="39"/>
+      <c r="EL18" s="39"/>
+      <c r="EM18" s="39"/>
+      <c r="EN18" s="39"/>
+      <c r="EO18" s="39"/>
+      <c r="EP18" s="39"/>
+      <c r="EQ18" s="39"/>
+      <c r="ER18" s="39"/>
+      <c r="ES18" s="39"/>
+      <c r="ET18" s="39"/>
+      <c r="EU18" s="39"/>
+      <c r="EV18" s="39"/>
+      <c r="EW18" s="39"/>
+      <c r="EX18" s="39"/>
+      <c r="EY18" s="39"/>
+      <c r="EZ18" s="39"/>
+      <c r="FA18" s="39"/>
+      <c r="FB18" s="39"/>
+      <c r="FC18" s="39"/>
+      <c r="FD18" s="39"/>
+      <c r="FE18" s="39"/>
+      <c r="FF18" s="39"/>
+      <c r="FG18" s="39"/>
+      <c r="FH18" s="39"/>
+      <c r="FI18" s="39"/>
+      <c r="FJ18" s="39"/>
+      <c r="FK18" s="39"/>
+      <c r="FL18" s="39"/>
+      <c r="FM18" s="39"/>
+      <c r="FN18" s="39"/>
+      <c r="FO18" s="39"/>
+      <c r="FP18" s="39"/>
+      <c r="FQ18" s="39"/>
+      <c r="FR18" s="39"/>
+      <c r="FS18" s="39"/>
+      <c r="FT18" s="39"/>
+      <c r="FU18" s="39"/>
+      <c r="FV18" s="39"/>
+      <c r="FW18" s="39"/>
+      <c r="FX18" s="39"/>
+      <c r="FY18" s="39"/>
+      <c r="FZ18" s="39"/>
+      <c r="GA18" s="39"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="60" t="s">
         <v>49</v>
@@ -2995,7 +5497,7 @@
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="137"/>
         <v>17</v>
       </c>
       <c r="I19" s="39"/>
@@ -3054,8 +5556,127 @@
       <c r="BJ19" s="39"/>
       <c r="BK19" s="39"/>
       <c r="BL19" s="39"/>
+      <c r="BM19" s="39"/>
+      <c r="BN19" s="39"/>
+      <c r="BO19" s="39"/>
+      <c r="BP19" s="39"/>
+      <c r="BQ19" s="39"/>
+      <c r="BR19" s="39"/>
+      <c r="BS19" s="39"/>
+      <c r="BT19" s="39"/>
+      <c r="BU19" s="39"/>
+      <c r="BV19" s="39"/>
+      <c r="BW19" s="39"/>
+      <c r="BX19" s="39"/>
+      <c r="BY19" s="39"/>
+      <c r="BZ19" s="39"/>
+      <c r="CA19" s="39"/>
+      <c r="CB19" s="39"/>
+      <c r="CC19" s="39"/>
+      <c r="CD19" s="39"/>
+      <c r="CE19" s="39"/>
+      <c r="CF19" s="39"/>
+      <c r="CG19" s="39"/>
+      <c r="CH19" s="39"/>
+      <c r="CI19" s="39"/>
+      <c r="CJ19" s="39"/>
+      <c r="CK19" s="39"/>
+      <c r="CL19" s="39"/>
+      <c r="CM19" s="39"/>
+      <c r="CN19" s="39"/>
+      <c r="CO19" s="39"/>
+      <c r="CP19" s="39"/>
+      <c r="CQ19" s="39"/>
+      <c r="CR19" s="39"/>
+      <c r="CS19" s="39"/>
+      <c r="CT19" s="39"/>
+      <c r="CU19" s="39"/>
+      <c r="CV19" s="39"/>
+      <c r="CW19" s="39"/>
+      <c r="CX19" s="39"/>
+      <c r="CY19" s="39"/>
+      <c r="CZ19" s="39"/>
+      <c r="DA19" s="39"/>
+      <c r="DB19" s="39"/>
+      <c r="DC19" s="39"/>
+      <c r="DD19" s="39"/>
+      <c r="DE19" s="39"/>
+      <c r="DF19" s="39"/>
+      <c r="DG19" s="39"/>
+      <c r="DH19" s="39"/>
+      <c r="DI19" s="39"/>
+      <c r="DJ19" s="39"/>
+      <c r="DK19" s="39"/>
+      <c r="DL19" s="39"/>
+      <c r="DM19" s="39"/>
+      <c r="DN19" s="39"/>
+      <c r="DO19" s="39"/>
+      <c r="DP19" s="39"/>
+      <c r="DQ19" s="39"/>
+      <c r="DR19" s="39"/>
+      <c r="DS19" s="39"/>
+      <c r="DT19" s="39"/>
+      <c r="DU19" s="39"/>
+      <c r="DV19" s="39"/>
+      <c r="DW19" s="39"/>
+      <c r="DX19" s="39"/>
+      <c r="DY19" s="39"/>
+      <c r="DZ19" s="39"/>
+      <c r="EA19" s="39"/>
+      <c r="EB19" s="39"/>
+      <c r="EC19" s="39"/>
+      <c r="ED19" s="39"/>
+      <c r="EE19" s="39"/>
+      <c r="EF19" s="39"/>
+      <c r="EG19" s="39"/>
+      <c r="EH19" s="39"/>
+      <c r="EI19" s="39"/>
+      <c r="EJ19" s="39"/>
+      <c r="EK19" s="39"/>
+      <c r="EL19" s="39"/>
+      <c r="EM19" s="39"/>
+      <c r="EN19" s="39"/>
+      <c r="EO19" s="39"/>
+      <c r="EP19" s="39"/>
+      <c r="EQ19" s="39"/>
+      <c r="ER19" s="39"/>
+      <c r="ES19" s="39"/>
+      <c r="ET19" s="39"/>
+      <c r="EU19" s="39"/>
+      <c r="EV19" s="39"/>
+      <c r="EW19" s="39"/>
+      <c r="EX19" s="39"/>
+      <c r="EY19" s="39"/>
+      <c r="EZ19" s="39"/>
+      <c r="FA19" s="39"/>
+      <c r="FB19" s="39"/>
+      <c r="FC19" s="39"/>
+      <c r="FD19" s="39"/>
+      <c r="FE19" s="39"/>
+      <c r="FF19" s="39"/>
+      <c r="FG19" s="39"/>
+      <c r="FH19" s="39"/>
+      <c r="FI19" s="39"/>
+      <c r="FJ19" s="39"/>
+      <c r="FK19" s="39"/>
+      <c r="FL19" s="39"/>
+      <c r="FM19" s="39"/>
+      <c r="FN19" s="39"/>
+      <c r="FO19" s="39"/>
+      <c r="FP19" s="39"/>
+      <c r="FQ19" s="39"/>
+      <c r="FR19" s="39"/>
+      <c r="FS19" s="39"/>
+      <c r="FT19" s="39"/>
+      <c r="FU19" s="39"/>
+      <c r="FV19" s="39"/>
+      <c r="FW19" s="39"/>
+      <c r="FX19" s="39"/>
+      <c r="FY19" s="39"/>
+      <c r="FZ19" s="39"/>
+      <c r="GA19" s="39"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="60" t="s">
         <v>52</v>
@@ -3071,12 +5692,12 @@
         <v>44856</v>
       </c>
       <c r="F20" s="50">
-        <f t="shared" ref="F20:F21" si="8">E20+16</f>
+        <f t="shared" ref="F20:F21" si="139">E20+16</f>
         <v>44872</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="137"/>
         <v>17</v>
       </c>
       <c r="I20" s="39"/>
@@ -3135,8 +5756,127 @@
       <c r="BJ20" s="39"/>
       <c r="BK20" s="39"/>
       <c r="BL20" s="39"/>
+      <c r="BM20" s="39"/>
+      <c r="BN20" s="39"/>
+      <c r="BO20" s="39"/>
+      <c r="BP20" s="39"/>
+      <c r="BQ20" s="39"/>
+      <c r="BR20" s="39"/>
+      <c r="BS20" s="39"/>
+      <c r="BT20" s="39"/>
+      <c r="BU20" s="39"/>
+      <c r="BV20" s="39"/>
+      <c r="BW20" s="39"/>
+      <c r="BX20" s="39"/>
+      <c r="BY20" s="39"/>
+      <c r="BZ20" s="39"/>
+      <c r="CA20" s="39"/>
+      <c r="CB20" s="39"/>
+      <c r="CC20" s="39"/>
+      <c r="CD20" s="39"/>
+      <c r="CE20" s="39"/>
+      <c r="CF20" s="39"/>
+      <c r="CG20" s="39"/>
+      <c r="CH20" s="39"/>
+      <c r="CI20" s="39"/>
+      <c r="CJ20" s="39"/>
+      <c r="CK20" s="39"/>
+      <c r="CL20" s="39"/>
+      <c r="CM20" s="39"/>
+      <c r="CN20" s="39"/>
+      <c r="CO20" s="39"/>
+      <c r="CP20" s="39"/>
+      <c r="CQ20" s="39"/>
+      <c r="CR20" s="39"/>
+      <c r="CS20" s="39"/>
+      <c r="CT20" s="39"/>
+      <c r="CU20" s="39"/>
+      <c r="CV20" s="39"/>
+      <c r="CW20" s="39"/>
+      <c r="CX20" s="39"/>
+      <c r="CY20" s="39"/>
+      <c r="CZ20" s="39"/>
+      <c r="DA20" s="39"/>
+      <c r="DB20" s="39"/>
+      <c r="DC20" s="39"/>
+      <c r="DD20" s="39"/>
+      <c r="DE20" s="39"/>
+      <c r="DF20" s="39"/>
+      <c r="DG20" s="39"/>
+      <c r="DH20" s="39"/>
+      <c r="DI20" s="39"/>
+      <c r="DJ20" s="39"/>
+      <c r="DK20" s="39"/>
+      <c r="DL20" s="39"/>
+      <c r="DM20" s="39"/>
+      <c r="DN20" s="39"/>
+      <c r="DO20" s="39"/>
+      <c r="DP20" s="39"/>
+      <c r="DQ20" s="39"/>
+      <c r="DR20" s="39"/>
+      <c r="DS20" s="39"/>
+      <c r="DT20" s="39"/>
+      <c r="DU20" s="39"/>
+      <c r="DV20" s="39"/>
+      <c r="DW20" s="39"/>
+      <c r="DX20" s="39"/>
+      <c r="DY20" s="39"/>
+      <c r="DZ20" s="39"/>
+      <c r="EA20" s="39"/>
+      <c r="EB20" s="39"/>
+      <c r="EC20" s="39"/>
+      <c r="ED20" s="39"/>
+      <c r="EE20" s="39"/>
+      <c r="EF20" s="39"/>
+      <c r="EG20" s="39"/>
+      <c r="EH20" s="39"/>
+      <c r="EI20" s="39"/>
+      <c r="EJ20" s="39"/>
+      <c r="EK20" s="39"/>
+      <c r="EL20" s="39"/>
+      <c r="EM20" s="39"/>
+      <c r="EN20" s="39"/>
+      <c r="EO20" s="39"/>
+      <c r="EP20" s="39"/>
+      <c r="EQ20" s="39"/>
+      <c r="ER20" s="39"/>
+      <c r="ES20" s="39"/>
+      <c r="ET20" s="39"/>
+      <c r="EU20" s="39"/>
+      <c r="EV20" s="39"/>
+      <c r="EW20" s="39"/>
+      <c r="EX20" s="39"/>
+      <c r="EY20" s="39"/>
+      <c r="EZ20" s="39"/>
+      <c r="FA20" s="39"/>
+      <c r="FB20" s="39"/>
+      <c r="FC20" s="39"/>
+      <c r="FD20" s="39"/>
+      <c r="FE20" s="39"/>
+      <c r="FF20" s="39"/>
+      <c r="FG20" s="39"/>
+      <c r="FH20" s="39"/>
+      <c r="FI20" s="39"/>
+      <c r="FJ20" s="39"/>
+      <c r="FK20" s="39"/>
+      <c r="FL20" s="39"/>
+      <c r="FM20" s="39"/>
+      <c r="FN20" s="39"/>
+      <c r="FO20" s="39"/>
+      <c r="FP20" s="39"/>
+      <c r="FQ20" s="39"/>
+      <c r="FR20" s="39"/>
+      <c r="FS20" s="39"/>
+      <c r="FT20" s="39"/>
+      <c r="FU20" s="39"/>
+      <c r="FV20" s="39"/>
+      <c r="FW20" s="39"/>
+      <c r="FX20" s="39"/>
+      <c r="FY20" s="39"/>
+      <c r="FZ20" s="39"/>
+      <c r="GA20" s="39"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="60" t="s">
         <v>55</v>
@@ -3152,12 +5892,12 @@
         <v>44856</v>
       </c>
       <c r="F21" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="139"/>
         <v>44872</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="137"/>
         <v>17</v>
       </c>
       <c r="I21" s="39"/>
@@ -3216,8 +5956,127 @@
       <c r="BJ21" s="39"/>
       <c r="BK21" s="39"/>
       <c r="BL21" s="39"/>
+      <c r="BM21" s="39"/>
+      <c r="BN21" s="39"/>
+      <c r="BO21" s="39"/>
+      <c r="BP21" s="39"/>
+      <c r="BQ21" s="39"/>
+      <c r="BR21" s="39"/>
+      <c r="BS21" s="39"/>
+      <c r="BT21" s="39"/>
+      <c r="BU21" s="39"/>
+      <c r="BV21" s="39"/>
+      <c r="BW21" s="39"/>
+      <c r="BX21" s="39"/>
+      <c r="BY21" s="39"/>
+      <c r="BZ21" s="39"/>
+      <c r="CA21" s="39"/>
+      <c r="CB21" s="39"/>
+      <c r="CC21" s="39"/>
+      <c r="CD21" s="39"/>
+      <c r="CE21" s="39"/>
+      <c r="CF21" s="39"/>
+      <c r="CG21" s="39"/>
+      <c r="CH21" s="39"/>
+      <c r="CI21" s="39"/>
+      <c r="CJ21" s="39"/>
+      <c r="CK21" s="39"/>
+      <c r="CL21" s="39"/>
+      <c r="CM21" s="39"/>
+      <c r="CN21" s="39"/>
+      <c r="CO21" s="39"/>
+      <c r="CP21" s="39"/>
+      <c r="CQ21" s="39"/>
+      <c r="CR21" s="39"/>
+      <c r="CS21" s="39"/>
+      <c r="CT21" s="39"/>
+      <c r="CU21" s="39"/>
+      <c r="CV21" s="39"/>
+      <c r="CW21" s="39"/>
+      <c r="CX21" s="39"/>
+      <c r="CY21" s="39"/>
+      <c r="CZ21" s="39"/>
+      <c r="DA21" s="39"/>
+      <c r="DB21" s="39"/>
+      <c r="DC21" s="39"/>
+      <c r="DD21" s="39"/>
+      <c r="DE21" s="39"/>
+      <c r="DF21" s="39"/>
+      <c r="DG21" s="39"/>
+      <c r="DH21" s="39"/>
+      <c r="DI21" s="39"/>
+      <c r="DJ21" s="39"/>
+      <c r="DK21" s="39"/>
+      <c r="DL21" s="39"/>
+      <c r="DM21" s="39"/>
+      <c r="DN21" s="39"/>
+      <c r="DO21" s="39"/>
+      <c r="DP21" s="39"/>
+      <c r="DQ21" s="39"/>
+      <c r="DR21" s="39"/>
+      <c r="DS21" s="39"/>
+      <c r="DT21" s="39"/>
+      <c r="DU21" s="39"/>
+      <c r="DV21" s="39"/>
+      <c r="DW21" s="39"/>
+      <c r="DX21" s="39"/>
+      <c r="DY21" s="39"/>
+      <c r="DZ21" s="39"/>
+      <c r="EA21" s="39"/>
+      <c r="EB21" s="39"/>
+      <c r="EC21" s="39"/>
+      <c r="ED21" s="39"/>
+      <c r="EE21" s="39"/>
+      <c r="EF21" s="39"/>
+      <c r="EG21" s="39"/>
+      <c r="EH21" s="39"/>
+      <c r="EI21" s="39"/>
+      <c r="EJ21" s="39"/>
+      <c r="EK21" s="39"/>
+      <c r="EL21" s="39"/>
+      <c r="EM21" s="39"/>
+      <c r="EN21" s="39"/>
+      <c r="EO21" s="39"/>
+      <c r="EP21" s="39"/>
+      <c r="EQ21" s="39"/>
+      <c r="ER21" s="39"/>
+      <c r="ES21" s="39"/>
+      <c r="ET21" s="39"/>
+      <c r="EU21" s="39"/>
+      <c r="EV21" s="39"/>
+      <c r="EW21" s="39"/>
+      <c r="EX21" s="39"/>
+      <c r="EY21" s="39"/>
+      <c r="EZ21" s="39"/>
+      <c r="FA21" s="39"/>
+      <c r="FB21" s="39"/>
+      <c r="FC21" s="39"/>
+      <c r="FD21" s="39"/>
+      <c r="FE21" s="39"/>
+      <c r="FF21" s="39"/>
+      <c r="FG21" s="39"/>
+      <c r="FH21" s="39"/>
+      <c r="FI21" s="39"/>
+      <c r="FJ21" s="39"/>
+      <c r="FK21" s="39"/>
+      <c r="FL21" s="39"/>
+      <c r="FM21" s="39"/>
+      <c r="FN21" s="39"/>
+      <c r="FO21" s="39"/>
+      <c r="FP21" s="39"/>
+      <c r="FQ21" s="39"/>
+      <c r="FR21" s="39"/>
+      <c r="FS21" s="39"/>
+      <c r="FT21" s="39"/>
+      <c r="FU21" s="39"/>
+      <c r="FV21" s="39"/>
+      <c r="FW21" s="39"/>
+      <c r="FX21" s="39"/>
+      <c r="FY21" s="39"/>
+      <c r="FZ21" s="39"/>
+      <c r="GA21" s="39"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
       <c r="B22" s="60" t="s">
         <v>56</v>
@@ -3238,7 +6097,7 @@
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="137"/>
         <v>19</v>
       </c>
       <c r="I22" s="39"/>
@@ -3297,8 +6156,127 @@
       <c r="BJ22" s="39"/>
       <c r="BK22" s="39"/>
       <c r="BL22" s="39"/>
+      <c r="BM22" s="39"/>
+      <c r="BN22" s="39"/>
+      <c r="BO22" s="39"/>
+      <c r="BP22" s="39"/>
+      <c r="BQ22" s="39"/>
+      <c r="BR22" s="39"/>
+      <c r="BS22" s="39"/>
+      <c r="BT22" s="39"/>
+      <c r="BU22" s="39"/>
+      <c r="BV22" s="39"/>
+      <c r="BW22" s="39"/>
+      <c r="BX22" s="39"/>
+      <c r="BY22" s="39"/>
+      <c r="BZ22" s="39"/>
+      <c r="CA22" s="39"/>
+      <c r="CB22" s="39"/>
+      <c r="CC22" s="39"/>
+      <c r="CD22" s="39"/>
+      <c r="CE22" s="39"/>
+      <c r="CF22" s="39"/>
+      <c r="CG22" s="39"/>
+      <c r="CH22" s="39"/>
+      <c r="CI22" s="39"/>
+      <c r="CJ22" s="39"/>
+      <c r="CK22" s="39"/>
+      <c r="CL22" s="39"/>
+      <c r="CM22" s="39"/>
+      <c r="CN22" s="39"/>
+      <c r="CO22" s="39"/>
+      <c r="CP22" s="39"/>
+      <c r="CQ22" s="39"/>
+      <c r="CR22" s="39"/>
+      <c r="CS22" s="39"/>
+      <c r="CT22" s="39"/>
+      <c r="CU22" s="39"/>
+      <c r="CV22" s="39"/>
+      <c r="CW22" s="39"/>
+      <c r="CX22" s="39"/>
+      <c r="CY22" s="39"/>
+      <c r="CZ22" s="39"/>
+      <c r="DA22" s="39"/>
+      <c r="DB22" s="39"/>
+      <c r="DC22" s="39"/>
+      <c r="DD22" s="39"/>
+      <c r="DE22" s="39"/>
+      <c r="DF22" s="39"/>
+      <c r="DG22" s="39"/>
+      <c r="DH22" s="39"/>
+      <c r="DI22" s="39"/>
+      <c r="DJ22" s="39"/>
+      <c r="DK22" s="39"/>
+      <c r="DL22" s="39"/>
+      <c r="DM22" s="39"/>
+      <c r="DN22" s="39"/>
+      <c r="DO22" s="39"/>
+      <c r="DP22" s="39"/>
+      <c r="DQ22" s="39"/>
+      <c r="DR22" s="39"/>
+      <c r="DS22" s="39"/>
+      <c r="DT22" s="39"/>
+      <c r="DU22" s="39"/>
+      <c r="DV22" s="39"/>
+      <c r="DW22" s="39"/>
+      <c r="DX22" s="39"/>
+      <c r="DY22" s="39"/>
+      <c r="DZ22" s="39"/>
+      <c r="EA22" s="39"/>
+      <c r="EB22" s="39"/>
+      <c r="EC22" s="39"/>
+      <c r="ED22" s="39"/>
+      <c r="EE22" s="39"/>
+      <c r="EF22" s="39"/>
+      <c r="EG22" s="39"/>
+      <c r="EH22" s="39"/>
+      <c r="EI22" s="39"/>
+      <c r="EJ22" s="39"/>
+      <c r="EK22" s="39"/>
+      <c r="EL22" s="39"/>
+      <c r="EM22" s="39"/>
+      <c r="EN22" s="39"/>
+      <c r="EO22" s="39"/>
+      <c r="EP22" s="39"/>
+      <c r="EQ22" s="39"/>
+      <c r="ER22" s="39"/>
+      <c r="ES22" s="39"/>
+      <c r="ET22" s="39"/>
+      <c r="EU22" s="39"/>
+      <c r="EV22" s="39"/>
+      <c r="EW22" s="39"/>
+      <c r="EX22" s="39"/>
+      <c r="EY22" s="39"/>
+      <c r="EZ22" s="39"/>
+      <c r="FA22" s="39"/>
+      <c r="FB22" s="39"/>
+      <c r="FC22" s="39"/>
+      <c r="FD22" s="39"/>
+      <c r="FE22" s="39"/>
+      <c r="FF22" s="39"/>
+      <c r="FG22" s="39"/>
+      <c r="FH22" s="39"/>
+      <c r="FI22" s="39"/>
+      <c r="FJ22" s="39"/>
+      <c r="FK22" s="39"/>
+      <c r="FL22" s="39"/>
+      <c r="FM22" s="39"/>
+      <c r="FN22" s="39"/>
+      <c r="FO22" s="39"/>
+      <c r="FP22" s="39"/>
+      <c r="FQ22" s="39"/>
+      <c r="FR22" s="39"/>
+      <c r="FS22" s="39"/>
+      <c r="FT22" s="39"/>
+      <c r="FU22" s="39"/>
+      <c r="FV22" s="39"/>
+      <c r="FW22" s="39"/>
+      <c r="FX22" s="39"/>
+      <c r="FY22" s="39"/>
+      <c r="FZ22" s="39"/>
+      <c r="GA22" s="39"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
       <c r="B23" s="60" t="s">
         <v>51</v>
@@ -3319,7 +6297,7 @@
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="137"/>
         <v>11</v>
       </c>
       <c r="I23" s="39"/>
@@ -3378,8 +6356,127 @@
       <c r="BJ23" s="39"/>
       <c r="BK23" s="39"/>
       <c r="BL23" s="39"/>
+      <c r="BM23" s="39"/>
+      <c r="BN23" s="39"/>
+      <c r="BO23" s="39"/>
+      <c r="BP23" s="39"/>
+      <c r="BQ23" s="39"/>
+      <c r="BR23" s="39"/>
+      <c r="BS23" s="39"/>
+      <c r="BT23" s="39"/>
+      <c r="BU23" s="39"/>
+      <c r="BV23" s="39"/>
+      <c r="BW23" s="39"/>
+      <c r="BX23" s="39"/>
+      <c r="BY23" s="39"/>
+      <c r="BZ23" s="39"/>
+      <c r="CA23" s="39"/>
+      <c r="CB23" s="39"/>
+      <c r="CC23" s="39"/>
+      <c r="CD23" s="39"/>
+      <c r="CE23" s="39"/>
+      <c r="CF23" s="39"/>
+      <c r="CG23" s="39"/>
+      <c r="CH23" s="39"/>
+      <c r="CI23" s="39"/>
+      <c r="CJ23" s="39"/>
+      <c r="CK23" s="39"/>
+      <c r="CL23" s="39"/>
+      <c r="CM23" s="39"/>
+      <c r="CN23" s="39"/>
+      <c r="CO23" s="39"/>
+      <c r="CP23" s="39"/>
+      <c r="CQ23" s="39"/>
+      <c r="CR23" s="39"/>
+      <c r="CS23" s="39"/>
+      <c r="CT23" s="39"/>
+      <c r="CU23" s="39"/>
+      <c r="CV23" s="39"/>
+      <c r="CW23" s="39"/>
+      <c r="CX23" s="39"/>
+      <c r="CY23" s="39"/>
+      <c r="CZ23" s="39"/>
+      <c r="DA23" s="39"/>
+      <c r="DB23" s="39"/>
+      <c r="DC23" s="39"/>
+      <c r="DD23" s="39"/>
+      <c r="DE23" s="39"/>
+      <c r="DF23" s="39"/>
+      <c r="DG23" s="39"/>
+      <c r="DH23" s="39"/>
+      <c r="DI23" s="39"/>
+      <c r="DJ23" s="39"/>
+      <c r="DK23" s="39"/>
+      <c r="DL23" s="39"/>
+      <c r="DM23" s="39"/>
+      <c r="DN23" s="39"/>
+      <c r="DO23" s="39"/>
+      <c r="DP23" s="39"/>
+      <c r="DQ23" s="39"/>
+      <c r="DR23" s="39"/>
+      <c r="DS23" s="39"/>
+      <c r="DT23" s="39"/>
+      <c r="DU23" s="39"/>
+      <c r="DV23" s="39"/>
+      <c r="DW23" s="39"/>
+      <c r="DX23" s="39"/>
+      <c r="DY23" s="39"/>
+      <c r="DZ23" s="39"/>
+      <c r="EA23" s="39"/>
+      <c r="EB23" s="39"/>
+      <c r="EC23" s="39"/>
+      <c r="ED23" s="39"/>
+      <c r="EE23" s="39"/>
+      <c r="EF23" s="39"/>
+      <c r="EG23" s="39"/>
+      <c r="EH23" s="39"/>
+      <c r="EI23" s="39"/>
+      <c r="EJ23" s="39"/>
+      <c r="EK23" s="39"/>
+      <c r="EL23" s="39"/>
+      <c r="EM23" s="39"/>
+      <c r="EN23" s="39"/>
+      <c r="EO23" s="39"/>
+      <c r="EP23" s="39"/>
+      <c r="EQ23" s="39"/>
+      <c r="ER23" s="39"/>
+      <c r="ES23" s="39"/>
+      <c r="ET23" s="39"/>
+      <c r="EU23" s="39"/>
+      <c r="EV23" s="39"/>
+      <c r="EW23" s="39"/>
+      <c r="EX23" s="39"/>
+      <c r="EY23" s="39"/>
+      <c r="EZ23" s="39"/>
+      <c r="FA23" s="39"/>
+      <c r="FB23" s="39"/>
+      <c r="FC23" s="39"/>
+      <c r="FD23" s="39"/>
+      <c r="FE23" s="39"/>
+      <c r="FF23" s="39"/>
+      <c r="FG23" s="39"/>
+      <c r="FH23" s="39"/>
+      <c r="FI23" s="39"/>
+      <c r="FJ23" s="39"/>
+      <c r="FK23" s="39"/>
+      <c r="FL23" s="39"/>
+      <c r="FM23" s="39"/>
+      <c r="FN23" s="39"/>
+      <c r="FO23" s="39"/>
+      <c r="FP23" s="39"/>
+      <c r="FQ23" s="39"/>
+      <c r="FR23" s="39"/>
+      <c r="FS23" s="39"/>
+      <c r="FT23" s="39"/>
+      <c r="FU23" s="39"/>
+      <c r="FV23" s="39"/>
+      <c r="FW23" s="39"/>
+      <c r="FX23" s="39"/>
+      <c r="FY23" s="39"/>
+      <c r="FZ23" s="39"/>
+      <c r="GA23" s="39"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="43"/>
       <c r="B24" s="60" t="s">
         <v>46</v>
@@ -3400,7 +6497,7 @@
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="137"/>
         <v>8</v>
       </c>
       <c r="I24" s="39"/>
@@ -3459,8 +6556,127 @@
       <c r="BJ24" s="39"/>
       <c r="BK24" s="39"/>
       <c r="BL24" s="39"/>
+      <c r="BM24" s="39"/>
+      <c r="BN24" s="39"/>
+      <c r="BO24" s="39"/>
+      <c r="BP24" s="39"/>
+      <c r="BQ24" s="39"/>
+      <c r="BR24" s="39"/>
+      <c r="BS24" s="39"/>
+      <c r="BT24" s="39"/>
+      <c r="BU24" s="39"/>
+      <c r="BV24" s="39"/>
+      <c r="BW24" s="39"/>
+      <c r="BX24" s="39"/>
+      <c r="BY24" s="39"/>
+      <c r="BZ24" s="39"/>
+      <c r="CA24" s="39"/>
+      <c r="CB24" s="39"/>
+      <c r="CC24" s="39"/>
+      <c r="CD24" s="39"/>
+      <c r="CE24" s="39"/>
+      <c r="CF24" s="39"/>
+      <c r="CG24" s="39"/>
+      <c r="CH24" s="39"/>
+      <c r="CI24" s="39"/>
+      <c r="CJ24" s="39"/>
+      <c r="CK24" s="39"/>
+      <c r="CL24" s="39"/>
+      <c r="CM24" s="39"/>
+      <c r="CN24" s="39"/>
+      <c r="CO24" s="39"/>
+      <c r="CP24" s="39"/>
+      <c r="CQ24" s="39"/>
+      <c r="CR24" s="39"/>
+      <c r="CS24" s="39"/>
+      <c r="CT24" s="39"/>
+      <c r="CU24" s="39"/>
+      <c r="CV24" s="39"/>
+      <c r="CW24" s="39"/>
+      <c r="CX24" s="39"/>
+      <c r="CY24" s="39"/>
+      <c r="CZ24" s="39"/>
+      <c r="DA24" s="39"/>
+      <c r="DB24" s="39"/>
+      <c r="DC24" s="39"/>
+      <c r="DD24" s="39"/>
+      <c r="DE24" s="39"/>
+      <c r="DF24" s="39"/>
+      <c r="DG24" s="39"/>
+      <c r="DH24" s="39"/>
+      <c r="DI24" s="39"/>
+      <c r="DJ24" s="39"/>
+      <c r="DK24" s="39"/>
+      <c r="DL24" s="39"/>
+      <c r="DM24" s="39"/>
+      <c r="DN24" s="39"/>
+      <c r="DO24" s="39"/>
+      <c r="DP24" s="39"/>
+      <c r="DQ24" s="39"/>
+      <c r="DR24" s="39"/>
+      <c r="DS24" s="39"/>
+      <c r="DT24" s="39"/>
+      <c r="DU24" s="39"/>
+      <c r="DV24" s="39"/>
+      <c r="DW24" s="39"/>
+      <c r="DX24" s="39"/>
+      <c r="DY24" s="39"/>
+      <c r="DZ24" s="39"/>
+      <c r="EA24" s="39"/>
+      <c r="EB24" s="39"/>
+      <c r="EC24" s="39"/>
+      <c r="ED24" s="39"/>
+      <c r="EE24" s="39"/>
+      <c r="EF24" s="39"/>
+      <c r="EG24" s="39"/>
+      <c r="EH24" s="39"/>
+      <c r="EI24" s="39"/>
+      <c r="EJ24" s="39"/>
+      <c r="EK24" s="39"/>
+      <c r="EL24" s="39"/>
+      <c r="EM24" s="39"/>
+      <c r="EN24" s="39"/>
+      <c r="EO24" s="39"/>
+      <c r="EP24" s="39"/>
+      <c r="EQ24" s="39"/>
+      <c r="ER24" s="39"/>
+      <c r="ES24" s="39"/>
+      <c r="ET24" s="39"/>
+      <c r="EU24" s="39"/>
+      <c r="EV24" s="39"/>
+      <c r="EW24" s="39"/>
+      <c r="EX24" s="39"/>
+      <c r="EY24" s="39"/>
+      <c r="EZ24" s="39"/>
+      <c r="FA24" s="39"/>
+      <c r="FB24" s="39"/>
+      <c r="FC24" s="39"/>
+      <c r="FD24" s="39"/>
+      <c r="FE24" s="39"/>
+      <c r="FF24" s="39"/>
+      <c r="FG24" s="39"/>
+      <c r="FH24" s="39"/>
+      <c r="FI24" s="39"/>
+      <c r="FJ24" s="39"/>
+      <c r="FK24" s="39"/>
+      <c r="FL24" s="39"/>
+      <c r="FM24" s="39"/>
+      <c r="FN24" s="39"/>
+      <c r="FO24" s="39"/>
+      <c r="FP24" s="39"/>
+      <c r="FQ24" s="39"/>
+      <c r="FR24" s="39"/>
+      <c r="FS24" s="39"/>
+      <c r="FT24" s="39"/>
+      <c r="FU24" s="39"/>
+      <c r="FV24" s="39"/>
+      <c r="FW24" s="39"/>
+      <c r="FX24" s="39"/>
+      <c r="FY24" s="39"/>
+      <c r="FZ24" s="39"/>
+      <c r="GA24" s="39"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43"/>
       <c r="B25" s="60" t="s">
         <v>54</v>
@@ -3481,7 +6697,7 @@
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="137"/>
         <v>8</v>
       </c>
       <c r="I25" s="39"/>
@@ -3540,8 +6756,127 @@
       <c r="BJ25" s="39"/>
       <c r="BK25" s="39"/>
       <c r="BL25" s="39"/>
+      <c r="BM25" s="39"/>
+      <c r="BN25" s="39"/>
+      <c r="BO25" s="39"/>
+      <c r="BP25" s="39"/>
+      <c r="BQ25" s="39"/>
+      <c r="BR25" s="39"/>
+      <c r="BS25" s="39"/>
+      <c r="BT25" s="39"/>
+      <c r="BU25" s="39"/>
+      <c r="BV25" s="39"/>
+      <c r="BW25" s="39"/>
+      <c r="BX25" s="39"/>
+      <c r="BY25" s="39"/>
+      <c r="BZ25" s="39"/>
+      <c r="CA25" s="39"/>
+      <c r="CB25" s="39"/>
+      <c r="CC25" s="39"/>
+      <c r="CD25" s="39"/>
+      <c r="CE25" s="39"/>
+      <c r="CF25" s="39"/>
+      <c r="CG25" s="39"/>
+      <c r="CH25" s="39"/>
+      <c r="CI25" s="39"/>
+      <c r="CJ25" s="39"/>
+      <c r="CK25" s="39"/>
+      <c r="CL25" s="39"/>
+      <c r="CM25" s="39"/>
+      <c r="CN25" s="39"/>
+      <c r="CO25" s="39"/>
+      <c r="CP25" s="39"/>
+      <c r="CQ25" s="39"/>
+      <c r="CR25" s="39"/>
+      <c r="CS25" s="39"/>
+      <c r="CT25" s="39"/>
+      <c r="CU25" s="39"/>
+      <c r="CV25" s="39"/>
+      <c r="CW25" s="39"/>
+      <c r="CX25" s="39"/>
+      <c r="CY25" s="39"/>
+      <c r="CZ25" s="39"/>
+      <c r="DA25" s="39"/>
+      <c r="DB25" s="39"/>
+      <c r="DC25" s="39"/>
+      <c r="DD25" s="39"/>
+      <c r="DE25" s="39"/>
+      <c r="DF25" s="39"/>
+      <c r="DG25" s="39"/>
+      <c r="DH25" s="39"/>
+      <c r="DI25" s="39"/>
+      <c r="DJ25" s="39"/>
+      <c r="DK25" s="39"/>
+      <c r="DL25" s="39"/>
+      <c r="DM25" s="39"/>
+      <c r="DN25" s="39"/>
+      <c r="DO25" s="39"/>
+      <c r="DP25" s="39"/>
+      <c r="DQ25" s="39"/>
+      <c r="DR25" s="39"/>
+      <c r="DS25" s="39"/>
+      <c r="DT25" s="39"/>
+      <c r="DU25" s="39"/>
+      <c r="DV25" s="39"/>
+      <c r="DW25" s="39"/>
+      <c r="DX25" s="39"/>
+      <c r="DY25" s="39"/>
+      <c r="DZ25" s="39"/>
+      <c r="EA25" s="39"/>
+      <c r="EB25" s="39"/>
+      <c r="EC25" s="39"/>
+      <c r="ED25" s="39"/>
+      <c r="EE25" s="39"/>
+      <c r="EF25" s="39"/>
+      <c r="EG25" s="39"/>
+      <c r="EH25" s="39"/>
+      <c r="EI25" s="39"/>
+      <c r="EJ25" s="39"/>
+      <c r="EK25" s="39"/>
+      <c r="EL25" s="39"/>
+      <c r="EM25" s="39"/>
+      <c r="EN25" s="39"/>
+      <c r="EO25" s="39"/>
+      <c r="EP25" s="39"/>
+      <c r="EQ25" s="39"/>
+      <c r="ER25" s="39"/>
+      <c r="ES25" s="39"/>
+      <c r="ET25" s="39"/>
+      <c r="EU25" s="39"/>
+      <c r="EV25" s="39"/>
+      <c r="EW25" s="39"/>
+      <c r="EX25" s="39"/>
+      <c r="EY25" s="39"/>
+      <c r="EZ25" s="39"/>
+      <c r="FA25" s="39"/>
+      <c r="FB25" s="39"/>
+      <c r="FC25" s="39"/>
+      <c r="FD25" s="39"/>
+      <c r="FE25" s="39"/>
+      <c r="FF25" s="39"/>
+      <c r="FG25" s="39"/>
+      <c r="FH25" s="39"/>
+      <c r="FI25" s="39"/>
+      <c r="FJ25" s="39"/>
+      <c r="FK25" s="39"/>
+      <c r="FL25" s="39"/>
+      <c r="FM25" s="39"/>
+      <c r="FN25" s="39"/>
+      <c r="FO25" s="39"/>
+      <c r="FP25" s="39"/>
+      <c r="FQ25" s="39"/>
+      <c r="FR25" s="39"/>
+      <c r="FS25" s="39"/>
+      <c r="FT25" s="39"/>
+      <c r="FU25" s="39"/>
+      <c r="FV25" s="39"/>
+      <c r="FW25" s="39"/>
+      <c r="FX25" s="39"/>
+      <c r="FY25" s="39"/>
+      <c r="FZ25" s="39"/>
+      <c r="GA25" s="39"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
         <v>16</v>
       </c>
@@ -3554,7 +6889,7 @@
       <c r="F26" s="26"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="137"/>
         <v/>
       </c>
       <c r="I26" s="39"/>
@@ -3613,24 +6948,147 @@
       <c r="BJ26" s="39"/>
       <c r="BK26" s="39"/>
       <c r="BL26" s="39"/>
+      <c r="BM26" s="39"/>
+      <c r="BN26" s="39"/>
+      <c r="BO26" s="39"/>
+      <c r="BP26" s="39"/>
+      <c r="BQ26" s="39"/>
+      <c r="BR26" s="39"/>
+      <c r="BS26" s="39"/>
+      <c r="BT26" s="39"/>
+      <c r="BU26" s="39"/>
+      <c r="BV26" s="39"/>
+      <c r="BW26" s="39"/>
+      <c r="BX26" s="39"/>
+      <c r="BY26" s="39"/>
+      <c r="BZ26" s="39"/>
+      <c r="CA26" s="39"/>
+      <c r="CB26" s="39"/>
+      <c r="CC26" s="39"/>
+      <c r="CD26" s="39"/>
+      <c r="CE26" s="39"/>
+      <c r="CF26" s="39"/>
+      <c r="CG26" s="39"/>
+      <c r="CH26" s="39"/>
+      <c r="CI26" s="39"/>
+      <c r="CJ26" s="39"/>
+      <c r="CK26" s="39"/>
+      <c r="CL26" s="39"/>
+      <c r="CM26" s="39"/>
+      <c r="CN26" s="39"/>
+      <c r="CO26" s="39"/>
+      <c r="CP26" s="39"/>
+      <c r="CQ26" s="39"/>
+      <c r="CR26" s="39"/>
+      <c r="CS26" s="39"/>
+      <c r="CT26" s="39"/>
+      <c r="CU26" s="39"/>
+      <c r="CV26" s="39"/>
+      <c r="CW26" s="39"/>
+      <c r="CX26" s="39"/>
+      <c r="CY26" s="39"/>
+      <c r="CZ26" s="39"/>
+      <c r="DA26" s="39"/>
+      <c r="DB26" s="39"/>
+      <c r="DC26" s="39"/>
+      <c r="DD26" s="39"/>
+      <c r="DE26" s="39"/>
+      <c r="DF26" s="39"/>
+      <c r="DG26" s="39"/>
+      <c r="DH26" s="39"/>
+      <c r="DI26" s="39"/>
+      <c r="DJ26" s="39"/>
+      <c r="DK26" s="39"/>
+      <c r="DL26" s="39"/>
+      <c r="DM26" s="39"/>
+      <c r="DN26" s="39"/>
+      <c r="DO26" s="39"/>
+      <c r="DP26" s="39"/>
+      <c r="DQ26" s="39"/>
+      <c r="DR26" s="39"/>
+      <c r="DS26" s="39"/>
+      <c r="DT26" s="39"/>
+      <c r="DU26" s="39"/>
+      <c r="DV26" s="39"/>
+      <c r="DW26" s="39"/>
+      <c r="DX26" s="39"/>
+      <c r="DY26" s="39"/>
+      <c r="DZ26" s="39"/>
+      <c r="EA26" s="39"/>
+      <c r="EB26" s="39"/>
+      <c r="EC26" s="39"/>
+      <c r="ED26" s="39"/>
+      <c r="EE26" s="39"/>
+      <c r="EF26" s="39"/>
+      <c r="EG26" s="39"/>
+      <c r="EH26" s="39"/>
+      <c r="EI26" s="39"/>
+      <c r="EJ26" s="39"/>
+      <c r="EK26" s="39"/>
+      <c r="EL26" s="39"/>
+      <c r="EM26" s="39"/>
+      <c r="EN26" s="39"/>
+      <c r="EO26" s="39"/>
+      <c r="EP26" s="39"/>
+      <c r="EQ26" s="39"/>
+      <c r="ER26" s="39"/>
+      <c r="ES26" s="39"/>
+      <c r="ET26" s="39"/>
+      <c r="EU26" s="39"/>
+      <c r="EV26" s="39"/>
+      <c r="EW26" s="39"/>
+      <c r="EX26" s="39"/>
+      <c r="EY26" s="39"/>
+      <c r="EZ26" s="39"/>
+      <c r="FA26" s="39"/>
+      <c r="FB26" s="39"/>
+      <c r="FC26" s="39"/>
+      <c r="FD26" s="39"/>
+      <c r="FE26" s="39"/>
+      <c r="FF26" s="39"/>
+      <c r="FG26" s="39"/>
+      <c r="FH26" s="39"/>
+      <c r="FI26" s="39"/>
+      <c r="FJ26" s="39"/>
+      <c r="FK26" s="39"/>
+      <c r="FL26" s="39"/>
+      <c r="FM26" s="39"/>
+      <c r="FN26" s="39"/>
+      <c r="FO26" s="39"/>
+      <c r="FP26" s="39"/>
+      <c r="FQ26" s="39"/>
+      <c r="FR26" s="39"/>
+      <c r="FS26" s="39"/>
+      <c r="FT26" s="39"/>
+      <c r="FU26" s="39"/>
+      <c r="FV26" s="39"/>
+      <c r="FW26" s="39"/>
+      <c r="FX26" s="39"/>
+      <c r="FY26" s="39"/>
+      <c r="FZ26" s="39"/>
+      <c r="GA26" s="39"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
-      <c r="B27" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>15</v>
+      <c r="B27" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="86">
+        <v>1</v>
+      </c>
+      <c r="E27" s="89">
+        <v>44935</v>
+      </c>
+      <c r="F27" s="89">
+        <v>44951</v>
       </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="H27" s="17">
+        <f t="shared" si="137"/>
+        <v>17</v>
       </c>
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
@@ -3688,24 +7146,147 @@
       <c r="BJ27" s="39"/>
       <c r="BK27" s="39"/>
       <c r="BL27" s="39"/>
+      <c r="BM27" s="39"/>
+      <c r="BN27" s="39"/>
+      <c r="BO27" s="39"/>
+      <c r="BP27" s="39"/>
+      <c r="BQ27" s="39"/>
+      <c r="BR27" s="39"/>
+      <c r="BS27" s="39"/>
+      <c r="BT27" s="39"/>
+      <c r="BU27" s="39"/>
+      <c r="BV27" s="39"/>
+      <c r="BW27" s="39"/>
+      <c r="BX27" s="39"/>
+      <c r="BY27" s="39"/>
+      <c r="BZ27" s="39"/>
+      <c r="CA27" s="39"/>
+      <c r="CB27" s="39"/>
+      <c r="CC27" s="39"/>
+      <c r="CD27" s="39"/>
+      <c r="CE27" s="39"/>
+      <c r="CF27" s="39"/>
+      <c r="CG27" s="39"/>
+      <c r="CH27" s="39"/>
+      <c r="CI27" s="39"/>
+      <c r="CJ27" s="39"/>
+      <c r="CK27" s="39"/>
+      <c r="CL27" s="39"/>
+      <c r="CM27" s="39"/>
+      <c r="CN27" s="39"/>
+      <c r="CO27" s="39"/>
+      <c r="CP27" s="39"/>
+      <c r="CQ27" s="39"/>
+      <c r="CR27" s="39"/>
+      <c r="CS27" s="39"/>
+      <c r="CT27" s="39"/>
+      <c r="CU27" s="39"/>
+      <c r="CV27" s="39"/>
+      <c r="CW27" s="39"/>
+      <c r="CX27" s="39"/>
+      <c r="CY27" s="39"/>
+      <c r="CZ27" s="39"/>
+      <c r="DA27" s="39"/>
+      <c r="DB27" s="39"/>
+      <c r="DC27" s="39"/>
+      <c r="DD27" s="39"/>
+      <c r="DE27" s="39"/>
+      <c r="DF27" s="39"/>
+      <c r="DG27" s="39"/>
+      <c r="DH27" s="39"/>
+      <c r="DI27" s="39"/>
+      <c r="DJ27" s="39"/>
+      <c r="DK27" s="39"/>
+      <c r="DL27" s="39"/>
+      <c r="DM27" s="39"/>
+      <c r="DN27" s="39"/>
+      <c r="DO27" s="39"/>
+      <c r="DP27" s="39"/>
+      <c r="DQ27" s="39"/>
+      <c r="DR27" s="39"/>
+      <c r="DS27" s="39"/>
+      <c r="DT27" s="39"/>
+      <c r="DU27" s="39"/>
+      <c r="DV27" s="39"/>
+      <c r="DW27" s="39"/>
+      <c r="DX27" s="39"/>
+      <c r="DY27" s="39"/>
+      <c r="DZ27" s="39"/>
+      <c r="EA27" s="39"/>
+      <c r="EB27" s="39"/>
+      <c r="EC27" s="39"/>
+      <c r="ED27" s="39"/>
+      <c r="EE27" s="39"/>
+      <c r="EF27" s="39"/>
+      <c r="EG27" s="39"/>
+      <c r="EH27" s="39"/>
+      <c r="EI27" s="39"/>
+      <c r="EJ27" s="39"/>
+      <c r="EK27" s="39"/>
+      <c r="EL27" s="39"/>
+      <c r="EM27" s="39"/>
+      <c r="EN27" s="39"/>
+      <c r="EO27" s="39"/>
+      <c r="EP27" s="39"/>
+      <c r="EQ27" s="39"/>
+      <c r="ER27" s="39"/>
+      <c r="ES27" s="39"/>
+      <c r="ET27" s="39"/>
+      <c r="EU27" s="39"/>
+      <c r="EV27" s="39"/>
+      <c r="EW27" s="39"/>
+      <c r="EX27" s="39"/>
+      <c r="EY27" s="39"/>
+      <c r="EZ27" s="39"/>
+      <c r="FA27" s="39"/>
+      <c r="FB27" s="39"/>
+      <c r="FC27" s="39"/>
+      <c r="FD27" s="39"/>
+      <c r="FE27" s="39"/>
+      <c r="FF27" s="39"/>
+      <c r="FG27" s="39"/>
+      <c r="FH27" s="39"/>
+      <c r="FI27" s="39"/>
+      <c r="FJ27" s="39"/>
+      <c r="FK27" s="39"/>
+      <c r="FL27" s="39"/>
+      <c r="FM27" s="39"/>
+      <c r="FN27" s="39"/>
+      <c r="FO27" s="39"/>
+      <c r="FP27" s="39"/>
+      <c r="FQ27" s="39"/>
+      <c r="FR27" s="39"/>
+      <c r="FS27" s="39"/>
+      <c r="FT27" s="39"/>
+      <c r="FU27" s="39"/>
+      <c r="FV27" s="39"/>
+      <c r="FW27" s="39"/>
+      <c r="FX27" s="39"/>
+      <c r="FY27" s="39"/>
+      <c r="FZ27" s="39"/>
+      <c r="GA27" s="39"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
-      <c r="B28" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="51" t="s">
-        <v>15</v>
+      <c r="B28" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="86">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="89">
+        <v>44935</v>
+      </c>
+      <c r="F28" s="89">
+        <v>44951</v>
       </c>
       <c r="G28" s="17"/>
-      <c r="H28" s="17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="H28" s="17">
+        <f t="shared" si="137"/>
+        <v>17</v>
       </c>
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
@@ -3763,24 +7344,147 @@
       <c r="BJ28" s="39"/>
       <c r="BK28" s="39"/>
       <c r="BL28" s="39"/>
+      <c r="BM28" s="39"/>
+      <c r="BN28" s="39"/>
+      <c r="BO28" s="39"/>
+      <c r="BP28" s="39"/>
+      <c r="BQ28" s="39"/>
+      <c r="BR28" s="39"/>
+      <c r="BS28" s="39"/>
+      <c r="BT28" s="39"/>
+      <c r="BU28" s="39"/>
+      <c r="BV28" s="39"/>
+      <c r="BW28" s="39"/>
+      <c r="BX28" s="39"/>
+      <c r="BY28" s="39"/>
+      <c r="BZ28" s="39"/>
+      <c r="CA28" s="39"/>
+      <c r="CB28" s="39"/>
+      <c r="CC28" s="39"/>
+      <c r="CD28" s="39"/>
+      <c r="CE28" s="39"/>
+      <c r="CF28" s="39"/>
+      <c r="CG28" s="39"/>
+      <c r="CH28" s="39"/>
+      <c r="CI28" s="39"/>
+      <c r="CJ28" s="39"/>
+      <c r="CK28" s="39"/>
+      <c r="CL28" s="39"/>
+      <c r="CM28" s="39"/>
+      <c r="CN28" s="39"/>
+      <c r="CO28" s="39"/>
+      <c r="CP28" s="39"/>
+      <c r="CQ28" s="39"/>
+      <c r="CR28" s="39"/>
+      <c r="CS28" s="39"/>
+      <c r="CT28" s="39"/>
+      <c r="CU28" s="39"/>
+      <c r="CV28" s="39"/>
+      <c r="CW28" s="39"/>
+      <c r="CX28" s="39"/>
+      <c r="CY28" s="39"/>
+      <c r="CZ28" s="39"/>
+      <c r="DA28" s="39"/>
+      <c r="DB28" s="39"/>
+      <c r="DC28" s="39"/>
+      <c r="DD28" s="39"/>
+      <c r="DE28" s="39"/>
+      <c r="DF28" s="39"/>
+      <c r="DG28" s="39"/>
+      <c r="DH28" s="39"/>
+      <c r="DI28" s="39"/>
+      <c r="DJ28" s="39"/>
+      <c r="DK28" s="39"/>
+      <c r="DL28" s="39"/>
+      <c r="DM28" s="39"/>
+      <c r="DN28" s="39"/>
+      <c r="DO28" s="39"/>
+      <c r="DP28" s="39"/>
+      <c r="DQ28" s="39"/>
+      <c r="DR28" s="39"/>
+      <c r="DS28" s="39"/>
+      <c r="DT28" s="39"/>
+      <c r="DU28" s="39"/>
+      <c r="DV28" s="39"/>
+      <c r="DW28" s="39"/>
+      <c r="DX28" s="39"/>
+      <c r="DY28" s="39"/>
+      <c r="DZ28" s="39"/>
+      <c r="EA28" s="39"/>
+      <c r="EB28" s="39"/>
+      <c r="EC28" s="39"/>
+      <c r="ED28" s="39"/>
+      <c r="EE28" s="39"/>
+      <c r="EF28" s="39"/>
+      <c r="EG28" s="39"/>
+      <c r="EH28" s="39"/>
+      <c r="EI28" s="39"/>
+      <c r="EJ28" s="39"/>
+      <c r="EK28" s="39"/>
+      <c r="EL28" s="39"/>
+      <c r="EM28" s="39"/>
+      <c r="EN28" s="39"/>
+      <c r="EO28" s="39"/>
+      <c r="EP28" s="39"/>
+      <c r="EQ28" s="39"/>
+      <c r="ER28" s="39"/>
+      <c r="ES28" s="39"/>
+      <c r="ET28" s="39"/>
+      <c r="EU28" s="39"/>
+      <c r="EV28" s="39"/>
+      <c r="EW28" s="39"/>
+      <c r="EX28" s="39"/>
+      <c r="EY28" s="39"/>
+      <c r="EZ28" s="39"/>
+      <c r="FA28" s="39"/>
+      <c r="FB28" s="39"/>
+      <c r="FC28" s="39"/>
+      <c r="FD28" s="39"/>
+      <c r="FE28" s="39"/>
+      <c r="FF28" s="39"/>
+      <c r="FG28" s="39"/>
+      <c r="FH28" s="39"/>
+      <c r="FI28" s="39"/>
+      <c r="FJ28" s="39"/>
+      <c r="FK28" s="39"/>
+      <c r="FL28" s="39"/>
+      <c r="FM28" s="39"/>
+      <c r="FN28" s="39"/>
+      <c r="FO28" s="39"/>
+      <c r="FP28" s="39"/>
+      <c r="FQ28" s="39"/>
+      <c r="FR28" s="39"/>
+      <c r="FS28" s="39"/>
+      <c r="FT28" s="39"/>
+      <c r="FU28" s="39"/>
+      <c r="FV28" s="39"/>
+      <c r="FW28" s="39"/>
+      <c r="FX28" s="39"/>
+      <c r="FY28" s="39"/>
+      <c r="FZ28" s="39"/>
+      <c r="GA28" s="39"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
-      <c r="B29" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="51" t="s">
-        <v>15</v>
+      <c r="B29" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="86">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="89">
+        <v>44935</v>
+      </c>
+      <c r="F29" s="89">
+        <v>44951</v>
       </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="H29" s="17">
+        <f t="shared" si="137"/>
+        <v>17</v>
       </c>
       <c r="I29" s="39"/>
       <c r="J29" s="39"/>
@@ -3838,24 +7542,147 @@
       <c r="BJ29" s="39"/>
       <c r="BK29" s="39"/>
       <c r="BL29" s="39"/>
+      <c r="BM29" s="39"/>
+      <c r="BN29" s="39"/>
+      <c r="BO29" s="39"/>
+      <c r="BP29" s="39"/>
+      <c r="BQ29" s="39"/>
+      <c r="BR29" s="39"/>
+      <c r="BS29" s="39"/>
+      <c r="BT29" s="39"/>
+      <c r="BU29" s="39"/>
+      <c r="BV29" s="39"/>
+      <c r="BW29" s="39"/>
+      <c r="BX29" s="39"/>
+      <c r="BY29" s="39"/>
+      <c r="BZ29" s="39"/>
+      <c r="CA29" s="39"/>
+      <c r="CB29" s="39"/>
+      <c r="CC29" s="39"/>
+      <c r="CD29" s="39"/>
+      <c r="CE29" s="39"/>
+      <c r="CF29" s="39"/>
+      <c r="CG29" s="39"/>
+      <c r="CH29" s="39"/>
+      <c r="CI29" s="39"/>
+      <c r="CJ29" s="39"/>
+      <c r="CK29" s="39"/>
+      <c r="CL29" s="39"/>
+      <c r="CM29" s="39"/>
+      <c r="CN29" s="39"/>
+      <c r="CO29" s="39"/>
+      <c r="CP29" s="39"/>
+      <c r="CQ29" s="39"/>
+      <c r="CR29" s="39"/>
+      <c r="CS29" s="39"/>
+      <c r="CT29" s="39"/>
+      <c r="CU29" s="39"/>
+      <c r="CV29" s="39"/>
+      <c r="CW29" s="39"/>
+      <c r="CX29" s="39"/>
+      <c r="CY29" s="39"/>
+      <c r="CZ29" s="39"/>
+      <c r="DA29" s="39"/>
+      <c r="DB29" s="39"/>
+      <c r="DC29" s="39"/>
+      <c r="DD29" s="39"/>
+      <c r="DE29" s="39"/>
+      <c r="DF29" s="39"/>
+      <c r="DG29" s="39"/>
+      <c r="DH29" s="39"/>
+      <c r="DI29" s="39"/>
+      <c r="DJ29" s="39"/>
+      <c r="DK29" s="39"/>
+      <c r="DL29" s="39"/>
+      <c r="DM29" s="39"/>
+      <c r="DN29" s="39"/>
+      <c r="DO29" s="39"/>
+      <c r="DP29" s="39"/>
+      <c r="DQ29" s="39"/>
+      <c r="DR29" s="39"/>
+      <c r="DS29" s="39"/>
+      <c r="DT29" s="39"/>
+      <c r="DU29" s="39"/>
+      <c r="DV29" s="39"/>
+      <c r="DW29" s="39"/>
+      <c r="DX29" s="39"/>
+      <c r="DY29" s="39"/>
+      <c r="DZ29" s="39"/>
+      <c r="EA29" s="39"/>
+      <c r="EB29" s="39"/>
+      <c r="EC29" s="39"/>
+      <c r="ED29" s="39"/>
+      <c r="EE29" s="39"/>
+      <c r="EF29" s="39"/>
+      <c r="EG29" s="39"/>
+      <c r="EH29" s="39"/>
+      <c r="EI29" s="39"/>
+      <c r="EJ29" s="39"/>
+      <c r="EK29" s="39"/>
+      <c r="EL29" s="39"/>
+      <c r="EM29" s="39"/>
+      <c r="EN29" s="39"/>
+      <c r="EO29" s="39"/>
+      <c r="EP29" s="39"/>
+      <c r="EQ29" s="39"/>
+      <c r="ER29" s="39"/>
+      <c r="ES29" s="39"/>
+      <c r="ET29" s="39"/>
+      <c r="EU29" s="39"/>
+      <c r="EV29" s="39"/>
+      <c r="EW29" s="39"/>
+      <c r="EX29" s="39"/>
+      <c r="EY29" s="39"/>
+      <c r="EZ29" s="39"/>
+      <c r="FA29" s="39"/>
+      <c r="FB29" s="39"/>
+      <c r="FC29" s="39"/>
+      <c r="FD29" s="39"/>
+      <c r="FE29" s="39"/>
+      <c r="FF29" s="39"/>
+      <c r="FG29" s="39"/>
+      <c r="FH29" s="39"/>
+      <c r="FI29" s="39"/>
+      <c r="FJ29" s="39"/>
+      <c r="FK29" s="39"/>
+      <c r="FL29" s="39"/>
+      <c r="FM29" s="39"/>
+      <c r="FN29" s="39"/>
+      <c r="FO29" s="39"/>
+      <c r="FP29" s="39"/>
+      <c r="FQ29" s="39"/>
+      <c r="FR29" s="39"/>
+      <c r="FS29" s="39"/>
+      <c r="FT29" s="39"/>
+      <c r="FU29" s="39"/>
+      <c r="FV29" s="39"/>
+      <c r="FW29" s="39"/>
+      <c r="FX29" s="39"/>
+      <c r="FY29" s="39"/>
+      <c r="FZ29" s="39"/>
+      <c r="GA29" s="39"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="51" t="s">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="E30" s="89">
+        <v>44935</v>
+      </c>
+      <c r="F30" s="89">
+        <v>44951</v>
       </c>
       <c r="G30" s="17"/>
-      <c r="H30" s="17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="H30" s="17">
+        <f t="shared" si="137"/>
+        <v>17</v>
       </c>
       <c r="I30" s="39"/>
       <c r="J30" s="39"/>
@@ -3913,162 +7740,526 @@
       <c r="BJ30" s="39"/>
       <c r="BK30" s="39"/>
       <c r="BL30" s="39"/>
+      <c r="BM30" s="39"/>
+      <c r="BN30" s="39"/>
+      <c r="BO30" s="39"/>
+      <c r="BP30" s="39"/>
+      <c r="BQ30" s="39"/>
+      <c r="BR30" s="39"/>
+      <c r="BS30" s="39"/>
+      <c r="BT30" s="39"/>
+      <c r="BU30" s="39"/>
+      <c r="BV30" s="39"/>
+      <c r="BW30" s="39"/>
+      <c r="BX30" s="39"/>
+      <c r="BY30" s="39"/>
+      <c r="BZ30" s="39"/>
+      <c r="CA30" s="39"/>
+      <c r="CB30" s="39"/>
+      <c r="CC30" s="39"/>
+      <c r="CD30" s="39"/>
+      <c r="CE30" s="39"/>
+      <c r="CF30" s="39"/>
+      <c r="CG30" s="39"/>
+      <c r="CH30" s="39"/>
+      <c r="CI30" s="39"/>
+      <c r="CJ30" s="39"/>
+      <c r="CK30" s="39"/>
+      <c r="CL30" s="39"/>
+      <c r="CM30" s="39"/>
+      <c r="CN30" s="39"/>
+      <c r="CO30" s="39"/>
+      <c r="CP30" s="39"/>
+      <c r="CQ30" s="39"/>
+      <c r="CR30" s="39"/>
+      <c r="CS30" s="39"/>
+      <c r="CT30" s="39"/>
+      <c r="CU30" s="39"/>
+      <c r="CV30" s="39"/>
+      <c r="CW30" s="39"/>
+      <c r="CX30" s="39"/>
+      <c r="CY30" s="39"/>
+      <c r="CZ30" s="39"/>
+      <c r="DA30" s="39"/>
+      <c r="DB30" s="39"/>
+      <c r="DC30" s="39"/>
+      <c r="DD30" s="39"/>
+      <c r="DE30" s="39"/>
+      <c r="DF30" s="39"/>
+      <c r="DG30" s="39"/>
+      <c r="DH30" s="39"/>
+      <c r="DI30" s="39"/>
+      <c r="DJ30" s="39"/>
+      <c r="DK30" s="39"/>
+      <c r="DL30" s="39"/>
+      <c r="DM30" s="39"/>
+      <c r="DN30" s="39"/>
+      <c r="DO30" s="39"/>
+      <c r="DP30" s="39"/>
+      <c r="DQ30" s="39"/>
+      <c r="DR30" s="39"/>
+      <c r="DS30" s="39"/>
+      <c r="DT30" s="39"/>
+      <c r="DU30" s="39"/>
+      <c r="DV30" s="39"/>
+      <c r="DW30" s="39"/>
+      <c r="DX30" s="39"/>
+      <c r="DY30" s="39"/>
+      <c r="DZ30" s="39"/>
+      <c r="EA30" s="39"/>
+      <c r="EB30" s="39"/>
+      <c r="EC30" s="39"/>
+      <c r="ED30" s="39"/>
+      <c r="EE30" s="39"/>
+      <c r="EF30" s="39"/>
+      <c r="EG30" s="39"/>
+      <c r="EH30" s="39"/>
+      <c r="EI30" s="39"/>
+      <c r="EJ30" s="39"/>
+      <c r="EK30" s="39"/>
+      <c r="EL30" s="39"/>
+      <c r="EM30" s="39"/>
+      <c r="EN30" s="39"/>
+      <c r="EO30" s="39"/>
+      <c r="EP30" s="39"/>
+      <c r="EQ30" s="39"/>
+      <c r="ER30" s="39"/>
+      <c r="ES30" s="39"/>
+      <c r="ET30" s="39"/>
+      <c r="EU30" s="39"/>
+      <c r="EV30" s="39"/>
+      <c r="EW30" s="39"/>
+      <c r="EX30" s="39"/>
+      <c r="EY30" s="39"/>
+      <c r="EZ30" s="39"/>
+      <c r="FA30" s="39"/>
+      <c r="FB30" s="39"/>
+      <c r="FC30" s="39"/>
+      <c r="FD30" s="39"/>
+      <c r="FE30" s="39"/>
+      <c r="FF30" s="39"/>
+      <c r="FG30" s="39"/>
+      <c r="FH30" s="39"/>
+      <c r="FI30" s="39"/>
+      <c r="FJ30" s="39"/>
+      <c r="FK30" s="39"/>
+      <c r="FL30" s="39"/>
+      <c r="FM30" s="39"/>
+      <c r="FN30" s="39"/>
+      <c r="FO30" s="39"/>
+      <c r="FP30" s="39"/>
+      <c r="FQ30" s="39"/>
+      <c r="FR30" s="39"/>
+      <c r="FS30" s="39"/>
+      <c r="FT30" s="39"/>
+      <c r="FU30" s="39"/>
+      <c r="FV30" s="39"/>
+      <c r="FW30" s="39"/>
+      <c r="FX30" s="39"/>
+      <c r="FY30" s="39"/>
+      <c r="FZ30" s="39"/>
+      <c r="GA30" s="39"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="61" t="s">
+    <row r="31" spans="1:183" s="84" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="88"/>
+      <c r="B31" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="86">
+        <v>0.2</v>
+      </c>
+      <c r="E31" s="89">
+        <v>44942</v>
+      </c>
+      <c r="F31" s="89">
+        <v>44959</v>
+      </c>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85">
+        <f t="shared" si="137"/>
+        <v>18</v>
+      </c>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="87"/>
+      <c r="S31" s="87"/>
+      <c r="T31" s="87"/>
+      <c r="U31" s="87"/>
+      <c r="V31" s="87"/>
+      <c r="W31" s="87"/>
+      <c r="X31" s="87"/>
+      <c r="Y31" s="87"/>
+      <c r="Z31" s="87"/>
+      <c r="AA31" s="87"/>
+      <c r="AB31" s="87"/>
+      <c r="AC31" s="87"/>
+      <c r="AD31" s="87"/>
+      <c r="AE31" s="87"/>
+      <c r="AF31" s="87"/>
+      <c r="AG31" s="87"/>
+      <c r="AH31" s="87"/>
+      <c r="AI31" s="87"/>
+      <c r="AJ31" s="87"/>
+      <c r="AK31" s="87"/>
+      <c r="AL31" s="87"/>
+      <c r="AM31" s="87"/>
+      <c r="AN31" s="87"/>
+      <c r="AO31" s="87"/>
+      <c r="AP31" s="87"/>
+      <c r="AQ31" s="87"/>
+      <c r="AR31" s="87"/>
+      <c r="AS31" s="87"/>
+      <c r="AT31" s="87"/>
+      <c r="AU31" s="87"/>
+      <c r="AV31" s="87"/>
+      <c r="AW31" s="87"/>
+      <c r="AX31" s="87"/>
+      <c r="AY31" s="87"/>
+      <c r="AZ31" s="87"/>
+      <c r="BA31" s="87"/>
+      <c r="BB31" s="87"/>
+      <c r="BC31" s="87"/>
+      <c r="BD31" s="87"/>
+      <c r="BE31" s="87"/>
+      <c r="BF31" s="87"/>
+      <c r="BG31" s="87"/>
+      <c r="BH31" s="87"/>
+      <c r="BI31" s="87"/>
+      <c r="BJ31" s="87"/>
+      <c r="BK31" s="87"/>
+      <c r="BL31" s="87"/>
+      <c r="BM31" s="87"/>
+      <c r="BN31" s="87"/>
+      <c r="BO31" s="87"/>
+      <c r="BP31" s="87"/>
+      <c r="BQ31" s="87"/>
+      <c r="BR31" s="87"/>
+      <c r="BS31" s="87"/>
+      <c r="BT31" s="87"/>
+      <c r="BU31" s="87"/>
+      <c r="BV31" s="87"/>
+      <c r="BW31" s="87"/>
+      <c r="BX31" s="87"/>
+      <c r="BY31" s="87"/>
+      <c r="BZ31" s="87"/>
+      <c r="CA31" s="87"/>
+      <c r="CB31" s="87"/>
+      <c r="CC31" s="87"/>
+      <c r="CD31" s="87"/>
+      <c r="CE31" s="87"/>
+      <c r="CF31" s="87"/>
+      <c r="CG31" s="87"/>
+      <c r="CH31" s="87"/>
+      <c r="CI31" s="87"/>
+      <c r="CJ31" s="87"/>
+      <c r="CK31" s="87"/>
+      <c r="CL31" s="87"/>
+      <c r="CM31" s="87"/>
+      <c r="CN31" s="87"/>
+      <c r="CO31" s="87"/>
+      <c r="CP31" s="87"/>
+      <c r="CQ31" s="87"/>
+      <c r="CR31" s="87"/>
+      <c r="CS31" s="87"/>
+      <c r="CT31" s="87"/>
+      <c r="CU31" s="87"/>
+      <c r="CV31" s="87"/>
+      <c r="CW31" s="87"/>
+      <c r="CX31" s="87"/>
+      <c r="CY31" s="87"/>
+      <c r="CZ31" s="87"/>
+      <c r="DA31" s="87"/>
+      <c r="DB31" s="87"/>
+      <c r="DC31" s="87"/>
+      <c r="DD31" s="87"/>
+      <c r="DE31" s="87"/>
+      <c r="DF31" s="87"/>
+      <c r="DG31" s="87"/>
+      <c r="DH31" s="87"/>
+      <c r="DI31" s="87"/>
+      <c r="DJ31" s="87"/>
+      <c r="DK31" s="87"/>
+      <c r="DL31" s="87"/>
+      <c r="DM31" s="87"/>
+      <c r="DN31" s="87"/>
+      <c r="DO31" s="87"/>
+      <c r="DP31" s="87"/>
+      <c r="DQ31" s="87"/>
+      <c r="DR31" s="87"/>
+      <c r="DS31" s="87"/>
+      <c r="DT31" s="87"/>
+      <c r="DU31" s="87"/>
+      <c r="DV31" s="87"/>
+      <c r="DW31" s="87"/>
+      <c r="DX31" s="87"/>
+      <c r="DY31" s="87"/>
+      <c r="DZ31" s="87"/>
+      <c r="EA31" s="87"/>
+      <c r="EB31" s="87"/>
+      <c r="EC31" s="87"/>
+      <c r="ED31" s="87"/>
+      <c r="EE31" s="87"/>
+      <c r="EF31" s="87"/>
+      <c r="EG31" s="87"/>
+      <c r="EH31" s="87"/>
+      <c r="EI31" s="87"/>
+      <c r="EJ31" s="87"/>
+      <c r="EK31" s="87"/>
+      <c r="EL31" s="87"/>
+      <c r="EM31" s="87"/>
+      <c r="EN31" s="87"/>
+      <c r="EO31" s="87"/>
+      <c r="EP31" s="87"/>
+      <c r="EQ31" s="87"/>
+      <c r="ER31" s="87"/>
+      <c r="ES31" s="87"/>
+      <c r="ET31" s="87"/>
+      <c r="EU31" s="87"/>
+      <c r="EV31" s="87"/>
+      <c r="EW31" s="87"/>
+      <c r="EX31" s="87"/>
+      <c r="EY31" s="87"/>
+      <c r="EZ31" s="87"/>
+      <c r="FA31" s="87"/>
+      <c r="FB31" s="87"/>
+      <c r="FC31" s="87"/>
+      <c r="FD31" s="87"/>
+      <c r="FE31" s="87"/>
+      <c r="FF31" s="87"/>
+      <c r="FG31" s="87"/>
+      <c r="FH31" s="87"/>
+      <c r="FI31" s="87"/>
+      <c r="FJ31" s="87"/>
+      <c r="FK31" s="87"/>
+      <c r="FL31" s="87"/>
+      <c r="FM31" s="87"/>
+      <c r="FN31" s="87"/>
+      <c r="FO31" s="87"/>
+      <c r="FP31" s="87"/>
+      <c r="FQ31" s="87"/>
+      <c r="FR31" s="87"/>
+      <c r="FS31" s="87"/>
+      <c r="FT31" s="87"/>
+      <c r="FU31" s="87"/>
+      <c r="FV31" s="87"/>
+      <c r="FW31" s="87"/>
+      <c r="FX31" s="87"/>
+      <c r="FY31" s="87"/>
+      <c r="FZ31" s="87"/>
+      <c r="GA31" s="87"/>
+    </row>
+    <row r="32" spans="1:183" s="84" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="88"/>
+      <c r="B32" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="86">
+        <v>0.2</v>
+      </c>
+      <c r="E32" s="89">
+        <v>44942</v>
+      </c>
+      <c r="F32" s="89">
+        <v>44959</v>
+      </c>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="87"/>
+      <c r="R32" s="87"/>
+      <c r="S32" s="87"/>
+      <c r="T32" s="87"/>
+      <c r="U32" s="87"/>
+      <c r="V32" s="87"/>
+      <c r="W32" s="87"/>
+      <c r="X32" s="87"/>
+      <c r="Y32" s="87"/>
+      <c r="Z32" s="87"/>
+      <c r="AA32" s="87"/>
+      <c r="AB32" s="87"/>
+      <c r="AC32" s="87"/>
+      <c r="AD32" s="87"/>
+      <c r="AE32" s="87"/>
+      <c r="AF32" s="87"/>
+      <c r="AG32" s="87"/>
+      <c r="AH32" s="87"/>
+      <c r="AI32" s="87"/>
+      <c r="AJ32" s="87"/>
+      <c r="AK32" s="87"/>
+      <c r="AL32" s="87"/>
+      <c r="AM32" s="87"/>
+      <c r="AN32" s="87"/>
+      <c r="AO32" s="87"/>
+      <c r="AP32" s="87"/>
+      <c r="AQ32" s="87"/>
+      <c r="AR32" s="87"/>
+      <c r="AS32" s="87"/>
+      <c r="AT32" s="87"/>
+      <c r="AU32" s="87"/>
+      <c r="AV32" s="87"/>
+      <c r="AW32" s="87"/>
+      <c r="AX32" s="87"/>
+      <c r="AY32" s="87"/>
+      <c r="AZ32" s="87"/>
+      <c r="BA32" s="87"/>
+      <c r="BB32" s="87"/>
+      <c r="BC32" s="87"/>
+      <c r="BD32" s="87"/>
+      <c r="BE32" s="87"/>
+      <c r="BF32" s="87"/>
+      <c r="BG32" s="87"/>
+      <c r="BH32" s="87"/>
+      <c r="BI32" s="87"/>
+      <c r="BJ32" s="87"/>
+      <c r="BK32" s="87"/>
+      <c r="BL32" s="87"/>
+      <c r="BM32" s="87"/>
+      <c r="BN32" s="87"/>
+      <c r="BO32" s="87"/>
+      <c r="BP32" s="87"/>
+      <c r="BQ32" s="87"/>
+      <c r="BR32" s="87"/>
+      <c r="BS32" s="87"/>
+      <c r="BT32" s="87"/>
+      <c r="BU32" s="87"/>
+      <c r="BV32" s="87"/>
+      <c r="BW32" s="87"/>
+      <c r="BX32" s="87"/>
+      <c r="BY32" s="87"/>
+      <c r="BZ32" s="87"/>
+      <c r="CA32" s="87"/>
+      <c r="CB32" s="87"/>
+      <c r="CC32" s="87"/>
+      <c r="CD32" s="87"/>
+      <c r="CE32" s="87"/>
+      <c r="CF32" s="87"/>
+      <c r="CG32" s="87"/>
+      <c r="CH32" s="87"/>
+      <c r="CI32" s="87"/>
+      <c r="CJ32" s="87"/>
+      <c r="CK32" s="87"/>
+      <c r="CL32" s="87"/>
+      <c r="CM32" s="87"/>
+      <c r="CN32" s="87"/>
+      <c r="CO32" s="87"/>
+      <c r="CP32" s="87"/>
+      <c r="CQ32" s="87"/>
+      <c r="CR32" s="87"/>
+      <c r="CS32" s="87"/>
+      <c r="CT32" s="87"/>
+      <c r="CU32" s="87"/>
+      <c r="CV32" s="87"/>
+      <c r="CW32" s="87"/>
+      <c r="CX32" s="87"/>
+      <c r="CY32" s="87"/>
+      <c r="CZ32" s="87"/>
+      <c r="DA32" s="87"/>
+      <c r="DB32" s="87"/>
+      <c r="DC32" s="87"/>
+      <c r="DD32" s="87"/>
+      <c r="DE32" s="87"/>
+      <c r="DF32" s="87"/>
+      <c r="DG32" s="87"/>
+      <c r="DH32" s="87"/>
+      <c r="DI32" s="87"/>
+      <c r="DJ32" s="87"/>
+      <c r="DK32" s="87"/>
+      <c r="DL32" s="87"/>
+      <c r="DM32" s="87"/>
+      <c r="DN32" s="87"/>
+      <c r="DO32" s="87"/>
+      <c r="DP32" s="87"/>
+      <c r="DQ32" s="87"/>
+      <c r="DR32" s="87"/>
+      <c r="DS32" s="87"/>
+      <c r="DT32" s="87"/>
+      <c r="DU32" s="87"/>
+      <c r="DV32" s="87"/>
+      <c r="DW32" s="87"/>
+      <c r="DX32" s="87"/>
+      <c r="DY32" s="87"/>
+      <c r="DZ32" s="87"/>
+      <c r="EA32" s="87"/>
+      <c r="EB32" s="87"/>
+      <c r="EC32" s="87"/>
+      <c r="ED32" s="87"/>
+      <c r="EE32" s="87"/>
+      <c r="EF32" s="87"/>
+      <c r="EG32" s="87"/>
+      <c r="EH32" s="87"/>
+      <c r="EI32" s="87"/>
+      <c r="EJ32" s="87"/>
+      <c r="EK32" s="87"/>
+      <c r="EL32" s="87"/>
+      <c r="EM32" s="87"/>
+      <c r="EN32" s="87"/>
+      <c r="EO32" s="87"/>
+      <c r="EP32" s="87"/>
+      <c r="EQ32" s="87"/>
+      <c r="ER32" s="87"/>
+      <c r="ES32" s="87"/>
+      <c r="ET32" s="87"/>
+      <c r="EU32" s="87"/>
+      <c r="EV32" s="87"/>
+      <c r="EW32" s="87"/>
+      <c r="EX32" s="87"/>
+      <c r="EY32" s="87"/>
+      <c r="EZ32" s="87"/>
+      <c r="FA32" s="87"/>
+      <c r="FB32" s="87"/>
+      <c r="FC32" s="87"/>
+      <c r="FD32" s="87"/>
+      <c r="FE32" s="87"/>
+      <c r="FF32" s="87"/>
+      <c r="FG32" s="87"/>
+      <c r="FH32" s="87"/>
+      <c r="FI32" s="87"/>
+      <c r="FJ32" s="87"/>
+      <c r="FK32" s="87"/>
+      <c r="FL32" s="87"/>
+      <c r="FM32" s="87"/>
+      <c r="FN32" s="87"/>
+      <c r="FO32" s="87"/>
+      <c r="FP32" s="87"/>
+      <c r="FQ32" s="87"/>
+      <c r="FR32" s="87"/>
+      <c r="FS32" s="87"/>
+      <c r="FT32" s="87"/>
+      <c r="FU32" s="87"/>
+      <c r="FV32" s="87"/>
+      <c r="FW32" s="87"/>
+      <c r="FX32" s="87"/>
+      <c r="FY32" s="87"/>
+      <c r="FZ32" s="87"/>
+      <c r="GA32" s="87"/>
+    </row>
+    <row r="33" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="43"/>
+      <c r="B33" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="39"/>
-      <c r="AC31" s="39"/>
-      <c r="AD31" s="39"/>
-      <c r="AE31" s="39"/>
-      <c r="AF31" s="39"/>
-      <c r="AG31" s="39"/>
-      <c r="AH31" s="39"/>
-      <c r="AI31" s="39"/>
-      <c r="AJ31" s="39"/>
-      <c r="AK31" s="39"/>
-      <c r="AL31" s="39"/>
-      <c r="AM31" s="39"/>
-      <c r="AN31" s="39"/>
-      <c r="AO31" s="39"/>
-      <c r="AP31" s="39"/>
-      <c r="AQ31" s="39"/>
-      <c r="AR31" s="39"/>
-      <c r="AS31" s="39"/>
-      <c r="AT31" s="39"/>
-      <c r="AU31" s="39"/>
-      <c r="AV31" s="39"/>
-      <c r="AW31" s="39"/>
-      <c r="AX31" s="39"/>
-      <c r="AY31" s="39"/>
-      <c r="AZ31" s="39"/>
-      <c r="BA31" s="39"/>
-      <c r="BB31" s="39"/>
-      <c r="BC31" s="39"/>
-      <c r="BD31" s="39"/>
-      <c r="BE31" s="39"/>
-      <c r="BF31" s="39"/>
-      <c r="BG31" s="39"/>
-      <c r="BH31" s="39"/>
-      <c r="BI31" s="39"/>
-      <c r="BJ31" s="39"/>
-      <c r="BK31" s="39"/>
-      <c r="BL31" s="39"/>
-    </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="39"/>
-      <c r="AA32" s="39"/>
-      <c r="AB32" s="39"/>
-      <c r="AC32" s="39"/>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="39"/>
-      <c r="AF32" s="39"/>
-      <c r="AG32" s="39"/>
-      <c r="AH32" s="39"/>
-      <c r="AI32" s="39"/>
-      <c r="AJ32" s="39"/>
-      <c r="AK32" s="39"/>
-      <c r="AL32" s="39"/>
-      <c r="AM32" s="39"/>
-      <c r="AN32" s="39"/>
-      <c r="AO32" s="39"/>
-      <c r="AP32" s="39"/>
-      <c r="AQ32" s="39"/>
-      <c r="AR32" s="39"/>
-      <c r="AS32" s="39"/>
-      <c r="AT32" s="39"/>
-      <c r="AU32" s="39"/>
-      <c r="AV32" s="39"/>
-      <c r="AW32" s="39"/>
-      <c r="AX32" s="39"/>
-      <c r="AY32" s="39"/>
-      <c r="AZ32" s="39"/>
-      <c r="BA32" s="39"/>
-      <c r="BB32" s="39"/>
-      <c r="BC32" s="39"/>
-      <c r="BD32" s="39"/>
-      <c r="BE32" s="39"/>
-      <c r="BF32" s="39"/>
-      <c r="BG32" s="39"/>
-      <c r="BH32" s="39"/>
-      <c r="BI32" s="39"/>
-      <c r="BJ32" s="39"/>
-      <c r="BK32" s="39"/>
-      <c r="BL32" s="39"/>
-    </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43"/>
-      <c r="B33" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="32"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="51" t="s">
         <v>15</v>
       </c>
@@ -4077,7 +8268,7 @@
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="137"/>
         <v>#VALUE!</v>
       </c>
       <c r="I33" s="39"/>
@@ -4136,24 +8327,141 @@
       <c r="BJ33" s="39"/>
       <c r="BK33" s="39"/>
       <c r="BL33" s="39"/>
+      <c r="BM33" s="39"/>
+      <c r="BN33" s="39"/>
+      <c r="BO33" s="39"/>
+      <c r="BP33" s="39"/>
+      <c r="BQ33" s="39"/>
+      <c r="BR33" s="39"/>
+      <c r="BS33" s="39"/>
+      <c r="BT33" s="39"/>
+      <c r="BU33" s="39"/>
+      <c r="BV33" s="39"/>
+      <c r="BW33" s="39"/>
+      <c r="BX33" s="39"/>
+      <c r="BY33" s="39"/>
+      <c r="BZ33" s="39"/>
+      <c r="CA33" s="39"/>
+      <c r="CB33" s="39"/>
+      <c r="CC33" s="39"/>
+      <c r="CD33" s="39"/>
+      <c r="CE33" s="39"/>
+      <c r="CF33" s="39"/>
+      <c r="CG33" s="39"/>
+      <c r="CH33" s="39"/>
+      <c r="CI33" s="39"/>
+      <c r="CJ33" s="39"/>
+      <c r="CK33" s="39"/>
+      <c r="CL33" s="39"/>
+      <c r="CM33" s="39"/>
+      <c r="CN33" s="39"/>
+      <c r="CO33" s="39"/>
+      <c r="CP33" s="39"/>
+      <c r="CQ33" s="39"/>
+      <c r="CR33" s="39"/>
+      <c r="CS33" s="39"/>
+      <c r="CT33" s="39"/>
+      <c r="CU33" s="39"/>
+      <c r="CV33" s="39"/>
+      <c r="CW33" s="39"/>
+      <c r="CX33" s="39"/>
+      <c r="CY33" s="39"/>
+      <c r="CZ33" s="39"/>
+      <c r="DA33" s="39"/>
+      <c r="DB33" s="39"/>
+      <c r="DC33" s="39"/>
+      <c r="DD33" s="39"/>
+      <c r="DE33" s="39"/>
+      <c r="DF33" s="39"/>
+      <c r="DG33" s="39"/>
+      <c r="DH33" s="39"/>
+      <c r="DI33" s="39"/>
+      <c r="DJ33" s="39"/>
+      <c r="DK33" s="39"/>
+      <c r="DL33" s="39"/>
+      <c r="DM33" s="39"/>
+      <c r="DN33" s="39"/>
+      <c r="DO33" s="39"/>
+      <c r="DP33" s="39"/>
+      <c r="DQ33" s="39"/>
+      <c r="DR33" s="39"/>
+      <c r="DS33" s="39"/>
+      <c r="DT33" s="39"/>
+      <c r="DU33" s="39"/>
+      <c r="DV33" s="39"/>
+      <c r="DW33" s="39"/>
+      <c r="DX33" s="39"/>
+      <c r="DY33" s="39"/>
+      <c r="DZ33" s="39"/>
+      <c r="EA33" s="39"/>
+      <c r="EB33" s="39"/>
+      <c r="EC33" s="39"/>
+      <c r="ED33" s="39"/>
+      <c r="EE33" s="39"/>
+      <c r="EF33" s="39"/>
+      <c r="EG33" s="39"/>
+      <c r="EH33" s="39"/>
+      <c r="EI33" s="39"/>
+      <c r="EJ33" s="39"/>
+      <c r="EK33" s="39"/>
+      <c r="EL33" s="39"/>
+      <c r="EM33" s="39"/>
+      <c r="EN33" s="39"/>
+      <c r="EO33" s="39"/>
+      <c r="EP33" s="39"/>
+      <c r="EQ33" s="39"/>
+      <c r="ER33" s="39"/>
+      <c r="ES33" s="39"/>
+      <c r="ET33" s="39"/>
+      <c r="EU33" s="39"/>
+      <c r="EV33" s="39"/>
+      <c r="EW33" s="39"/>
+      <c r="EX33" s="39"/>
+      <c r="EY33" s="39"/>
+      <c r="EZ33" s="39"/>
+      <c r="FA33" s="39"/>
+      <c r="FB33" s="39"/>
+      <c r="FC33" s="39"/>
+      <c r="FD33" s="39"/>
+      <c r="FE33" s="39"/>
+      <c r="FF33" s="39"/>
+      <c r="FG33" s="39"/>
+      <c r="FH33" s="39"/>
+      <c r="FI33" s="39"/>
+      <c r="FJ33" s="39"/>
+      <c r="FK33" s="39"/>
+      <c r="FL33" s="39"/>
+      <c r="FM33" s="39"/>
+      <c r="FN33" s="39"/>
+      <c r="FO33" s="39"/>
+      <c r="FP33" s="39"/>
+      <c r="FQ33" s="39"/>
+      <c r="FR33" s="39"/>
+      <c r="FS33" s="39"/>
+      <c r="FT33" s="39"/>
+      <c r="FU33" s="39"/>
+      <c r="FV33" s="39"/>
+      <c r="FW33" s="39"/>
+      <c r="FX33" s="39"/>
+      <c r="FY33" s="39"/>
+      <c r="FZ33" s="39"/>
+      <c r="GA33" s="39"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
-      <c r="B34" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="51" t="s">
-        <v>15</v>
-      </c>
+    <row r="34" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="57"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="H34" s="17" t="str">
+        <f t="shared" si="137"/>
+        <v/>
       </c>
       <c r="I34" s="39"/>
       <c r="J34" s="39"/>
@@ -4211,11 +8519,130 @@
       <c r="BJ34" s="39"/>
       <c r="BK34" s="39"/>
       <c r="BL34" s="39"/>
+      <c r="BM34" s="39"/>
+      <c r="BN34" s="39"/>
+      <c r="BO34" s="39"/>
+      <c r="BP34" s="39"/>
+      <c r="BQ34" s="39"/>
+      <c r="BR34" s="39"/>
+      <c r="BS34" s="39"/>
+      <c r="BT34" s="39"/>
+      <c r="BU34" s="39"/>
+      <c r="BV34" s="39"/>
+      <c r="BW34" s="39"/>
+      <c r="BX34" s="39"/>
+      <c r="BY34" s="39"/>
+      <c r="BZ34" s="39"/>
+      <c r="CA34" s="39"/>
+      <c r="CB34" s="39"/>
+      <c r="CC34" s="39"/>
+      <c r="CD34" s="39"/>
+      <c r="CE34" s="39"/>
+      <c r="CF34" s="39"/>
+      <c r="CG34" s="39"/>
+      <c r="CH34" s="39"/>
+      <c r="CI34" s="39"/>
+      <c r="CJ34" s="39"/>
+      <c r="CK34" s="39"/>
+      <c r="CL34" s="39"/>
+      <c r="CM34" s="39"/>
+      <c r="CN34" s="39"/>
+      <c r="CO34" s="39"/>
+      <c r="CP34" s="39"/>
+      <c r="CQ34" s="39"/>
+      <c r="CR34" s="39"/>
+      <c r="CS34" s="39"/>
+      <c r="CT34" s="39"/>
+      <c r="CU34" s="39"/>
+      <c r="CV34" s="39"/>
+      <c r="CW34" s="39"/>
+      <c r="CX34" s="39"/>
+      <c r="CY34" s="39"/>
+      <c r="CZ34" s="39"/>
+      <c r="DA34" s="39"/>
+      <c r="DB34" s="39"/>
+      <c r="DC34" s="39"/>
+      <c r="DD34" s="39"/>
+      <c r="DE34" s="39"/>
+      <c r="DF34" s="39"/>
+      <c r="DG34" s="39"/>
+      <c r="DH34" s="39"/>
+      <c r="DI34" s="39"/>
+      <c r="DJ34" s="39"/>
+      <c r="DK34" s="39"/>
+      <c r="DL34" s="39"/>
+      <c r="DM34" s="39"/>
+      <c r="DN34" s="39"/>
+      <c r="DO34" s="39"/>
+      <c r="DP34" s="39"/>
+      <c r="DQ34" s="39"/>
+      <c r="DR34" s="39"/>
+      <c r="DS34" s="39"/>
+      <c r="DT34" s="39"/>
+      <c r="DU34" s="39"/>
+      <c r="DV34" s="39"/>
+      <c r="DW34" s="39"/>
+      <c r="DX34" s="39"/>
+      <c r="DY34" s="39"/>
+      <c r="DZ34" s="39"/>
+      <c r="EA34" s="39"/>
+      <c r="EB34" s="39"/>
+      <c r="EC34" s="39"/>
+      <c r="ED34" s="39"/>
+      <c r="EE34" s="39"/>
+      <c r="EF34" s="39"/>
+      <c r="EG34" s="39"/>
+      <c r="EH34" s="39"/>
+      <c r="EI34" s="39"/>
+      <c r="EJ34" s="39"/>
+      <c r="EK34" s="39"/>
+      <c r="EL34" s="39"/>
+      <c r="EM34" s="39"/>
+      <c r="EN34" s="39"/>
+      <c r="EO34" s="39"/>
+      <c r="EP34" s="39"/>
+      <c r="EQ34" s="39"/>
+      <c r="ER34" s="39"/>
+      <c r="ES34" s="39"/>
+      <c r="ET34" s="39"/>
+      <c r="EU34" s="39"/>
+      <c r="EV34" s="39"/>
+      <c r="EW34" s="39"/>
+      <c r="EX34" s="39"/>
+      <c r="EY34" s="39"/>
+      <c r="EZ34" s="39"/>
+      <c r="FA34" s="39"/>
+      <c r="FB34" s="39"/>
+      <c r="FC34" s="39"/>
+      <c r="FD34" s="39"/>
+      <c r="FE34" s="39"/>
+      <c r="FF34" s="39"/>
+      <c r="FG34" s="39"/>
+      <c r="FH34" s="39"/>
+      <c r="FI34" s="39"/>
+      <c r="FJ34" s="39"/>
+      <c r="FK34" s="39"/>
+      <c r="FL34" s="39"/>
+      <c r="FM34" s="39"/>
+      <c r="FN34" s="39"/>
+      <c r="FO34" s="39"/>
+      <c r="FP34" s="39"/>
+      <c r="FQ34" s="39"/>
+      <c r="FR34" s="39"/>
+      <c r="FS34" s="39"/>
+      <c r="FT34" s="39"/>
+      <c r="FU34" s="39"/>
+      <c r="FV34" s="39"/>
+      <c r="FW34" s="39"/>
+      <c r="FX34" s="39"/>
+      <c r="FY34" s="39"/>
+      <c r="FZ34" s="39"/>
+      <c r="GA34" s="39"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="43"/>
       <c r="B35" s="62" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C35" s="58"/>
       <c r="D35" s="32"/>
@@ -4227,7 +8654,7 @@
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="137"/>
         <v>#VALUE!</v>
       </c>
       <c r="I35" s="39"/>
@@ -4286,11 +8713,130 @@
       <c r="BJ35" s="39"/>
       <c r="BK35" s="39"/>
       <c r="BL35" s="39"/>
+      <c r="BM35" s="39"/>
+      <c r="BN35" s="39"/>
+      <c r="BO35" s="39"/>
+      <c r="BP35" s="39"/>
+      <c r="BQ35" s="39"/>
+      <c r="BR35" s="39"/>
+      <c r="BS35" s="39"/>
+      <c r="BT35" s="39"/>
+      <c r="BU35" s="39"/>
+      <c r="BV35" s="39"/>
+      <c r="BW35" s="39"/>
+      <c r="BX35" s="39"/>
+      <c r="BY35" s="39"/>
+      <c r="BZ35" s="39"/>
+      <c r="CA35" s="39"/>
+      <c r="CB35" s="39"/>
+      <c r="CC35" s="39"/>
+      <c r="CD35" s="39"/>
+      <c r="CE35" s="39"/>
+      <c r="CF35" s="39"/>
+      <c r="CG35" s="39"/>
+      <c r="CH35" s="39"/>
+      <c r="CI35" s="39"/>
+      <c r="CJ35" s="39"/>
+      <c r="CK35" s="39"/>
+      <c r="CL35" s="39"/>
+      <c r="CM35" s="39"/>
+      <c r="CN35" s="39"/>
+      <c r="CO35" s="39"/>
+      <c r="CP35" s="39"/>
+      <c r="CQ35" s="39"/>
+      <c r="CR35" s="39"/>
+      <c r="CS35" s="39"/>
+      <c r="CT35" s="39"/>
+      <c r="CU35" s="39"/>
+      <c r="CV35" s="39"/>
+      <c r="CW35" s="39"/>
+      <c r="CX35" s="39"/>
+      <c r="CY35" s="39"/>
+      <c r="CZ35" s="39"/>
+      <c r="DA35" s="39"/>
+      <c r="DB35" s="39"/>
+      <c r="DC35" s="39"/>
+      <c r="DD35" s="39"/>
+      <c r="DE35" s="39"/>
+      <c r="DF35" s="39"/>
+      <c r="DG35" s="39"/>
+      <c r="DH35" s="39"/>
+      <c r="DI35" s="39"/>
+      <c r="DJ35" s="39"/>
+      <c r="DK35" s="39"/>
+      <c r="DL35" s="39"/>
+      <c r="DM35" s="39"/>
+      <c r="DN35" s="39"/>
+      <c r="DO35" s="39"/>
+      <c r="DP35" s="39"/>
+      <c r="DQ35" s="39"/>
+      <c r="DR35" s="39"/>
+      <c r="DS35" s="39"/>
+      <c r="DT35" s="39"/>
+      <c r="DU35" s="39"/>
+      <c r="DV35" s="39"/>
+      <c r="DW35" s="39"/>
+      <c r="DX35" s="39"/>
+      <c r="DY35" s="39"/>
+      <c r="DZ35" s="39"/>
+      <c r="EA35" s="39"/>
+      <c r="EB35" s="39"/>
+      <c r="EC35" s="39"/>
+      <c r="ED35" s="39"/>
+      <c r="EE35" s="39"/>
+      <c r="EF35" s="39"/>
+      <c r="EG35" s="39"/>
+      <c r="EH35" s="39"/>
+      <c r="EI35" s="39"/>
+      <c r="EJ35" s="39"/>
+      <c r="EK35" s="39"/>
+      <c r="EL35" s="39"/>
+      <c r="EM35" s="39"/>
+      <c r="EN35" s="39"/>
+      <c r="EO35" s="39"/>
+      <c r="EP35" s="39"/>
+      <c r="EQ35" s="39"/>
+      <c r="ER35" s="39"/>
+      <c r="ES35" s="39"/>
+      <c r="ET35" s="39"/>
+      <c r="EU35" s="39"/>
+      <c r="EV35" s="39"/>
+      <c r="EW35" s="39"/>
+      <c r="EX35" s="39"/>
+      <c r="EY35" s="39"/>
+      <c r="EZ35" s="39"/>
+      <c r="FA35" s="39"/>
+      <c r="FB35" s="39"/>
+      <c r="FC35" s="39"/>
+      <c r="FD35" s="39"/>
+      <c r="FE35" s="39"/>
+      <c r="FF35" s="39"/>
+      <c r="FG35" s="39"/>
+      <c r="FH35" s="39"/>
+      <c r="FI35" s="39"/>
+      <c r="FJ35" s="39"/>
+      <c r="FK35" s="39"/>
+      <c r="FL35" s="39"/>
+      <c r="FM35" s="39"/>
+      <c r="FN35" s="39"/>
+      <c r="FO35" s="39"/>
+      <c r="FP35" s="39"/>
+      <c r="FQ35" s="39"/>
+      <c r="FR35" s="39"/>
+      <c r="FS35" s="39"/>
+      <c r="FT35" s="39"/>
+      <c r="FU35" s="39"/>
+      <c r="FV35" s="39"/>
+      <c r="FW35" s="39"/>
+      <c r="FX35" s="39"/>
+      <c r="FY35" s="39"/>
+      <c r="FZ35" s="39"/>
+      <c r="GA35" s="39"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="43"/>
       <c r="B36" s="62" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C36" s="58"/>
       <c r="D36" s="32"/>
@@ -4302,7 +8848,7 @@
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="17" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="137"/>
         <v>#VALUE!</v>
       </c>
       <c r="I36" s="39"/>
@@ -4361,11 +8907,130 @@
       <c r="BJ36" s="39"/>
       <c r="BK36" s="39"/>
       <c r="BL36" s="39"/>
+      <c r="BM36" s="39"/>
+      <c r="BN36" s="39"/>
+      <c r="BO36" s="39"/>
+      <c r="BP36" s="39"/>
+      <c r="BQ36" s="39"/>
+      <c r="BR36" s="39"/>
+      <c r="BS36" s="39"/>
+      <c r="BT36" s="39"/>
+      <c r="BU36" s="39"/>
+      <c r="BV36" s="39"/>
+      <c r="BW36" s="39"/>
+      <c r="BX36" s="39"/>
+      <c r="BY36" s="39"/>
+      <c r="BZ36" s="39"/>
+      <c r="CA36" s="39"/>
+      <c r="CB36" s="39"/>
+      <c r="CC36" s="39"/>
+      <c r="CD36" s="39"/>
+      <c r="CE36" s="39"/>
+      <c r="CF36" s="39"/>
+      <c r="CG36" s="39"/>
+      <c r="CH36" s="39"/>
+      <c r="CI36" s="39"/>
+      <c r="CJ36" s="39"/>
+      <c r="CK36" s="39"/>
+      <c r="CL36" s="39"/>
+      <c r="CM36" s="39"/>
+      <c r="CN36" s="39"/>
+      <c r="CO36" s="39"/>
+      <c r="CP36" s="39"/>
+      <c r="CQ36" s="39"/>
+      <c r="CR36" s="39"/>
+      <c r="CS36" s="39"/>
+      <c r="CT36" s="39"/>
+      <c r="CU36" s="39"/>
+      <c r="CV36" s="39"/>
+      <c r="CW36" s="39"/>
+      <c r="CX36" s="39"/>
+      <c r="CY36" s="39"/>
+      <c r="CZ36" s="39"/>
+      <c r="DA36" s="39"/>
+      <c r="DB36" s="39"/>
+      <c r="DC36" s="39"/>
+      <c r="DD36" s="39"/>
+      <c r="DE36" s="39"/>
+      <c r="DF36" s="39"/>
+      <c r="DG36" s="39"/>
+      <c r="DH36" s="39"/>
+      <c r="DI36" s="39"/>
+      <c r="DJ36" s="39"/>
+      <c r="DK36" s="39"/>
+      <c r="DL36" s="39"/>
+      <c r="DM36" s="39"/>
+      <c r="DN36" s="39"/>
+      <c r="DO36" s="39"/>
+      <c r="DP36" s="39"/>
+      <c r="DQ36" s="39"/>
+      <c r="DR36" s="39"/>
+      <c r="DS36" s="39"/>
+      <c r="DT36" s="39"/>
+      <c r="DU36" s="39"/>
+      <c r="DV36" s="39"/>
+      <c r="DW36" s="39"/>
+      <c r="DX36" s="39"/>
+      <c r="DY36" s="39"/>
+      <c r="DZ36" s="39"/>
+      <c r="EA36" s="39"/>
+      <c r="EB36" s="39"/>
+      <c r="EC36" s="39"/>
+      <c r="ED36" s="39"/>
+      <c r="EE36" s="39"/>
+      <c r="EF36" s="39"/>
+      <c r="EG36" s="39"/>
+      <c r="EH36" s="39"/>
+      <c r="EI36" s="39"/>
+      <c r="EJ36" s="39"/>
+      <c r="EK36" s="39"/>
+      <c r="EL36" s="39"/>
+      <c r="EM36" s="39"/>
+      <c r="EN36" s="39"/>
+      <c r="EO36" s="39"/>
+      <c r="EP36" s="39"/>
+      <c r="EQ36" s="39"/>
+      <c r="ER36" s="39"/>
+      <c r="ES36" s="39"/>
+      <c r="ET36" s="39"/>
+      <c r="EU36" s="39"/>
+      <c r="EV36" s="39"/>
+      <c r="EW36" s="39"/>
+      <c r="EX36" s="39"/>
+      <c r="EY36" s="39"/>
+      <c r="EZ36" s="39"/>
+      <c r="FA36" s="39"/>
+      <c r="FB36" s="39"/>
+      <c r="FC36" s="39"/>
+      <c r="FD36" s="39"/>
+      <c r="FE36" s="39"/>
+      <c r="FF36" s="39"/>
+      <c r="FG36" s="39"/>
+      <c r="FH36" s="39"/>
+      <c r="FI36" s="39"/>
+      <c r="FJ36" s="39"/>
+      <c r="FK36" s="39"/>
+      <c r="FL36" s="39"/>
+      <c r="FM36" s="39"/>
+      <c r="FN36" s="39"/>
+      <c r="FO36" s="39"/>
+      <c r="FP36" s="39"/>
+      <c r="FQ36" s="39"/>
+      <c r="FR36" s="39"/>
+      <c r="FS36" s="39"/>
+      <c r="FT36" s="39"/>
+      <c r="FU36" s="39"/>
+      <c r="FV36" s="39"/>
+      <c r="FW36" s="39"/>
+      <c r="FX36" s="39"/>
+      <c r="FY36" s="39"/>
+      <c r="FZ36" s="39"/>
+      <c r="GA36" s="39"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="43"/>
       <c r="B37" s="62" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C37" s="58"/>
       <c r="D37" s="32"/>
@@ -4377,7 +9042,7 @@
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="137"/>
         <v>#VALUE!</v>
       </c>
       <c r="I37" s="39"/>
@@ -4436,20 +9101,143 @@
       <c r="BJ37" s="39"/>
       <c r="BK37" s="39"/>
       <c r="BL37" s="39"/>
+      <c r="BM37" s="39"/>
+      <c r="BN37" s="39"/>
+      <c r="BO37" s="39"/>
+      <c r="BP37" s="39"/>
+      <c r="BQ37" s="39"/>
+      <c r="BR37" s="39"/>
+      <c r="BS37" s="39"/>
+      <c r="BT37" s="39"/>
+      <c r="BU37" s="39"/>
+      <c r="BV37" s="39"/>
+      <c r="BW37" s="39"/>
+      <c r="BX37" s="39"/>
+      <c r="BY37" s="39"/>
+      <c r="BZ37" s="39"/>
+      <c r="CA37" s="39"/>
+      <c r="CB37" s="39"/>
+      <c r="CC37" s="39"/>
+      <c r="CD37" s="39"/>
+      <c r="CE37" s="39"/>
+      <c r="CF37" s="39"/>
+      <c r="CG37" s="39"/>
+      <c r="CH37" s="39"/>
+      <c r="CI37" s="39"/>
+      <c r="CJ37" s="39"/>
+      <c r="CK37" s="39"/>
+      <c r="CL37" s="39"/>
+      <c r="CM37" s="39"/>
+      <c r="CN37" s="39"/>
+      <c r="CO37" s="39"/>
+      <c r="CP37" s="39"/>
+      <c r="CQ37" s="39"/>
+      <c r="CR37" s="39"/>
+      <c r="CS37" s="39"/>
+      <c r="CT37" s="39"/>
+      <c r="CU37" s="39"/>
+      <c r="CV37" s="39"/>
+      <c r="CW37" s="39"/>
+      <c r="CX37" s="39"/>
+      <c r="CY37" s="39"/>
+      <c r="CZ37" s="39"/>
+      <c r="DA37" s="39"/>
+      <c r="DB37" s="39"/>
+      <c r="DC37" s="39"/>
+      <c r="DD37" s="39"/>
+      <c r="DE37" s="39"/>
+      <c r="DF37" s="39"/>
+      <c r="DG37" s="39"/>
+      <c r="DH37" s="39"/>
+      <c r="DI37" s="39"/>
+      <c r="DJ37" s="39"/>
+      <c r="DK37" s="39"/>
+      <c r="DL37" s="39"/>
+      <c r="DM37" s="39"/>
+      <c r="DN37" s="39"/>
+      <c r="DO37" s="39"/>
+      <c r="DP37" s="39"/>
+      <c r="DQ37" s="39"/>
+      <c r="DR37" s="39"/>
+      <c r="DS37" s="39"/>
+      <c r="DT37" s="39"/>
+      <c r="DU37" s="39"/>
+      <c r="DV37" s="39"/>
+      <c r="DW37" s="39"/>
+      <c r="DX37" s="39"/>
+      <c r="DY37" s="39"/>
+      <c r="DZ37" s="39"/>
+      <c r="EA37" s="39"/>
+      <c r="EB37" s="39"/>
+      <c r="EC37" s="39"/>
+      <c r="ED37" s="39"/>
+      <c r="EE37" s="39"/>
+      <c r="EF37" s="39"/>
+      <c r="EG37" s="39"/>
+      <c r="EH37" s="39"/>
+      <c r="EI37" s="39"/>
+      <c r="EJ37" s="39"/>
+      <c r="EK37" s="39"/>
+      <c r="EL37" s="39"/>
+      <c r="EM37" s="39"/>
+      <c r="EN37" s="39"/>
+      <c r="EO37" s="39"/>
+      <c r="EP37" s="39"/>
+      <c r="EQ37" s="39"/>
+      <c r="ER37" s="39"/>
+      <c r="ES37" s="39"/>
+      <c r="ET37" s="39"/>
+      <c r="EU37" s="39"/>
+      <c r="EV37" s="39"/>
+      <c r="EW37" s="39"/>
+      <c r="EX37" s="39"/>
+      <c r="EY37" s="39"/>
+      <c r="EZ37" s="39"/>
+      <c r="FA37" s="39"/>
+      <c r="FB37" s="39"/>
+      <c r="FC37" s="39"/>
+      <c r="FD37" s="39"/>
+      <c r="FE37" s="39"/>
+      <c r="FF37" s="39"/>
+      <c r="FG37" s="39"/>
+      <c r="FH37" s="39"/>
+      <c r="FI37" s="39"/>
+      <c r="FJ37" s="39"/>
+      <c r="FK37" s="39"/>
+      <c r="FL37" s="39"/>
+      <c r="FM37" s="39"/>
+      <c r="FN37" s="39"/>
+      <c r="FO37" s="39"/>
+      <c r="FP37" s="39"/>
+      <c r="FQ37" s="39"/>
+      <c r="FR37" s="39"/>
+      <c r="FS37" s="39"/>
+      <c r="FT37" s="39"/>
+      <c r="FU37" s="39"/>
+      <c r="FV37" s="39"/>
+      <c r="FW37" s="39"/>
+      <c r="FX37" s="39"/>
+      <c r="FY37" s="39"/>
+      <c r="FZ37" s="39"/>
+      <c r="GA37" s="39"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="63"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
+    <row r="38" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="43"/>
+      <c r="B38" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="58"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="G38" s="17"/>
-      <c r="H38" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="H38" s="17" t="e">
+        <f t="shared" si="137"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I38" s="39"/>
       <c r="J38" s="39"/>
@@ -4507,106 +9295,745 @@
       <c r="BJ38" s="39"/>
       <c r="BK38" s="39"/>
       <c r="BL38" s="39"/>
+      <c r="BM38" s="39"/>
+      <c r="BN38" s="39"/>
+      <c r="BO38" s="39"/>
+      <c r="BP38" s="39"/>
+      <c r="BQ38" s="39"/>
+      <c r="BR38" s="39"/>
+      <c r="BS38" s="39"/>
+      <c r="BT38" s="39"/>
+      <c r="BU38" s="39"/>
+      <c r="BV38" s="39"/>
+      <c r="BW38" s="39"/>
+      <c r="BX38" s="39"/>
+      <c r="BY38" s="39"/>
+      <c r="BZ38" s="39"/>
+      <c r="CA38" s="39"/>
+      <c r="CB38" s="39"/>
+      <c r="CC38" s="39"/>
+      <c r="CD38" s="39"/>
+      <c r="CE38" s="39"/>
+      <c r="CF38" s="39"/>
+      <c r="CG38" s="39"/>
+      <c r="CH38" s="39"/>
+      <c r="CI38" s="39"/>
+      <c r="CJ38" s="39"/>
+      <c r="CK38" s="39"/>
+      <c r="CL38" s="39"/>
+      <c r="CM38" s="39"/>
+      <c r="CN38" s="39"/>
+      <c r="CO38" s="39"/>
+      <c r="CP38" s="39"/>
+      <c r="CQ38" s="39"/>
+      <c r="CR38" s="39"/>
+      <c r="CS38" s="39"/>
+      <c r="CT38" s="39"/>
+      <c r="CU38" s="39"/>
+      <c r="CV38" s="39"/>
+      <c r="CW38" s="39"/>
+      <c r="CX38" s="39"/>
+      <c r="CY38" s="39"/>
+      <c r="CZ38" s="39"/>
+      <c r="DA38" s="39"/>
+      <c r="DB38" s="39"/>
+      <c r="DC38" s="39"/>
+      <c r="DD38" s="39"/>
+      <c r="DE38" s="39"/>
+      <c r="DF38" s="39"/>
+      <c r="DG38" s="39"/>
+      <c r="DH38" s="39"/>
+      <c r="DI38" s="39"/>
+      <c r="DJ38" s="39"/>
+      <c r="DK38" s="39"/>
+      <c r="DL38" s="39"/>
+      <c r="DM38" s="39"/>
+      <c r="DN38" s="39"/>
+      <c r="DO38" s="39"/>
+      <c r="DP38" s="39"/>
+      <c r="DQ38" s="39"/>
+      <c r="DR38" s="39"/>
+      <c r="DS38" s="39"/>
+      <c r="DT38" s="39"/>
+      <c r="DU38" s="39"/>
+      <c r="DV38" s="39"/>
+      <c r="DW38" s="39"/>
+      <c r="DX38" s="39"/>
+      <c r="DY38" s="39"/>
+      <c r="DZ38" s="39"/>
+      <c r="EA38" s="39"/>
+      <c r="EB38" s="39"/>
+      <c r="EC38" s="39"/>
+      <c r="ED38" s="39"/>
+      <c r="EE38" s="39"/>
+      <c r="EF38" s="39"/>
+      <c r="EG38" s="39"/>
+      <c r="EH38" s="39"/>
+      <c r="EI38" s="39"/>
+      <c r="EJ38" s="39"/>
+      <c r="EK38" s="39"/>
+      <c r="EL38" s="39"/>
+      <c r="EM38" s="39"/>
+      <c r="EN38" s="39"/>
+      <c r="EO38" s="39"/>
+      <c r="EP38" s="39"/>
+      <c r="EQ38" s="39"/>
+      <c r="ER38" s="39"/>
+      <c r="ES38" s="39"/>
+      <c r="ET38" s="39"/>
+      <c r="EU38" s="39"/>
+      <c r="EV38" s="39"/>
+      <c r="EW38" s="39"/>
+      <c r="EX38" s="39"/>
+      <c r="EY38" s="39"/>
+      <c r="EZ38" s="39"/>
+      <c r="FA38" s="39"/>
+      <c r="FB38" s="39"/>
+      <c r="FC38" s="39"/>
+      <c r="FD38" s="39"/>
+      <c r="FE38" s="39"/>
+      <c r="FF38" s="39"/>
+      <c r="FG38" s="39"/>
+      <c r="FH38" s="39"/>
+      <c r="FI38" s="39"/>
+      <c r="FJ38" s="39"/>
+      <c r="FK38" s="39"/>
+      <c r="FL38" s="39"/>
+      <c r="FM38" s="39"/>
+      <c r="FN38" s="39"/>
+      <c r="FO38" s="39"/>
+      <c r="FP38" s="39"/>
+      <c r="FQ38" s="39"/>
+      <c r="FR38" s="39"/>
+      <c r="FS38" s="39"/>
+      <c r="FT38" s="39"/>
+      <c r="FU38" s="39"/>
+      <c r="FV38" s="39"/>
+      <c r="FW38" s="39"/>
+      <c r="FX38" s="39"/>
+      <c r="FY38" s="39"/>
+      <c r="FZ38" s="39"/>
+      <c r="GA38" s="39"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="44" t="s">
+    <row r="39" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="43"/>
+      <c r="B39" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="58"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17" t="e">
+        <f t="shared" si="137"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="39"/>
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="39"/>
+      <c r="AF39" s="39"/>
+      <c r="AG39" s="39"/>
+      <c r="AH39" s="39"/>
+      <c r="AI39" s="39"/>
+      <c r="AJ39" s="39"/>
+      <c r="AK39" s="39"/>
+      <c r="AL39" s="39"/>
+      <c r="AM39" s="39"/>
+      <c r="AN39" s="39"/>
+      <c r="AO39" s="39"/>
+      <c r="AP39" s="39"/>
+      <c r="AQ39" s="39"/>
+      <c r="AR39" s="39"/>
+      <c r="AS39" s="39"/>
+      <c r="AT39" s="39"/>
+      <c r="AU39" s="39"/>
+      <c r="AV39" s="39"/>
+      <c r="AW39" s="39"/>
+      <c r="AX39" s="39"/>
+      <c r="AY39" s="39"/>
+      <c r="AZ39" s="39"/>
+      <c r="BA39" s="39"/>
+      <c r="BB39" s="39"/>
+      <c r="BC39" s="39"/>
+      <c r="BD39" s="39"/>
+      <c r="BE39" s="39"/>
+      <c r="BF39" s="39"/>
+      <c r="BG39" s="39"/>
+      <c r="BH39" s="39"/>
+      <c r="BI39" s="39"/>
+      <c r="BJ39" s="39"/>
+      <c r="BK39" s="39"/>
+      <c r="BL39" s="39"/>
+      <c r="BM39" s="39"/>
+      <c r="BN39" s="39"/>
+      <c r="BO39" s="39"/>
+      <c r="BP39" s="39"/>
+      <c r="BQ39" s="39"/>
+      <c r="BR39" s="39"/>
+      <c r="BS39" s="39"/>
+      <c r="BT39" s="39"/>
+      <c r="BU39" s="39"/>
+      <c r="BV39" s="39"/>
+      <c r="BW39" s="39"/>
+      <c r="BX39" s="39"/>
+      <c r="BY39" s="39"/>
+      <c r="BZ39" s="39"/>
+      <c r="CA39" s="39"/>
+      <c r="CB39" s="39"/>
+      <c r="CC39" s="39"/>
+      <c r="CD39" s="39"/>
+      <c r="CE39" s="39"/>
+      <c r="CF39" s="39"/>
+      <c r="CG39" s="39"/>
+      <c r="CH39" s="39"/>
+      <c r="CI39" s="39"/>
+      <c r="CJ39" s="39"/>
+      <c r="CK39" s="39"/>
+      <c r="CL39" s="39"/>
+      <c r="CM39" s="39"/>
+      <c r="CN39" s="39"/>
+      <c r="CO39" s="39"/>
+      <c r="CP39" s="39"/>
+      <c r="CQ39" s="39"/>
+      <c r="CR39" s="39"/>
+      <c r="CS39" s="39"/>
+      <c r="CT39" s="39"/>
+      <c r="CU39" s="39"/>
+      <c r="CV39" s="39"/>
+      <c r="CW39" s="39"/>
+      <c r="CX39" s="39"/>
+      <c r="CY39" s="39"/>
+      <c r="CZ39" s="39"/>
+      <c r="DA39" s="39"/>
+      <c r="DB39" s="39"/>
+      <c r="DC39" s="39"/>
+      <c r="DD39" s="39"/>
+      <c r="DE39" s="39"/>
+      <c r="DF39" s="39"/>
+      <c r="DG39" s="39"/>
+      <c r="DH39" s="39"/>
+      <c r="DI39" s="39"/>
+      <c r="DJ39" s="39"/>
+      <c r="DK39" s="39"/>
+      <c r="DL39" s="39"/>
+      <c r="DM39" s="39"/>
+      <c r="DN39" s="39"/>
+      <c r="DO39" s="39"/>
+      <c r="DP39" s="39"/>
+      <c r="DQ39" s="39"/>
+      <c r="DR39" s="39"/>
+      <c r="DS39" s="39"/>
+      <c r="DT39" s="39"/>
+      <c r="DU39" s="39"/>
+      <c r="DV39" s="39"/>
+      <c r="DW39" s="39"/>
+      <c r="DX39" s="39"/>
+      <c r="DY39" s="39"/>
+      <c r="DZ39" s="39"/>
+      <c r="EA39" s="39"/>
+      <c r="EB39" s="39"/>
+      <c r="EC39" s="39"/>
+      <c r="ED39" s="39"/>
+      <c r="EE39" s="39"/>
+      <c r="EF39" s="39"/>
+      <c r="EG39" s="39"/>
+      <c r="EH39" s="39"/>
+      <c r="EI39" s="39"/>
+      <c r="EJ39" s="39"/>
+      <c r="EK39" s="39"/>
+      <c r="EL39" s="39"/>
+      <c r="EM39" s="39"/>
+      <c r="EN39" s="39"/>
+      <c r="EO39" s="39"/>
+      <c r="EP39" s="39"/>
+      <c r="EQ39" s="39"/>
+      <c r="ER39" s="39"/>
+      <c r="ES39" s="39"/>
+      <c r="ET39" s="39"/>
+      <c r="EU39" s="39"/>
+      <c r="EV39" s="39"/>
+      <c r="EW39" s="39"/>
+      <c r="EX39" s="39"/>
+      <c r="EY39" s="39"/>
+      <c r="EZ39" s="39"/>
+      <c r="FA39" s="39"/>
+      <c r="FB39" s="39"/>
+      <c r="FC39" s="39"/>
+      <c r="FD39" s="39"/>
+      <c r="FE39" s="39"/>
+      <c r="FF39" s="39"/>
+      <c r="FG39" s="39"/>
+      <c r="FH39" s="39"/>
+      <c r="FI39" s="39"/>
+      <c r="FJ39" s="39"/>
+      <c r="FK39" s="39"/>
+      <c r="FL39" s="39"/>
+      <c r="FM39" s="39"/>
+      <c r="FN39" s="39"/>
+      <c r="FO39" s="39"/>
+      <c r="FP39" s="39"/>
+      <c r="FQ39" s="39"/>
+      <c r="FR39" s="39"/>
+      <c r="FS39" s="39"/>
+      <c r="FT39" s="39"/>
+      <c r="FU39" s="39"/>
+      <c r="FV39" s="39"/>
+      <c r="FW39" s="39"/>
+      <c r="FX39" s="39"/>
+      <c r="FY39" s="39"/>
+      <c r="FZ39" s="39"/>
+      <c r="GA39" s="39"/>
+    </row>
+    <row r="40" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="63"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17" t="str">
+        <f t="shared" si="137"/>
+        <v/>
+      </c>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="39"/>
+      <c r="AA40" s="39"/>
+      <c r="AB40" s="39"/>
+      <c r="AC40" s="39"/>
+      <c r="AD40" s="39"/>
+      <c r="AE40" s="39"/>
+      <c r="AF40" s="39"/>
+      <c r="AG40" s="39"/>
+      <c r="AH40" s="39"/>
+      <c r="AI40" s="39"/>
+      <c r="AJ40" s="39"/>
+      <c r="AK40" s="39"/>
+      <c r="AL40" s="39"/>
+      <c r="AM40" s="39"/>
+      <c r="AN40" s="39"/>
+      <c r="AO40" s="39"/>
+      <c r="AP40" s="39"/>
+      <c r="AQ40" s="39"/>
+      <c r="AR40" s="39"/>
+      <c r="AS40" s="39"/>
+      <c r="AT40" s="39"/>
+      <c r="AU40" s="39"/>
+      <c r="AV40" s="39"/>
+      <c r="AW40" s="39"/>
+      <c r="AX40" s="39"/>
+      <c r="AY40" s="39"/>
+      <c r="AZ40" s="39"/>
+      <c r="BA40" s="39"/>
+      <c r="BB40" s="39"/>
+      <c r="BC40" s="39"/>
+      <c r="BD40" s="39"/>
+      <c r="BE40" s="39"/>
+      <c r="BF40" s="39"/>
+      <c r="BG40" s="39"/>
+      <c r="BH40" s="39"/>
+      <c r="BI40" s="39"/>
+      <c r="BJ40" s="39"/>
+      <c r="BK40" s="39"/>
+      <c r="BL40" s="39"/>
+      <c r="BM40" s="39"/>
+      <c r="BN40" s="39"/>
+      <c r="BO40" s="39"/>
+      <c r="BP40" s="39"/>
+      <c r="BQ40" s="39"/>
+      <c r="BR40" s="39"/>
+      <c r="BS40" s="39"/>
+      <c r="BT40" s="39"/>
+      <c r="BU40" s="39"/>
+      <c r="BV40" s="39"/>
+      <c r="BW40" s="39"/>
+      <c r="BX40" s="39"/>
+      <c r="BY40" s="39"/>
+      <c r="BZ40" s="39"/>
+      <c r="CA40" s="39"/>
+      <c r="CB40" s="39"/>
+      <c r="CC40" s="39"/>
+      <c r="CD40" s="39"/>
+      <c r="CE40" s="39"/>
+      <c r="CF40" s="39"/>
+      <c r="CG40" s="39"/>
+      <c r="CH40" s="39"/>
+      <c r="CI40" s="39"/>
+      <c r="CJ40" s="39"/>
+      <c r="CK40" s="39"/>
+      <c r="CL40" s="39"/>
+      <c r="CM40" s="39"/>
+      <c r="CN40" s="39"/>
+      <c r="CO40" s="39"/>
+      <c r="CP40" s="39"/>
+      <c r="CQ40" s="39"/>
+      <c r="CR40" s="39"/>
+      <c r="CS40" s="39"/>
+      <c r="CT40" s="39"/>
+      <c r="CU40" s="39"/>
+      <c r="CV40" s="39"/>
+      <c r="CW40" s="39"/>
+      <c r="CX40" s="39"/>
+      <c r="CY40" s="39"/>
+      <c r="CZ40" s="39"/>
+      <c r="DA40" s="39"/>
+      <c r="DB40" s="39"/>
+      <c r="DC40" s="39"/>
+      <c r="DD40" s="39"/>
+      <c r="DE40" s="39"/>
+      <c r="DF40" s="39"/>
+      <c r="DG40" s="39"/>
+      <c r="DH40" s="39"/>
+      <c r="DI40" s="39"/>
+      <c r="DJ40" s="39"/>
+      <c r="DK40" s="39"/>
+      <c r="DL40" s="39"/>
+      <c r="DM40" s="39"/>
+      <c r="DN40" s="39"/>
+      <c r="DO40" s="39"/>
+      <c r="DP40" s="39"/>
+      <c r="DQ40" s="39"/>
+      <c r="DR40" s="39"/>
+      <c r="DS40" s="39"/>
+      <c r="DT40" s="39"/>
+      <c r="DU40" s="39"/>
+      <c r="DV40" s="39"/>
+      <c r="DW40" s="39"/>
+      <c r="DX40" s="39"/>
+      <c r="DY40" s="39"/>
+      <c r="DZ40" s="39"/>
+      <c r="EA40" s="39"/>
+      <c r="EB40" s="39"/>
+      <c r="EC40" s="39"/>
+      <c r="ED40" s="39"/>
+      <c r="EE40" s="39"/>
+      <c r="EF40" s="39"/>
+      <c r="EG40" s="39"/>
+      <c r="EH40" s="39"/>
+      <c r="EI40" s="39"/>
+      <c r="EJ40" s="39"/>
+      <c r="EK40" s="39"/>
+      <c r="EL40" s="39"/>
+      <c r="EM40" s="39"/>
+      <c r="EN40" s="39"/>
+      <c r="EO40" s="39"/>
+      <c r="EP40" s="39"/>
+      <c r="EQ40" s="39"/>
+      <c r="ER40" s="39"/>
+      <c r="ES40" s="39"/>
+      <c r="ET40" s="39"/>
+      <c r="EU40" s="39"/>
+      <c r="EV40" s="39"/>
+      <c r="EW40" s="39"/>
+      <c r="EX40" s="39"/>
+      <c r="EY40" s="39"/>
+      <c r="EZ40" s="39"/>
+      <c r="FA40" s="39"/>
+      <c r="FB40" s="39"/>
+      <c r="FC40" s="39"/>
+      <c r="FD40" s="39"/>
+      <c r="FE40" s="39"/>
+      <c r="FF40" s="39"/>
+      <c r="FG40" s="39"/>
+      <c r="FH40" s="39"/>
+      <c r="FI40" s="39"/>
+      <c r="FJ40" s="39"/>
+      <c r="FK40" s="39"/>
+      <c r="FL40" s="39"/>
+      <c r="FM40" s="39"/>
+      <c r="FN40" s="39"/>
+      <c r="FO40" s="39"/>
+      <c r="FP40" s="39"/>
+      <c r="FQ40" s="39"/>
+      <c r="FR40" s="39"/>
+      <c r="FS40" s="39"/>
+      <c r="FT40" s="39"/>
+      <c r="FU40" s="39"/>
+      <c r="FV40" s="39"/>
+      <c r="FW40" s="39"/>
+      <c r="FX40" s="39"/>
+      <c r="FY40" s="39"/>
+      <c r="FZ40" s="39"/>
+      <c r="GA40" s="39"/>
+    </row>
+    <row r="41" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B41" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38" t="str">
-        <f t="shared" si="6"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38" t="str">
+        <f t="shared" si="137"/>
         <v/>
       </c>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="41"/>
-      <c r="Z39" s="41"/>
-      <c r="AA39" s="41"/>
-      <c r="AB39" s="41"/>
-      <c r="AC39" s="41"/>
-      <c r="AD39" s="41"/>
-      <c r="AE39" s="41"/>
-      <c r="AF39" s="41"/>
-      <c r="AG39" s="41"/>
-      <c r="AH39" s="41"/>
-      <c r="AI39" s="41"/>
-      <c r="AJ39" s="41"/>
-      <c r="AK39" s="41"/>
-      <c r="AL39" s="41"/>
-      <c r="AM39" s="41"/>
-      <c r="AN39" s="41"/>
-      <c r="AO39" s="41"/>
-      <c r="AP39" s="41"/>
-      <c r="AQ39" s="41"/>
-      <c r="AR39" s="41"/>
-      <c r="AS39" s="41"/>
-      <c r="AT39" s="41"/>
-      <c r="AU39" s="41"/>
-      <c r="AV39" s="41"/>
-      <c r="AW39" s="41"/>
-      <c r="AX39" s="41"/>
-      <c r="AY39" s="41"/>
-      <c r="AZ39" s="41"/>
-      <c r="BA39" s="41"/>
-      <c r="BB39" s="41"/>
-      <c r="BC39" s="41"/>
-      <c r="BD39" s="41"/>
-      <c r="BE39" s="41"/>
-      <c r="BF39" s="41"/>
-      <c r="BG39" s="41"/>
-      <c r="BH39" s="41"/>
-      <c r="BI39" s="41"/>
-      <c r="BJ39" s="41"/>
-      <c r="BK39" s="41"/>
-      <c r="BL39" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="41"/>
+      <c r="AA41" s="41"/>
+      <c r="AB41" s="41"/>
+      <c r="AC41" s="41"/>
+      <c r="AD41" s="41"/>
+      <c r="AE41" s="41"/>
+      <c r="AF41" s="41"/>
+      <c r="AG41" s="41"/>
+      <c r="AH41" s="41"/>
+      <c r="AI41" s="41"/>
+      <c r="AJ41" s="41"/>
+      <c r="AK41" s="41"/>
+      <c r="AL41" s="41"/>
+      <c r="AM41" s="41"/>
+      <c r="AN41" s="41"/>
+      <c r="AO41" s="41"/>
+      <c r="AP41" s="41"/>
+      <c r="AQ41" s="41"/>
+      <c r="AR41" s="41"/>
+      <c r="AS41" s="41"/>
+      <c r="AT41" s="41"/>
+      <c r="AU41" s="41"/>
+      <c r="AV41" s="41"/>
+      <c r="AW41" s="41"/>
+      <c r="AX41" s="41"/>
+      <c r="AY41" s="41"/>
+      <c r="AZ41" s="41"/>
+      <c r="BA41" s="41"/>
+      <c r="BB41" s="41"/>
+      <c r="BC41" s="41"/>
+      <c r="BD41" s="41"/>
+      <c r="BE41" s="41"/>
+      <c r="BF41" s="41"/>
+      <c r="BG41" s="41"/>
+      <c r="BH41" s="41"/>
+      <c r="BI41" s="41"/>
+      <c r="BJ41" s="41"/>
+      <c r="BK41" s="41"/>
+      <c r="BL41" s="41"/>
+      <c r="BM41" s="41"/>
+      <c r="BN41" s="41"/>
+      <c r="BO41" s="41"/>
+      <c r="BP41" s="41"/>
+      <c r="BQ41" s="41"/>
+      <c r="BR41" s="41"/>
+      <c r="BS41" s="41"/>
+      <c r="BT41" s="41"/>
+      <c r="BU41" s="41"/>
+      <c r="BV41" s="41"/>
+      <c r="BW41" s="41"/>
+      <c r="BX41" s="41"/>
+      <c r="BY41" s="41"/>
+      <c r="BZ41" s="41"/>
+      <c r="CA41" s="41"/>
+      <c r="CB41" s="41"/>
+      <c r="CC41" s="41"/>
+      <c r="CD41" s="41"/>
+      <c r="CE41" s="41"/>
+      <c r="CF41" s="41"/>
+      <c r="CG41" s="41"/>
+      <c r="CH41" s="41"/>
+      <c r="CI41" s="41"/>
+      <c r="CJ41" s="41"/>
+      <c r="CK41" s="41"/>
+      <c r="CL41" s="41"/>
+      <c r="CM41" s="41"/>
+      <c r="CN41" s="41"/>
+      <c r="CO41" s="41"/>
+      <c r="CP41" s="41"/>
+      <c r="CQ41" s="41"/>
+      <c r="CR41" s="41"/>
+      <c r="CS41" s="41"/>
+      <c r="CT41" s="41"/>
+      <c r="CU41" s="41"/>
+      <c r="CV41" s="41"/>
+      <c r="CW41" s="41"/>
+      <c r="CX41" s="41"/>
+      <c r="CY41" s="41"/>
+      <c r="CZ41" s="41"/>
+      <c r="DA41" s="41"/>
+      <c r="DB41" s="41"/>
+      <c r="DC41" s="41"/>
+      <c r="DD41" s="41"/>
+      <c r="DE41" s="41"/>
+      <c r="DF41" s="41"/>
+      <c r="DG41" s="41"/>
+      <c r="DH41" s="41"/>
+      <c r="DI41" s="41"/>
+      <c r="DJ41" s="41"/>
+      <c r="DK41" s="41"/>
+      <c r="DL41" s="41"/>
+      <c r="DM41" s="41"/>
+      <c r="DN41" s="41"/>
+      <c r="DO41" s="41"/>
+      <c r="DP41" s="41"/>
+      <c r="DQ41" s="41"/>
+      <c r="DR41" s="41"/>
+      <c r="DS41" s="41"/>
+      <c r="DT41" s="41"/>
+      <c r="DU41" s="41"/>
+      <c r="DV41" s="41"/>
+      <c r="DW41" s="41"/>
+      <c r="DX41" s="41"/>
+      <c r="DY41" s="41"/>
+      <c r="DZ41" s="41"/>
+      <c r="EA41" s="41"/>
+      <c r="EB41" s="41"/>
+      <c r="EC41" s="41"/>
+      <c r="ED41" s="41"/>
+      <c r="EE41" s="41"/>
+      <c r="EF41" s="41"/>
+      <c r="EG41" s="41"/>
+      <c r="EH41" s="41"/>
+      <c r="EI41" s="41"/>
+      <c r="EJ41" s="41"/>
+      <c r="EK41" s="41"/>
+      <c r="EL41" s="41"/>
+      <c r="EM41" s="41"/>
+      <c r="EN41" s="41"/>
+      <c r="EO41" s="41"/>
+      <c r="EP41" s="41"/>
+      <c r="EQ41" s="41"/>
+      <c r="ER41" s="41"/>
+      <c r="ES41" s="41"/>
+      <c r="ET41" s="41"/>
+      <c r="EU41" s="41"/>
+      <c r="EV41" s="41"/>
+      <c r="EW41" s="41"/>
+      <c r="EX41" s="41"/>
+      <c r="EY41" s="41"/>
+      <c r="EZ41" s="41"/>
+      <c r="FA41" s="41"/>
+      <c r="FB41" s="41"/>
+      <c r="FC41" s="41"/>
+      <c r="FD41" s="41"/>
+      <c r="FE41" s="41"/>
+      <c r="FF41" s="41"/>
+      <c r="FG41" s="41"/>
+      <c r="FH41" s="41"/>
+      <c r="FI41" s="41"/>
+      <c r="FJ41" s="41"/>
+      <c r="FK41" s="41"/>
+      <c r="FL41" s="41"/>
+      <c r="FM41" s="41"/>
+      <c r="FN41" s="41"/>
+      <c r="FO41" s="41"/>
+      <c r="FP41" s="41"/>
+      <c r="FQ41" s="41"/>
+      <c r="FR41" s="41"/>
+      <c r="FS41" s="41"/>
+      <c r="FT41" s="41"/>
+      <c r="FU41" s="41"/>
+      <c r="FV41" s="41"/>
+      <c r="FW41" s="41"/>
+      <c r="FX41" s="41"/>
+      <c r="FY41" s="41"/>
+      <c r="FZ41" s="41"/>
+      <c r="GA41" s="41"/>
     </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="6"/>
+    <row r="42" spans="1:183" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="6"/>
     </row>
-    <row r="41" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="14"/>
-      <c r="F41" s="45"/>
+    <row r="43" spans="1:183" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="14"/>
+      <c r="F43" s="45"/>
     </row>
-    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="15"/>
+    <row r="44" spans="1:183" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="28">
+    <mergeCell ref="FN4:FT4"/>
+    <mergeCell ref="FU4:GA4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="ES4:EY4"/>
+    <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="FG4:FM4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D15:D39 D7">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="D15:D41 D7">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4619,16 +10046,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL39">
-    <cfRule type="expression" dxfId="2" priority="33">
+  <conditionalFormatting sqref="I5:BL30 BM5:GA6 BM8:GA30 I31:GA41">
+    <cfRule type="expression" dxfId="3" priority="34">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL39">
-    <cfRule type="expression" dxfId="1" priority="27">
+  <conditionalFormatting sqref="I7:BL30 BM8:GA30 I31:GA41">
+    <cfRule type="expression" dxfId="2" priority="28">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="29" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4659,7 +10086,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D15:D39 D7</xm:sqref>
+          <xm:sqref>D15:D41 D7</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/docs/GEMSB_Gantt_Chart.xlsx
+++ b/docs/GEMSB_Gantt_Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73FF5E9-789C-4E3C-B7AD-5F38AEACDF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88202C76-0E28-4EF8-BEDB-F8E61CEBFC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
   <si>
     <t>Task 3</t>
   </si>
@@ -266,6 +266,27 @@
   </si>
   <si>
     <t>Reformat welcome page + search</t>
+  </si>
+  <si>
+    <t>Design Public Form</t>
+  </si>
+  <si>
+    <t>Email Notifications</t>
+  </si>
+  <si>
+    <t>Display Applications Table/Confirmation</t>
+  </si>
+  <si>
+    <t>Visual Heatmap Display</t>
+  </si>
+  <si>
+    <t>Clickable Map Features</t>
+  </si>
+  <si>
+    <t>Live Emergency Display</t>
+  </si>
+  <si>
+    <t>Public Facing Heatmap</t>
   </si>
 </sst>
 </file>
@@ -676,7 +697,7 @@
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -904,36 +925,14 @@
     <xf numFmtId="167" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="165" fontId="9" fillId="8" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="12" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -952,19 +951,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -982,18 +969,6 @@
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -1103,15 +1078,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="totalRow" dxfId="11"/>
-      <tableStyleElement type="firstColumn" dxfId="10"/>
-      <tableStyleElement type="lastColumn" dxfId="9"/>
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="secondRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="5"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="totalRow" dxfId="9"/>
+      <tableStyleElement type="firstColumn" dxfId="8"/>
+      <tableStyleElement type="lastColumn" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1470,11 +1445,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:GA44"/>
+  <dimension ref="A1:GA51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z33" sqref="Z33"/>
+      <pane ySplit="6" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1518,23 +1493,23 @@
         <v>26</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="81">
+      <c r="D3" s="82"/>
+      <c r="E3" s="83">
         <v>44844</v>
       </c>
-      <c r="F3" s="81"/>
+      <c r="F3" s="83"/>
     </row>
     <row r="4" spans="1:183" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="83"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
@@ -3304,7 +3279,7 @@
       <c r="F8" s="70"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H41" si="137">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H48" si="137">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="39"/>
@@ -7070,19 +7045,19 @@
     </row>
     <row r="27" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="90" t="s">
+      <c r="C27" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="86">
+      <c r="D27" s="27">
         <v>1</v>
       </c>
-      <c r="E27" s="89">
+      <c r="E27" s="51">
         <v>44935</v>
       </c>
-      <c r="F27" s="89">
+      <c r="F27" s="51">
         <v>44951</v>
       </c>
       <c r="G27" s="17"/>
@@ -7268,19 +7243,19 @@
     </row>
     <row r="28" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="90" t="s">
+      <c r="C28" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="86">
+      <c r="D28" s="27">
         <v>0.5</v>
       </c>
-      <c r="E28" s="89">
+      <c r="E28" s="51">
         <v>44935</v>
       </c>
-      <c r="F28" s="89">
+      <c r="F28" s="51">
         <v>44951</v>
       </c>
       <c r="G28" s="17"/>
@@ -7466,19 +7441,19 @@
     </row>
     <row r="29" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="90" t="s">
+      <c r="C29" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="86">
+      <c r="D29" s="27">
         <v>0.5</v>
       </c>
-      <c r="E29" s="89">
+      <c r="E29" s="51">
         <v>44935</v>
       </c>
-      <c r="F29" s="89">
+      <c r="F29" s="51">
         <v>44951</v>
       </c>
       <c r="G29" s="17"/>
@@ -7671,12 +7646,12 @@
         <v>32</v>
       </c>
       <c r="D30" s="27">
-        <v>0.3</v>
-      </c>
-      <c r="E30" s="89">
+        <v>1</v>
+      </c>
+      <c r="E30" s="51">
         <v>44935</v>
       </c>
-      <c r="F30" s="89">
+      <c r="F30" s="51">
         <v>44951</v>
       </c>
       <c r="G30" s="17"/>
@@ -7860,416 +7835,418 @@
       <c r="FZ30" s="39"/>
       <c r="GA30" s="39"/>
     </row>
-    <row r="31" spans="1:183" s="84" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="88"/>
-      <c r="B31" s="91" t="s">
+    <row r="31" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="43"/>
+      <c r="B31" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="90" t="s">
+      <c r="C31" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="86">
-        <v>0.2</v>
-      </c>
-      <c r="E31" s="89">
+      <c r="D31" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="51">
         <v>44942</v>
       </c>
-      <c r="F31" s="89">
+      <c r="F31" s="51">
         <v>44959</v>
       </c>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85">
+      <c r="G31" s="17"/>
+      <c r="H31" s="17">
         <f t="shared" si="137"/>
         <v>18</v>
       </c>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="87"/>
-      <c r="T31" s="87"/>
-      <c r="U31" s="87"/>
-      <c r="V31" s="87"/>
-      <c r="W31" s="87"/>
-      <c r="X31" s="87"/>
-      <c r="Y31" s="87"/>
-      <c r="Z31" s="87"/>
-      <c r="AA31" s="87"/>
-      <c r="AB31" s="87"/>
-      <c r="AC31" s="87"/>
-      <c r="AD31" s="87"/>
-      <c r="AE31" s="87"/>
-      <c r="AF31" s="87"/>
-      <c r="AG31" s="87"/>
-      <c r="AH31" s="87"/>
-      <c r="AI31" s="87"/>
-      <c r="AJ31" s="87"/>
-      <c r="AK31" s="87"/>
-      <c r="AL31" s="87"/>
-      <c r="AM31" s="87"/>
-      <c r="AN31" s="87"/>
-      <c r="AO31" s="87"/>
-      <c r="AP31" s="87"/>
-      <c r="AQ31" s="87"/>
-      <c r="AR31" s="87"/>
-      <c r="AS31" s="87"/>
-      <c r="AT31" s="87"/>
-      <c r="AU31" s="87"/>
-      <c r="AV31" s="87"/>
-      <c r="AW31" s="87"/>
-      <c r="AX31" s="87"/>
-      <c r="AY31" s="87"/>
-      <c r="AZ31" s="87"/>
-      <c r="BA31" s="87"/>
-      <c r="BB31" s="87"/>
-      <c r="BC31" s="87"/>
-      <c r="BD31" s="87"/>
-      <c r="BE31" s="87"/>
-      <c r="BF31" s="87"/>
-      <c r="BG31" s="87"/>
-      <c r="BH31" s="87"/>
-      <c r="BI31" s="87"/>
-      <c r="BJ31" s="87"/>
-      <c r="BK31" s="87"/>
-      <c r="BL31" s="87"/>
-      <c r="BM31" s="87"/>
-      <c r="BN31" s="87"/>
-      <c r="BO31" s="87"/>
-      <c r="BP31" s="87"/>
-      <c r="BQ31" s="87"/>
-      <c r="BR31" s="87"/>
-      <c r="BS31" s="87"/>
-      <c r="BT31" s="87"/>
-      <c r="BU31" s="87"/>
-      <c r="BV31" s="87"/>
-      <c r="BW31" s="87"/>
-      <c r="BX31" s="87"/>
-      <c r="BY31" s="87"/>
-      <c r="BZ31" s="87"/>
-      <c r="CA31" s="87"/>
-      <c r="CB31" s="87"/>
-      <c r="CC31" s="87"/>
-      <c r="CD31" s="87"/>
-      <c r="CE31" s="87"/>
-      <c r="CF31" s="87"/>
-      <c r="CG31" s="87"/>
-      <c r="CH31" s="87"/>
-      <c r="CI31" s="87"/>
-      <c r="CJ31" s="87"/>
-      <c r="CK31" s="87"/>
-      <c r="CL31" s="87"/>
-      <c r="CM31" s="87"/>
-      <c r="CN31" s="87"/>
-      <c r="CO31" s="87"/>
-      <c r="CP31" s="87"/>
-      <c r="CQ31" s="87"/>
-      <c r="CR31" s="87"/>
-      <c r="CS31" s="87"/>
-      <c r="CT31" s="87"/>
-      <c r="CU31" s="87"/>
-      <c r="CV31" s="87"/>
-      <c r="CW31" s="87"/>
-      <c r="CX31" s="87"/>
-      <c r="CY31" s="87"/>
-      <c r="CZ31" s="87"/>
-      <c r="DA31" s="87"/>
-      <c r="DB31" s="87"/>
-      <c r="DC31" s="87"/>
-      <c r="DD31" s="87"/>
-      <c r="DE31" s="87"/>
-      <c r="DF31" s="87"/>
-      <c r="DG31" s="87"/>
-      <c r="DH31" s="87"/>
-      <c r="DI31" s="87"/>
-      <c r="DJ31" s="87"/>
-      <c r="DK31" s="87"/>
-      <c r="DL31" s="87"/>
-      <c r="DM31" s="87"/>
-      <c r="DN31" s="87"/>
-      <c r="DO31" s="87"/>
-      <c r="DP31" s="87"/>
-      <c r="DQ31" s="87"/>
-      <c r="DR31" s="87"/>
-      <c r="DS31" s="87"/>
-      <c r="DT31" s="87"/>
-      <c r="DU31" s="87"/>
-      <c r="DV31" s="87"/>
-      <c r="DW31" s="87"/>
-      <c r="DX31" s="87"/>
-      <c r="DY31" s="87"/>
-      <c r="DZ31" s="87"/>
-      <c r="EA31" s="87"/>
-      <c r="EB31" s="87"/>
-      <c r="EC31" s="87"/>
-      <c r="ED31" s="87"/>
-      <c r="EE31" s="87"/>
-      <c r="EF31" s="87"/>
-      <c r="EG31" s="87"/>
-      <c r="EH31" s="87"/>
-      <c r="EI31" s="87"/>
-      <c r="EJ31" s="87"/>
-      <c r="EK31" s="87"/>
-      <c r="EL31" s="87"/>
-      <c r="EM31" s="87"/>
-      <c r="EN31" s="87"/>
-      <c r="EO31" s="87"/>
-      <c r="EP31" s="87"/>
-      <c r="EQ31" s="87"/>
-      <c r="ER31" s="87"/>
-      <c r="ES31" s="87"/>
-      <c r="ET31" s="87"/>
-      <c r="EU31" s="87"/>
-      <c r="EV31" s="87"/>
-      <c r="EW31" s="87"/>
-      <c r="EX31" s="87"/>
-      <c r="EY31" s="87"/>
-      <c r="EZ31" s="87"/>
-      <c r="FA31" s="87"/>
-      <c r="FB31" s="87"/>
-      <c r="FC31" s="87"/>
-      <c r="FD31" s="87"/>
-      <c r="FE31" s="87"/>
-      <c r="FF31" s="87"/>
-      <c r="FG31" s="87"/>
-      <c r="FH31" s="87"/>
-      <c r="FI31" s="87"/>
-      <c r="FJ31" s="87"/>
-      <c r="FK31" s="87"/>
-      <c r="FL31" s="87"/>
-      <c r="FM31" s="87"/>
-      <c r="FN31" s="87"/>
-      <c r="FO31" s="87"/>
-      <c r="FP31" s="87"/>
-      <c r="FQ31" s="87"/>
-      <c r="FR31" s="87"/>
-      <c r="FS31" s="87"/>
-      <c r="FT31" s="87"/>
-      <c r="FU31" s="87"/>
-      <c r="FV31" s="87"/>
-      <c r="FW31" s="87"/>
-      <c r="FX31" s="87"/>
-      <c r="FY31" s="87"/>
-      <c r="FZ31" s="87"/>
-      <c r="GA31" s="87"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="39"/>
+      <c r="AF31" s="39"/>
+      <c r="AG31" s="39"/>
+      <c r="AH31" s="39"/>
+      <c r="AI31" s="39"/>
+      <c r="AJ31" s="39"/>
+      <c r="AK31" s="39"/>
+      <c r="AL31" s="39"/>
+      <c r="AM31" s="39"/>
+      <c r="AN31" s="39"/>
+      <c r="AO31" s="39"/>
+      <c r="AP31" s="39"/>
+      <c r="AQ31" s="39"/>
+      <c r="AR31" s="39"/>
+      <c r="AS31" s="39"/>
+      <c r="AT31" s="39"/>
+      <c r="AU31" s="39"/>
+      <c r="AV31" s="39"/>
+      <c r="AW31" s="39"/>
+      <c r="AX31" s="39"/>
+      <c r="AY31" s="39"/>
+      <c r="AZ31" s="39"/>
+      <c r="BA31" s="39"/>
+      <c r="BB31" s="39"/>
+      <c r="BC31" s="39"/>
+      <c r="BD31" s="39"/>
+      <c r="BE31" s="39"/>
+      <c r="BF31" s="39"/>
+      <c r="BG31" s="39"/>
+      <c r="BH31" s="39"/>
+      <c r="BI31" s="39"/>
+      <c r="BJ31" s="39"/>
+      <c r="BK31" s="39"/>
+      <c r="BL31" s="39"/>
+      <c r="BM31" s="39"/>
+      <c r="BN31" s="39"/>
+      <c r="BO31" s="39"/>
+      <c r="BP31" s="39"/>
+      <c r="BQ31" s="39"/>
+      <c r="BR31" s="39"/>
+      <c r="BS31" s="39"/>
+      <c r="BT31" s="39"/>
+      <c r="BU31" s="39"/>
+      <c r="BV31" s="39"/>
+      <c r="BW31" s="39"/>
+      <c r="BX31" s="39"/>
+      <c r="BY31" s="39"/>
+      <c r="BZ31" s="39"/>
+      <c r="CA31" s="39"/>
+      <c r="CB31" s="39"/>
+      <c r="CC31" s="39"/>
+      <c r="CD31" s="39"/>
+      <c r="CE31" s="39"/>
+      <c r="CF31" s="39"/>
+      <c r="CG31" s="39"/>
+      <c r="CH31" s="39"/>
+      <c r="CI31" s="39"/>
+      <c r="CJ31" s="39"/>
+      <c r="CK31" s="39"/>
+      <c r="CL31" s="39"/>
+      <c r="CM31" s="39"/>
+      <c r="CN31" s="39"/>
+      <c r="CO31" s="39"/>
+      <c r="CP31" s="39"/>
+      <c r="CQ31" s="39"/>
+      <c r="CR31" s="39"/>
+      <c r="CS31" s="39"/>
+      <c r="CT31" s="39"/>
+      <c r="CU31" s="39"/>
+      <c r="CV31" s="39"/>
+      <c r="CW31" s="39"/>
+      <c r="CX31" s="39"/>
+      <c r="CY31" s="39"/>
+      <c r="CZ31" s="39"/>
+      <c r="DA31" s="39"/>
+      <c r="DB31" s="39"/>
+      <c r="DC31" s="39"/>
+      <c r="DD31" s="39"/>
+      <c r="DE31" s="39"/>
+      <c r="DF31" s="39"/>
+      <c r="DG31" s="39"/>
+      <c r="DH31" s="39"/>
+      <c r="DI31" s="39"/>
+      <c r="DJ31" s="39"/>
+      <c r="DK31" s="39"/>
+      <c r="DL31" s="39"/>
+      <c r="DM31" s="39"/>
+      <c r="DN31" s="39"/>
+      <c r="DO31" s="39"/>
+      <c r="DP31" s="39"/>
+      <c r="DQ31" s="39"/>
+      <c r="DR31" s="39"/>
+      <c r="DS31" s="39"/>
+      <c r="DT31" s="39"/>
+      <c r="DU31" s="39"/>
+      <c r="DV31" s="39"/>
+      <c r="DW31" s="39"/>
+      <c r="DX31" s="39"/>
+      <c r="DY31" s="39"/>
+      <c r="DZ31" s="39"/>
+      <c r="EA31" s="39"/>
+      <c r="EB31" s="39"/>
+      <c r="EC31" s="39"/>
+      <c r="ED31" s="39"/>
+      <c r="EE31" s="39"/>
+      <c r="EF31" s="39"/>
+      <c r="EG31" s="39"/>
+      <c r="EH31" s="39"/>
+      <c r="EI31" s="39"/>
+      <c r="EJ31" s="39"/>
+      <c r="EK31" s="39"/>
+      <c r="EL31" s="39"/>
+      <c r="EM31" s="39"/>
+      <c r="EN31" s="39"/>
+      <c r="EO31" s="39"/>
+      <c r="EP31" s="39"/>
+      <c r="EQ31" s="39"/>
+      <c r="ER31" s="39"/>
+      <c r="ES31" s="39"/>
+      <c r="ET31" s="39"/>
+      <c r="EU31" s="39"/>
+      <c r="EV31" s="39"/>
+      <c r="EW31" s="39"/>
+      <c r="EX31" s="39"/>
+      <c r="EY31" s="39"/>
+      <c r="EZ31" s="39"/>
+      <c r="FA31" s="39"/>
+      <c r="FB31" s="39"/>
+      <c r="FC31" s="39"/>
+      <c r="FD31" s="39"/>
+      <c r="FE31" s="39"/>
+      <c r="FF31" s="39"/>
+      <c r="FG31" s="39"/>
+      <c r="FH31" s="39"/>
+      <c r="FI31" s="39"/>
+      <c r="FJ31" s="39"/>
+      <c r="FK31" s="39"/>
+      <c r="FL31" s="39"/>
+      <c r="FM31" s="39"/>
+      <c r="FN31" s="39"/>
+      <c r="FO31" s="39"/>
+      <c r="FP31" s="39"/>
+      <c r="FQ31" s="39"/>
+      <c r="FR31" s="39"/>
+      <c r="FS31" s="39"/>
+      <c r="FT31" s="39"/>
+      <c r="FU31" s="39"/>
+      <c r="FV31" s="39"/>
+      <c r="FW31" s="39"/>
+      <c r="FX31" s="39"/>
+      <c r="FY31" s="39"/>
+      <c r="FZ31" s="39"/>
+      <c r="GA31" s="39"/>
     </row>
-    <row r="32" spans="1:183" s="84" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="88"/>
-      <c r="B32" s="91" t="s">
+    <row r="32" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="43"/>
+      <c r="B32" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="90" t="s">
+      <c r="C32" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="86">
-        <v>0.2</v>
-      </c>
-      <c r="E32" s="89">
+      <c r="D32" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="51">
         <v>44942</v>
       </c>
-      <c r="F32" s="89">
+      <c r="F32" s="51">
         <v>44959</v>
       </c>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="87"/>
-      <c r="R32" s="87"/>
-      <c r="S32" s="87"/>
-      <c r="T32" s="87"/>
-      <c r="U32" s="87"/>
-      <c r="V32" s="87"/>
-      <c r="W32" s="87"/>
-      <c r="X32" s="87"/>
-      <c r="Y32" s="87"/>
-      <c r="Z32" s="87"/>
-      <c r="AA32" s="87"/>
-      <c r="AB32" s="87"/>
-      <c r="AC32" s="87"/>
-      <c r="AD32" s="87"/>
-      <c r="AE32" s="87"/>
-      <c r="AF32" s="87"/>
-      <c r="AG32" s="87"/>
-      <c r="AH32" s="87"/>
-      <c r="AI32" s="87"/>
-      <c r="AJ32" s="87"/>
-      <c r="AK32" s="87"/>
-      <c r="AL32" s="87"/>
-      <c r="AM32" s="87"/>
-      <c r="AN32" s="87"/>
-      <c r="AO32" s="87"/>
-      <c r="AP32" s="87"/>
-      <c r="AQ32" s="87"/>
-      <c r="AR32" s="87"/>
-      <c r="AS32" s="87"/>
-      <c r="AT32" s="87"/>
-      <c r="AU32" s="87"/>
-      <c r="AV32" s="87"/>
-      <c r="AW32" s="87"/>
-      <c r="AX32" s="87"/>
-      <c r="AY32" s="87"/>
-      <c r="AZ32" s="87"/>
-      <c r="BA32" s="87"/>
-      <c r="BB32" s="87"/>
-      <c r="BC32" s="87"/>
-      <c r="BD32" s="87"/>
-      <c r="BE32" s="87"/>
-      <c r="BF32" s="87"/>
-      <c r="BG32" s="87"/>
-      <c r="BH32" s="87"/>
-      <c r="BI32" s="87"/>
-      <c r="BJ32" s="87"/>
-      <c r="BK32" s="87"/>
-      <c r="BL32" s="87"/>
-      <c r="BM32" s="87"/>
-      <c r="BN32" s="87"/>
-      <c r="BO32" s="87"/>
-      <c r="BP32" s="87"/>
-      <c r="BQ32" s="87"/>
-      <c r="BR32" s="87"/>
-      <c r="BS32" s="87"/>
-      <c r="BT32" s="87"/>
-      <c r="BU32" s="87"/>
-      <c r="BV32" s="87"/>
-      <c r="BW32" s="87"/>
-      <c r="BX32" s="87"/>
-      <c r="BY32" s="87"/>
-      <c r="BZ32" s="87"/>
-      <c r="CA32" s="87"/>
-      <c r="CB32" s="87"/>
-      <c r="CC32" s="87"/>
-      <c r="CD32" s="87"/>
-      <c r="CE32" s="87"/>
-      <c r="CF32" s="87"/>
-      <c r="CG32" s="87"/>
-      <c r="CH32" s="87"/>
-      <c r="CI32" s="87"/>
-      <c r="CJ32" s="87"/>
-      <c r="CK32" s="87"/>
-      <c r="CL32" s="87"/>
-      <c r="CM32" s="87"/>
-      <c r="CN32" s="87"/>
-      <c r="CO32" s="87"/>
-      <c r="CP32" s="87"/>
-      <c r="CQ32" s="87"/>
-      <c r="CR32" s="87"/>
-      <c r="CS32" s="87"/>
-      <c r="CT32" s="87"/>
-      <c r="CU32" s="87"/>
-      <c r="CV32" s="87"/>
-      <c r="CW32" s="87"/>
-      <c r="CX32" s="87"/>
-      <c r="CY32" s="87"/>
-      <c r="CZ32" s="87"/>
-      <c r="DA32" s="87"/>
-      <c r="DB32" s="87"/>
-      <c r="DC32" s="87"/>
-      <c r="DD32" s="87"/>
-      <c r="DE32" s="87"/>
-      <c r="DF32" s="87"/>
-      <c r="DG32" s="87"/>
-      <c r="DH32" s="87"/>
-      <c r="DI32" s="87"/>
-      <c r="DJ32" s="87"/>
-      <c r="DK32" s="87"/>
-      <c r="DL32" s="87"/>
-      <c r="DM32" s="87"/>
-      <c r="DN32" s="87"/>
-      <c r="DO32" s="87"/>
-      <c r="DP32" s="87"/>
-      <c r="DQ32" s="87"/>
-      <c r="DR32" s="87"/>
-      <c r="DS32" s="87"/>
-      <c r="DT32" s="87"/>
-      <c r="DU32" s="87"/>
-      <c r="DV32" s="87"/>
-      <c r="DW32" s="87"/>
-      <c r="DX32" s="87"/>
-      <c r="DY32" s="87"/>
-      <c r="DZ32" s="87"/>
-      <c r="EA32" s="87"/>
-      <c r="EB32" s="87"/>
-      <c r="EC32" s="87"/>
-      <c r="ED32" s="87"/>
-      <c r="EE32" s="87"/>
-      <c r="EF32" s="87"/>
-      <c r="EG32" s="87"/>
-      <c r="EH32" s="87"/>
-      <c r="EI32" s="87"/>
-      <c r="EJ32" s="87"/>
-      <c r="EK32" s="87"/>
-      <c r="EL32" s="87"/>
-      <c r="EM32" s="87"/>
-      <c r="EN32" s="87"/>
-      <c r="EO32" s="87"/>
-      <c r="EP32" s="87"/>
-      <c r="EQ32" s="87"/>
-      <c r="ER32" s="87"/>
-      <c r="ES32" s="87"/>
-      <c r="ET32" s="87"/>
-      <c r="EU32" s="87"/>
-      <c r="EV32" s="87"/>
-      <c r="EW32" s="87"/>
-      <c r="EX32" s="87"/>
-      <c r="EY32" s="87"/>
-      <c r="EZ32" s="87"/>
-      <c r="FA32" s="87"/>
-      <c r="FB32" s="87"/>
-      <c r="FC32" s="87"/>
-      <c r="FD32" s="87"/>
-      <c r="FE32" s="87"/>
-      <c r="FF32" s="87"/>
-      <c r="FG32" s="87"/>
-      <c r="FH32" s="87"/>
-      <c r="FI32" s="87"/>
-      <c r="FJ32" s="87"/>
-      <c r="FK32" s="87"/>
-      <c r="FL32" s="87"/>
-      <c r="FM32" s="87"/>
-      <c r="FN32" s="87"/>
-      <c r="FO32" s="87"/>
-      <c r="FP32" s="87"/>
-      <c r="FQ32" s="87"/>
-      <c r="FR32" s="87"/>
-      <c r="FS32" s="87"/>
-      <c r="FT32" s="87"/>
-      <c r="FU32" s="87"/>
-      <c r="FV32" s="87"/>
-      <c r="FW32" s="87"/>
-      <c r="FX32" s="87"/>
-      <c r="FY32" s="87"/>
-      <c r="FZ32" s="87"/>
-      <c r="GA32" s="87"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="39"/>
+      <c r="AF32" s="39"/>
+      <c r="AG32" s="39"/>
+      <c r="AH32" s="39"/>
+      <c r="AI32" s="39"/>
+      <c r="AJ32" s="39"/>
+      <c r="AK32" s="39"/>
+      <c r="AL32" s="39"/>
+      <c r="AM32" s="39"/>
+      <c r="AN32" s="39"/>
+      <c r="AO32" s="39"/>
+      <c r="AP32" s="39"/>
+      <c r="AQ32" s="39"/>
+      <c r="AR32" s="39"/>
+      <c r="AS32" s="39"/>
+      <c r="AT32" s="39"/>
+      <c r="AU32" s="39"/>
+      <c r="AV32" s="39"/>
+      <c r="AW32" s="39"/>
+      <c r="AX32" s="39"/>
+      <c r="AY32" s="39"/>
+      <c r="AZ32" s="39"/>
+      <c r="BA32" s="39"/>
+      <c r="BB32" s="39"/>
+      <c r="BC32" s="39"/>
+      <c r="BD32" s="39"/>
+      <c r="BE32" s="39"/>
+      <c r="BF32" s="39"/>
+      <c r="BG32" s="39"/>
+      <c r="BH32" s="39"/>
+      <c r="BI32" s="39"/>
+      <c r="BJ32" s="39"/>
+      <c r="BK32" s="39"/>
+      <c r="BL32" s="39"/>
+      <c r="BM32" s="39"/>
+      <c r="BN32" s="39"/>
+      <c r="BO32" s="39"/>
+      <c r="BP32" s="39"/>
+      <c r="BQ32" s="39"/>
+      <c r="BR32" s="39"/>
+      <c r="BS32" s="39"/>
+      <c r="BT32" s="39"/>
+      <c r="BU32" s="39"/>
+      <c r="BV32" s="39"/>
+      <c r="BW32" s="39"/>
+      <c r="BX32" s="39"/>
+      <c r="BY32" s="39"/>
+      <c r="BZ32" s="39"/>
+      <c r="CA32" s="39"/>
+      <c r="CB32" s="39"/>
+      <c r="CC32" s="39"/>
+      <c r="CD32" s="39"/>
+      <c r="CE32" s="39"/>
+      <c r="CF32" s="39"/>
+      <c r="CG32" s="39"/>
+      <c r="CH32" s="39"/>
+      <c r="CI32" s="39"/>
+      <c r="CJ32" s="39"/>
+      <c r="CK32" s="39"/>
+      <c r="CL32" s="39"/>
+      <c r="CM32" s="39"/>
+      <c r="CN32" s="39"/>
+      <c r="CO32" s="39"/>
+      <c r="CP32" s="39"/>
+      <c r="CQ32" s="39"/>
+      <c r="CR32" s="39"/>
+      <c r="CS32" s="39"/>
+      <c r="CT32" s="39"/>
+      <c r="CU32" s="39"/>
+      <c r="CV32" s="39"/>
+      <c r="CW32" s="39"/>
+      <c r="CX32" s="39"/>
+      <c r="CY32" s="39"/>
+      <c r="CZ32" s="39"/>
+      <c r="DA32" s="39"/>
+      <c r="DB32" s="39"/>
+      <c r="DC32" s="39"/>
+      <c r="DD32" s="39"/>
+      <c r="DE32" s="39"/>
+      <c r="DF32" s="39"/>
+      <c r="DG32" s="39"/>
+      <c r="DH32" s="39"/>
+      <c r="DI32" s="39"/>
+      <c r="DJ32" s="39"/>
+      <c r="DK32" s="39"/>
+      <c r="DL32" s="39"/>
+      <c r="DM32" s="39"/>
+      <c r="DN32" s="39"/>
+      <c r="DO32" s="39"/>
+      <c r="DP32" s="39"/>
+      <c r="DQ32" s="39"/>
+      <c r="DR32" s="39"/>
+      <c r="DS32" s="39"/>
+      <c r="DT32" s="39"/>
+      <c r="DU32" s="39"/>
+      <c r="DV32" s="39"/>
+      <c r="DW32" s="39"/>
+      <c r="DX32" s="39"/>
+      <c r="DY32" s="39"/>
+      <c r="DZ32" s="39"/>
+      <c r="EA32" s="39"/>
+      <c r="EB32" s="39"/>
+      <c r="EC32" s="39"/>
+      <c r="ED32" s="39"/>
+      <c r="EE32" s="39"/>
+      <c r="EF32" s="39"/>
+      <c r="EG32" s="39"/>
+      <c r="EH32" s="39"/>
+      <c r="EI32" s="39"/>
+      <c r="EJ32" s="39"/>
+      <c r="EK32" s="39"/>
+      <c r="EL32" s="39"/>
+      <c r="EM32" s="39"/>
+      <c r="EN32" s="39"/>
+      <c r="EO32" s="39"/>
+      <c r="EP32" s="39"/>
+      <c r="EQ32" s="39"/>
+      <c r="ER32" s="39"/>
+      <c r="ES32" s="39"/>
+      <c r="ET32" s="39"/>
+      <c r="EU32" s="39"/>
+      <c r="EV32" s="39"/>
+      <c r="EW32" s="39"/>
+      <c r="EX32" s="39"/>
+      <c r="EY32" s="39"/>
+      <c r="EZ32" s="39"/>
+      <c r="FA32" s="39"/>
+      <c r="FB32" s="39"/>
+      <c r="FC32" s="39"/>
+      <c r="FD32" s="39"/>
+      <c r="FE32" s="39"/>
+      <c r="FF32" s="39"/>
+      <c r="FG32" s="39"/>
+      <c r="FH32" s="39"/>
+      <c r="FI32" s="39"/>
+      <c r="FJ32" s="39"/>
+      <c r="FK32" s="39"/>
+      <c r="FL32" s="39"/>
+      <c r="FM32" s="39"/>
+      <c r="FN32" s="39"/>
+      <c r="FO32" s="39"/>
+      <c r="FP32" s="39"/>
+      <c r="FQ32" s="39"/>
+      <c r="FR32" s="39"/>
+      <c r="FS32" s="39"/>
+      <c r="FT32" s="39"/>
+      <c r="FU32" s="39"/>
+      <c r="FV32" s="39"/>
+      <c r="FW32" s="39"/>
+      <c r="FX32" s="39"/>
+      <c r="FY32" s="39"/>
+      <c r="FZ32" s="39"/>
+      <c r="GA32" s="39"/>
     </row>
     <row r="33" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
       <c r="B33" s="61" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="C33" s="56"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="51" t="s">
-        <v>15</v>
+      <c r="D33" s="27">
+        <v>0</v>
+      </c>
+      <c r="E33" s="51">
+        <v>44949</v>
+      </c>
+      <c r="F33" s="51">
+        <v>44956</v>
       </c>
       <c r="G33" s="17"/>
-      <c r="H33" s="17" t="e">
+      <c r="H33" s="17">
         <f t="shared" si="137"/>
-        <v>#VALUE!</v>
+        <v>8</v>
       </c>
       <c r="I33" s="39"/>
       <c r="J33" s="39"/>
@@ -8448,20 +8425,24 @@
       <c r="GA33" s="39"/>
     </row>
     <row r="34" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="56"/>
+      <c r="D34" s="27">
+        <v>0</v>
+      </c>
+      <c r="E34" s="51">
+        <v>44949</v>
+      </c>
+      <c r="F34" s="51">
+        <v>44956</v>
+      </c>
       <c r="G34" s="17"/>
-      <c r="H34" s="17" t="str">
+      <c r="H34" s="17">
         <f t="shared" si="137"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="I34" s="39"/>
       <c r="J34" s="39"/>
@@ -8641,21 +8622,23 @@
     </row>
     <row r="35" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="43"/>
-      <c r="B35" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="51" t="s">
-        <v>15</v>
+      <c r="B35" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="56"/>
+      <c r="D35" s="27">
+        <v>0</v>
+      </c>
+      <c r="E35" s="51">
+        <v>44949</v>
+      </c>
+      <c r="F35" s="51">
+        <v>44965</v>
       </c>
       <c r="G35" s="17"/>
-      <c r="H35" s="17" t="e">
+      <c r="H35" s="17">
         <f t="shared" si="137"/>
-        <v>#VALUE!</v>
+        <v>17</v>
       </c>
       <c r="I35" s="39"/>
       <c r="J35" s="39"/>
@@ -8835,21 +8818,23 @@
     </row>
     <row r="36" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="43"/>
-      <c r="B36" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="51" t="s">
-        <v>15</v>
+      <c r="B36" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="56"/>
+      <c r="D36" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="E36" s="51">
+        <v>44949</v>
+      </c>
+      <c r="F36" s="51">
+        <v>44972</v>
       </c>
       <c r="G36" s="17"/>
-      <c r="H36" s="17" t="e">
+      <c r="H36" s="17">
         <f t="shared" si="137"/>
-        <v>#VALUE!</v>
+        <v>24</v>
       </c>
       <c r="I36" s="39"/>
       <c r="J36" s="39"/>
@@ -9029,21 +9014,23 @@
     </row>
     <row r="37" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="43"/>
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="56"/>
+      <c r="D37" s="27">
         <v>0</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="51" t="s">
-        <v>15</v>
+      <c r="E37" s="51">
+        <v>44949</v>
+      </c>
+      <c r="F37" s="51">
+        <v>44972</v>
       </c>
       <c r="G37" s="17"/>
-      <c r="H37" s="17" t="e">
+      <c r="H37" s="17">
         <f t="shared" si="137"/>
-        <v>#VALUE!</v>
+        <v>24</v>
       </c>
       <c r="I37" s="39"/>
       <c r="J37" s="39"/>
@@ -9223,21 +9210,23 @@
     </row>
     <row r="38" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="43"/>
-      <c r="B38" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="51" t="s">
-        <v>15</v>
+      <c r="B38" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="56"/>
+      <c r="D38" s="27">
+        <v>0</v>
+      </c>
+      <c r="E38" s="51">
+        <v>44949</v>
+      </c>
+      <c r="F38" s="51">
+        <v>44979</v>
       </c>
       <c r="G38" s="17"/>
-      <c r="H38" s="17" t="e">
+      <c r="H38" s="17">
         <f t="shared" si="137"/>
-        <v>#VALUE!</v>
+        <v>31</v>
       </c>
       <c r="I38" s="39"/>
       <c r="J38" s="39"/>
@@ -9417,21 +9406,23 @@
     </row>
     <row r="39" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
-      <c r="B39" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="51" t="s">
-        <v>15</v>
+      <c r="B39" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="56"/>
+      <c r="D39" s="27">
+        <v>0</v>
+      </c>
+      <c r="E39" s="51">
+        <v>44949</v>
+      </c>
+      <c r="F39" s="51">
+        <v>44979</v>
       </c>
       <c r="G39" s="17"/>
-      <c r="H39" s="17" t="e">
+      <c r="H39" s="17">
         <f t="shared" si="137"/>
-        <v>#VALUE!</v>
+        <v>31</v>
       </c>
       <c r="I39" s="39"/>
       <c r="J39" s="39"/>
@@ -9610,19 +9601,14 @@
       <c r="GA39" s="39"/>
     </row>
     <row r="40" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="63"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="17" t="str">
-        <f t="shared" si="137"/>
-        <v/>
-      </c>
+      <c r="H40" s="17"/>
       <c r="I40" s="39"/>
       <c r="J40" s="39"/>
       <c r="K40" s="39"/>
@@ -9800,209 +9786,1582 @@
       <c r="GA40" s="39"/>
     </row>
     <row r="41" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38" t="str">
+      <c r="A41" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="57"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17" t="str">
         <f t="shared" si="137"/>
         <v/>
       </c>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="41"/>
-      <c r="V41" s="41"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="41"/>
-      <c r="Y41" s="41"/>
-      <c r="Z41" s="41"/>
-      <c r="AA41" s="41"/>
-      <c r="AB41" s="41"/>
-      <c r="AC41" s="41"/>
-      <c r="AD41" s="41"/>
-      <c r="AE41" s="41"/>
-      <c r="AF41" s="41"/>
-      <c r="AG41" s="41"/>
-      <c r="AH41" s="41"/>
-      <c r="AI41" s="41"/>
-      <c r="AJ41" s="41"/>
-      <c r="AK41" s="41"/>
-      <c r="AL41" s="41"/>
-      <c r="AM41" s="41"/>
-      <c r="AN41" s="41"/>
-      <c r="AO41" s="41"/>
-      <c r="AP41" s="41"/>
-      <c r="AQ41" s="41"/>
-      <c r="AR41" s="41"/>
-      <c r="AS41" s="41"/>
-      <c r="AT41" s="41"/>
-      <c r="AU41" s="41"/>
-      <c r="AV41" s="41"/>
-      <c r="AW41" s="41"/>
-      <c r="AX41" s="41"/>
-      <c r="AY41" s="41"/>
-      <c r="AZ41" s="41"/>
-      <c r="BA41" s="41"/>
-      <c r="BB41" s="41"/>
-      <c r="BC41" s="41"/>
-      <c r="BD41" s="41"/>
-      <c r="BE41" s="41"/>
-      <c r="BF41" s="41"/>
-      <c r="BG41" s="41"/>
-      <c r="BH41" s="41"/>
-      <c r="BI41" s="41"/>
-      <c r="BJ41" s="41"/>
-      <c r="BK41" s="41"/>
-      <c r="BL41" s="41"/>
-      <c r="BM41" s="41"/>
-      <c r="BN41" s="41"/>
-      <c r="BO41" s="41"/>
-      <c r="BP41" s="41"/>
-      <c r="BQ41" s="41"/>
-      <c r="BR41" s="41"/>
-      <c r="BS41" s="41"/>
-      <c r="BT41" s="41"/>
-      <c r="BU41" s="41"/>
-      <c r="BV41" s="41"/>
-      <c r="BW41" s="41"/>
-      <c r="BX41" s="41"/>
-      <c r="BY41" s="41"/>
-      <c r="BZ41" s="41"/>
-      <c r="CA41" s="41"/>
-      <c r="CB41" s="41"/>
-      <c r="CC41" s="41"/>
-      <c r="CD41" s="41"/>
-      <c r="CE41" s="41"/>
-      <c r="CF41" s="41"/>
-      <c r="CG41" s="41"/>
-      <c r="CH41" s="41"/>
-      <c r="CI41" s="41"/>
-      <c r="CJ41" s="41"/>
-      <c r="CK41" s="41"/>
-      <c r="CL41" s="41"/>
-      <c r="CM41" s="41"/>
-      <c r="CN41" s="41"/>
-      <c r="CO41" s="41"/>
-      <c r="CP41" s="41"/>
-      <c r="CQ41" s="41"/>
-      <c r="CR41" s="41"/>
-      <c r="CS41" s="41"/>
-      <c r="CT41" s="41"/>
-      <c r="CU41" s="41"/>
-      <c r="CV41" s="41"/>
-      <c r="CW41" s="41"/>
-      <c r="CX41" s="41"/>
-      <c r="CY41" s="41"/>
-      <c r="CZ41" s="41"/>
-      <c r="DA41" s="41"/>
-      <c r="DB41" s="41"/>
-      <c r="DC41" s="41"/>
-      <c r="DD41" s="41"/>
-      <c r="DE41" s="41"/>
-      <c r="DF41" s="41"/>
-      <c r="DG41" s="41"/>
-      <c r="DH41" s="41"/>
-      <c r="DI41" s="41"/>
-      <c r="DJ41" s="41"/>
-      <c r="DK41" s="41"/>
-      <c r="DL41" s="41"/>
-      <c r="DM41" s="41"/>
-      <c r="DN41" s="41"/>
-      <c r="DO41" s="41"/>
-      <c r="DP41" s="41"/>
-      <c r="DQ41" s="41"/>
-      <c r="DR41" s="41"/>
-      <c r="DS41" s="41"/>
-      <c r="DT41" s="41"/>
-      <c r="DU41" s="41"/>
-      <c r="DV41" s="41"/>
-      <c r="DW41" s="41"/>
-      <c r="DX41" s="41"/>
-      <c r="DY41" s="41"/>
-      <c r="DZ41" s="41"/>
-      <c r="EA41" s="41"/>
-      <c r="EB41" s="41"/>
-      <c r="EC41" s="41"/>
-      <c r="ED41" s="41"/>
-      <c r="EE41" s="41"/>
-      <c r="EF41" s="41"/>
-      <c r="EG41" s="41"/>
-      <c r="EH41" s="41"/>
-      <c r="EI41" s="41"/>
-      <c r="EJ41" s="41"/>
-      <c r="EK41" s="41"/>
-      <c r="EL41" s="41"/>
-      <c r="EM41" s="41"/>
-      <c r="EN41" s="41"/>
-      <c r="EO41" s="41"/>
-      <c r="EP41" s="41"/>
-      <c r="EQ41" s="41"/>
-      <c r="ER41" s="41"/>
-      <c r="ES41" s="41"/>
-      <c r="ET41" s="41"/>
-      <c r="EU41" s="41"/>
-      <c r="EV41" s="41"/>
-      <c r="EW41" s="41"/>
-      <c r="EX41" s="41"/>
-      <c r="EY41" s="41"/>
-      <c r="EZ41" s="41"/>
-      <c r="FA41" s="41"/>
-      <c r="FB41" s="41"/>
-      <c r="FC41" s="41"/>
-      <c r="FD41" s="41"/>
-      <c r="FE41" s="41"/>
-      <c r="FF41" s="41"/>
-      <c r="FG41" s="41"/>
-      <c r="FH41" s="41"/>
-      <c r="FI41" s="41"/>
-      <c r="FJ41" s="41"/>
-      <c r="FK41" s="41"/>
-      <c r="FL41" s="41"/>
-      <c r="FM41" s="41"/>
-      <c r="FN41" s="41"/>
-      <c r="FO41" s="41"/>
-      <c r="FP41" s="41"/>
-      <c r="FQ41" s="41"/>
-      <c r="FR41" s="41"/>
-      <c r="FS41" s="41"/>
-      <c r="FT41" s="41"/>
-      <c r="FU41" s="41"/>
-      <c r="FV41" s="41"/>
-      <c r="FW41" s="41"/>
-      <c r="FX41" s="41"/>
-      <c r="FY41" s="41"/>
-      <c r="FZ41" s="41"/>
-      <c r="GA41" s="41"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39"/>
+      <c r="Z41" s="39"/>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="39"/>
+      <c r="AC41" s="39"/>
+      <c r="AD41" s="39"/>
+      <c r="AE41" s="39"/>
+      <c r="AF41" s="39"/>
+      <c r="AG41" s="39"/>
+      <c r="AH41" s="39"/>
+      <c r="AI41" s="39"/>
+      <c r="AJ41" s="39"/>
+      <c r="AK41" s="39"/>
+      <c r="AL41" s="39"/>
+      <c r="AM41" s="39"/>
+      <c r="AN41" s="39"/>
+      <c r="AO41" s="39"/>
+      <c r="AP41" s="39"/>
+      <c r="AQ41" s="39"/>
+      <c r="AR41" s="39"/>
+      <c r="AS41" s="39"/>
+      <c r="AT41" s="39"/>
+      <c r="AU41" s="39"/>
+      <c r="AV41" s="39"/>
+      <c r="AW41" s="39"/>
+      <c r="AX41" s="39"/>
+      <c r="AY41" s="39"/>
+      <c r="AZ41" s="39"/>
+      <c r="BA41" s="39"/>
+      <c r="BB41" s="39"/>
+      <c r="BC41" s="39"/>
+      <c r="BD41" s="39"/>
+      <c r="BE41" s="39"/>
+      <c r="BF41" s="39"/>
+      <c r="BG41" s="39"/>
+      <c r="BH41" s="39"/>
+      <c r="BI41" s="39"/>
+      <c r="BJ41" s="39"/>
+      <c r="BK41" s="39"/>
+      <c r="BL41" s="39"/>
+      <c r="BM41" s="39"/>
+      <c r="BN41" s="39"/>
+      <c r="BO41" s="39"/>
+      <c r="BP41" s="39"/>
+      <c r="BQ41" s="39"/>
+      <c r="BR41" s="39"/>
+      <c r="BS41" s="39"/>
+      <c r="BT41" s="39"/>
+      <c r="BU41" s="39"/>
+      <c r="BV41" s="39"/>
+      <c r="BW41" s="39"/>
+      <c r="BX41" s="39"/>
+      <c r="BY41" s="39"/>
+      <c r="BZ41" s="39"/>
+      <c r="CA41" s="39"/>
+      <c r="CB41" s="39"/>
+      <c r="CC41" s="39"/>
+      <c r="CD41" s="39"/>
+      <c r="CE41" s="39"/>
+      <c r="CF41" s="39"/>
+      <c r="CG41" s="39"/>
+      <c r="CH41" s="39"/>
+      <c r="CI41" s="39"/>
+      <c r="CJ41" s="39"/>
+      <c r="CK41" s="39"/>
+      <c r="CL41" s="39"/>
+      <c r="CM41" s="39"/>
+      <c r="CN41" s="39"/>
+      <c r="CO41" s="39"/>
+      <c r="CP41" s="39"/>
+      <c r="CQ41" s="39"/>
+      <c r="CR41" s="39"/>
+      <c r="CS41" s="39"/>
+      <c r="CT41" s="39"/>
+      <c r="CU41" s="39"/>
+      <c r="CV41" s="39"/>
+      <c r="CW41" s="39"/>
+      <c r="CX41" s="39"/>
+      <c r="CY41" s="39"/>
+      <c r="CZ41" s="39"/>
+      <c r="DA41" s="39"/>
+      <c r="DB41" s="39"/>
+      <c r="DC41" s="39"/>
+      <c r="DD41" s="39"/>
+      <c r="DE41" s="39"/>
+      <c r="DF41" s="39"/>
+      <c r="DG41" s="39"/>
+      <c r="DH41" s="39"/>
+      <c r="DI41" s="39"/>
+      <c r="DJ41" s="39"/>
+      <c r="DK41" s="39"/>
+      <c r="DL41" s="39"/>
+      <c r="DM41" s="39"/>
+      <c r="DN41" s="39"/>
+      <c r="DO41" s="39"/>
+      <c r="DP41" s="39"/>
+      <c r="DQ41" s="39"/>
+      <c r="DR41" s="39"/>
+      <c r="DS41" s="39"/>
+      <c r="DT41" s="39"/>
+      <c r="DU41" s="39"/>
+      <c r="DV41" s="39"/>
+      <c r="DW41" s="39"/>
+      <c r="DX41" s="39"/>
+      <c r="DY41" s="39"/>
+      <c r="DZ41" s="39"/>
+      <c r="EA41" s="39"/>
+      <c r="EB41" s="39"/>
+      <c r="EC41" s="39"/>
+      <c r="ED41" s="39"/>
+      <c r="EE41" s="39"/>
+      <c r="EF41" s="39"/>
+      <c r="EG41" s="39"/>
+      <c r="EH41" s="39"/>
+      <c r="EI41" s="39"/>
+      <c r="EJ41" s="39"/>
+      <c r="EK41" s="39"/>
+      <c r="EL41" s="39"/>
+      <c r="EM41" s="39"/>
+      <c r="EN41" s="39"/>
+      <c r="EO41" s="39"/>
+      <c r="EP41" s="39"/>
+      <c r="EQ41" s="39"/>
+      <c r="ER41" s="39"/>
+      <c r="ES41" s="39"/>
+      <c r="ET41" s="39"/>
+      <c r="EU41" s="39"/>
+      <c r="EV41" s="39"/>
+      <c r="EW41" s="39"/>
+      <c r="EX41" s="39"/>
+      <c r="EY41" s="39"/>
+      <c r="EZ41" s="39"/>
+      <c r="FA41" s="39"/>
+      <c r="FB41" s="39"/>
+      <c r="FC41" s="39"/>
+      <c r="FD41" s="39"/>
+      <c r="FE41" s="39"/>
+      <c r="FF41" s="39"/>
+      <c r="FG41" s="39"/>
+      <c r="FH41" s="39"/>
+      <c r="FI41" s="39"/>
+      <c r="FJ41" s="39"/>
+      <c r="FK41" s="39"/>
+      <c r="FL41" s="39"/>
+      <c r="FM41" s="39"/>
+      <c r="FN41" s="39"/>
+      <c r="FO41" s="39"/>
+      <c r="FP41" s="39"/>
+      <c r="FQ41" s="39"/>
+      <c r="FR41" s="39"/>
+      <c r="FS41" s="39"/>
+      <c r="FT41" s="39"/>
+      <c r="FU41" s="39"/>
+      <c r="FV41" s="39"/>
+      <c r="FW41" s="39"/>
+      <c r="FX41" s="39"/>
+      <c r="FY41" s="39"/>
+      <c r="FZ41" s="39"/>
+      <c r="GA41" s="39"/>
     </row>
-    <row r="42" spans="1:183" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G42" s="6"/>
+    <row r="42" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="43"/>
+      <c r="B42" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="58"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17" t="e">
+        <f t="shared" si="137"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="39"/>
+      <c r="AA42" s="39"/>
+      <c r="AB42" s="39"/>
+      <c r="AC42" s="39"/>
+      <c r="AD42" s="39"/>
+      <c r="AE42" s="39"/>
+      <c r="AF42" s="39"/>
+      <c r="AG42" s="39"/>
+      <c r="AH42" s="39"/>
+      <c r="AI42" s="39"/>
+      <c r="AJ42" s="39"/>
+      <c r="AK42" s="39"/>
+      <c r="AL42" s="39"/>
+      <c r="AM42" s="39"/>
+      <c r="AN42" s="39"/>
+      <c r="AO42" s="39"/>
+      <c r="AP42" s="39"/>
+      <c r="AQ42" s="39"/>
+      <c r="AR42" s="39"/>
+      <c r="AS42" s="39"/>
+      <c r="AT42" s="39"/>
+      <c r="AU42" s="39"/>
+      <c r="AV42" s="39"/>
+      <c r="AW42" s="39"/>
+      <c r="AX42" s="39"/>
+      <c r="AY42" s="39"/>
+      <c r="AZ42" s="39"/>
+      <c r="BA42" s="39"/>
+      <c r="BB42" s="39"/>
+      <c r="BC42" s="39"/>
+      <c r="BD42" s="39"/>
+      <c r="BE42" s="39"/>
+      <c r="BF42" s="39"/>
+      <c r="BG42" s="39"/>
+      <c r="BH42" s="39"/>
+      <c r="BI42" s="39"/>
+      <c r="BJ42" s="39"/>
+      <c r="BK42" s="39"/>
+      <c r="BL42" s="39"/>
+      <c r="BM42" s="39"/>
+      <c r="BN42" s="39"/>
+      <c r="BO42" s="39"/>
+      <c r="BP42" s="39"/>
+      <c r="BQ42" s="39"/>
+      <c r="BR42" s="39"/>
+      <c r="BS42" s="39"/>
+      <c r="BT42" s="39"/>
+      <c r="BU42" s="39"/>
+      <c r="BV42" s="39"/>
+      <c r="BW42" s="39"/>
+      <c r="BX42" s="39"/>
+      <c r="BY42" s="39"/>
+      <c r="BZ42" s="39"/>
+      <c r="CA42" s="39"/>
+      <c r="CB42" s="39"/>
+      <c r="CC42" s="39"/>
+      <c r="CD42" s="39"/>
+      <c r="CE42" s="39"/>
+      <c r="CF42" s="39"/>
+      <c r="CG42" s="39"/>
+      <c r="CH42" s="39"/>
+      <c r="CI42" s="39"/>
+      <c r="CJ42" s="39"/>
+      <c r="CK42" s="39"/>
+      <c r="CL42" s="39"/>
+      <c r="CM42" s="39"/>
+      <c r="CN42" s="39"/>
+      <c r="CO42" s="39"/>
+      <c r="CP42" s="39"/>
+      <c r="CQ42" s="39"/>
+      <c r="CR42" s="39"/>
+      <c r="CS42" s="39"/>
+      <c r="CT42" s="39"/>
+      <c r="CU42" s="39"/>
+      <c r="CV42" s="39"/>
+      <c r="CW42" s="39"/>
+      <c r="CX42" s="39"/>
+      <c r="CY42" s="39"/>
+      <c r="CZ42" s="39"/>
+      <c r="DA42" s="39"/>
+      <c r="DB42" s="39"/>
+      <c r="DC42" s="39"/>
+      <c r="DD42" s="39"/>
+      <c r="DE42" s="39"/>
+      <c r="DF42" s="39"/>
+      <c r="DG42" s="39"/>
+      <c r="DH42" s="39"/>
+      <c r="DI42" s="39"/>
+      <c r="DJ42" s="39"/>
+      <c r="DK42" s="39"/>
+      <c r="DL42" s="39"/>
+      <c r="DM42" s="39"/>
+      <c r="DN42" s="39"/>
+      <c r="DO42" s="39"/>
+      <c r="DP42" s="39"/>
+      <c r="DQ42" s="39"/>
+      <c r="DR42" s="39"/>
+      <c r="DS42" s="39"/>
+      <c r="DT42" s="39"/>
+      <c r="DU42" s="39"/>
+      <c r="DV42" s="39"/>
+      <c r="DW42" s="39"/>
+      <c r="DX42" s="39"/>
+      <c r="DY42" s="39"/>
+      <c r="DZ42" s="39"/>
+      <c r="EA42" s="39"/>
+      <c r="EB42" s="39"/>
+      <c r="EC42" s="39"/>
+      <c r="ED42" s="39"/>
+      <c r="EE42" s="39"/>
+      <c r="EF42" s="39"/>
+      <c r="EG42" s="39"/>
+      <c r="EH42" s="39"/>
+      <c r="EI42" s="39"/>
+      <c r="EJ42" s="39"/>
+      <c r="EK42" s="39"/>
+      <c r="EL42" s="39"/>
+      <c r="EM42" s="39"/>
+      <c r="EN42" s="39"/>
+      <c r="EO42" s="39"/>
+      <c r="EP42" s="39"/>
+      <c r="EQ42" s="39"/>
+      <c r="ER42" s="39"/>
+      <c r="ES42" s="39"/>
+      <c r="ET42" s="39"/>
+      <c r="EU42" s="39"/>
+      <c r="EV42" s="39"/>
+      <c r="EW42" s="39"/>
+      <c r="EX42" s="39"/>
+      <c r="EY42" s="39"/>
+      <c r="EZ42" s="39"/>
+      <c r="FA42" s="39"/>
+      <c r="FB42" s="39"/>
+      <c r="FC42" s="39"/>
+      <c r="FD42" s="39"/>
+      <c r="FE42" s="39"/>
+      <c r="FF42" s="39"/>
+      <c r="FG42" s="39"/>
+      <c r="FH42" s="39"/>
+      <c r="FI42" s="39"/>
+      <c r="FJ42" s="39"/>
+      <c r="FK42" s="39"/>
+      <c r="FL42" s="39"/>
+      <c r="FM42" s="39"/>
+      <c r="FN42" s="39"/>
+      <c r="FO42" s="39"/>
+      <c r="FP42" s="39"/>
+      <c r="FQ42" s="39"/>
+      <c r="FR42" s="39"/>
+      <c r="FS42" s="39"/>
+      <c r="FT42" s="39"/>
+      <c r="FU42" s="39"/>
+      <c r="FV42" s="39"/>
+      <c r="FW42" s="39"/>
+      <c r="FX42" s="39"/>
+      <c r="FY42" s="39"/>
+      <c r="FZ42" s="39"/>
+      <c r="GA42" s="39"/>
     </row>
-    <row r="43" spans="1:183" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="14"/>
-      <c r="F43" s="45"/>
+    <row r="43" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="43"/>
+      <c r="B43" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="58"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17" t="e">
+        <f t="shared" si="137"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="39"/>
+      <c r="Z43" s="39"/>
+      <c r="AA43" s="39"/>
+      <c r="AB43" s="39"/>
+      <c r="AC43" s="39"/>
+      <c r="AD43" s="39"/>
+      <c r="AE43" s="39"/>
+      <c r="AF43" s="39"/>
+      <c r="AG43" s="39"/>
+      <c r="AH43" s="39"/>
+      <c r="AI43" s="39"/>
+      <c r="AJ43" s="39"/>
+      <c r="AK43" s="39"/>
+      <c r="AL43" s="39"/>
+      <c r="AM43" s="39"/>
+      <c r="AN43" s="39"/>
+      <c r="AO43" s="39"/>
+      <c r="AP43" s="39"/>
+      <c r="AQ43" s="39"/>
+      <c r="AR43" s="39"/>
+      <c r="AS43" s="39"/>
+      <c r="AT43" s="39"/>
+      <c r="AU43" s="39"/>
+      <c r="AV43" s="39"/>
+      <c r="AW43" s="39"/>
+      <c r="AX43" s="39"/>
+      <c r="AY43" s="39"/>
+      <c r="AZ43" s="39"/>
+      <c r="BA43" s="39"/>
+      <c r="BB43" s="39"/>
+      <c r="BC43" s="39"/>
+      <c r="BD43" s="39"/>
+      <c r="BE43" s="39"/>
+      <c r="BF43" s="39"/>
+      <c r="BG43" s="39"/>
+      <c r="BH43" s="39"/>
+      <c r="BI43" s="39"/>
+      <c r="BJ43" s="39"/>
+      <c r="BK43" s="39"/>
+      <c r="BL43" s="39"/>
+      <c r="BM43" s="39"/>
+      <c r="BN43" s="39"/>
+      <c r="BO43" s="39"/>
+      <c r="BP43" s="39"/>
+      <c r="BQ43" s="39"/>
+      <c r="BR43" s="39"/>
+      <c r="BS43" s="39"/>
+      <c r="BT43" s="39"/>
+      <c r="BU43" s="39"/>
+      <c r="BV43" s="39"/>
+      <c r="BW43" s="39"/>
+      <c r="BX43" s="39"/>
+      <c r="BY43" s="39"/>
+      <c r="BZ43" s="39"/>
+      <c r="CA43" s="39"/>
+      <c r="CB43" s="39"/>
+      <c r="CC43" s="39"/>
+      <c r="CD43" s="39"/>
+      <c r="CE43" s="39"/>
+      <c r="CF43" s="39"/>
+      <c r="CG43" s="39"/>
+      <c r="CH43" s="39"/>
+      <c r="CI43" s="39"/>
+      <c r="CJ43" s="39"/>
+      <c r="CK43" s="39"/>
+      <c r="CL43" s="39"/>
+      <c r="CM43" s="39"/>
+      <c r="CN43" s="39"/>
+      <c r="CO43" s="39"/>
+      <c r="CP43" s="39"/>
+      <c r="CQ43" s="39"/>
+      <c r="CR43" s="39"/>
+      <c r="CS43" s="39"/>
+      <c r="CT43" s="39"/>
+      <c r="CU43" s="39"/>
+      <c r="CV43" s="39"/>
+      <c r="CW43" s="39"/>
+      <c r="CX43" s="39"/>
+      <c r="CY43" s="39"/>
+      <c r="CZ43" s="39"/>
+      <c r="DA43" s="39"/>
+      <c r="DB43" s="39"/>
+      <c r="DC43" s="39"/>
+      <c r="DD43" s="39"/>
+      <c r="DE43" s="39"/>
+      <c r="DF43" s="39"/>
+      <c r="DG43" s="39"/>
+      <c r="DH43" s="39"/>
+      <c r="DI43" s="39"/>
+      <c r="DJ43" s="39"/>
+      <c r="DK43" s="39"/>
+      <c r="DL43" s="39"/>
+      <c r="DM43" s="39"/>
+      <c r="DN43" s="39"/>
+      <c r="DO43" s="39"/>
+      <c r="DP43" s="39"/>
+      <c r="DQ43" s="39"/>
+      <c r="DR43" s="39"/>
+      <c r="DS43" s="39"/>
+      <c r="DT43" s="39"/>
+      <c r="DU43" s="39"/>
+      <c r="DV43" s="39"/>
+      <c r="DW43" s="39"/>
+      <c r="DX43" s="39"/>
+      <c r="DY43" s="39"/>
+      <c r="DZ43" s="39"/>
+      <c r="EA43" s="39"/>
+      <c r="EB43" s="39"/>
+      <c r="EC43" s="39"/>
+      <c r="ED43" s="39"/>
+      <c r="EE43" s="39"/>
+      <c r="EF43" s="39"/>
+      <c r="EG43" s="39"/>
+      <c r="EH43" s="39"/>
+      <c r="EI43" s="39"/>
+      <c r="EJ43" s="39"/>
+      <c r="EK43" s="39"/>
+      <c r="EL43" s="39"/>
+      <c r="EM43" s="39"/>
+      <c r="EN43" s="39"/>
+      <c r="EO43" s="39"/>
+      <c r="EP43" s="39"/>
+      <c r="EQ43" s="39"/>
+      <c r="ER43" s="39"/>
+      <c r="ES43" s="39"/>
+      <c r="ET43" s="39"/>
+      <c r="EU43" s="39"/>
+      <c r="EV43" s="39"/>
+      <c r="EW43" s="39"/>
+      <c r="EX43" s="39"/>
+      <c r="EY43" s="39"/>
+      <c r="EZ43" s="39"/>
+      <c r="FA43" s="39"/>
+      <c r="FB43" s="39"/>
+      <c r="FC43" s="39"/>
+      <c r="FD43" s="39"/>
+      <c r="FE43" s="39"/>
+      <c r="FF43" s="39"/>
+      <c r="FG43" s="39"/>
+      <c r="FH43" s="39"/>
+      <c r="FI43" s="39"/>
+      <c r="FJ43" s="39"/>
+      <c r="FK43" s="39"/>
+      <c r="FL43" s="39"/>
+      <c r="FM43" s="39"/>
+      <c r="FN43" s="39"/>
+      <c r="FO43" s="39"/>
+      <c r="FP43" s="39"/>
+      <c r="FQ43" s="39"/>
+      <c r="FR43" s="39"/>
+      <c r="FS43" s="39"/>
+      <c r="FT43" s="39"/>
+      <c r="FU43" s="39"/>
+      <c r="FV43" s="39"/>
+      <c r="FW43" s="39"/>
+      <c r="FX43" s="39"/>
+      <c r="FY43" s="39"/>
+      <c r="FZ43" s="39"/>
+      <c r="GA43" s="39"/>
     </row>
-    <row r="44" spans="1:183" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="15"/>
+    <row r="44" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="43"/>
+      <c r="B44" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="58"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17" t="e">
+        <f t="shared" si="137"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="39"/>
+      <c r="Z44" s="39"/>
+      <c r="AA44" s="39"/>
+      <c r="AB44" s="39"/>
+      <c r="AC44" s="39"/>
+      <c r="AD44" s="39"/>
+      <c r="AE44" s="39"/>
+      <c r="AF44" s="39"/>
+      <c r="AG44" s="39"/>
+      <c r="AH44" s="39"/>
+      <c r="AI44" s="39"/>
+      <c r="AJ44" s="39"/>
+      <c r="AK44" s="39"/>
+      <c r="AL44" s="39"/>
+      <c r="AM44" s="39"/>
+      <c r="AN44" s="39"/>
+      <c r="AO44" s="39"/>
+      <c r="AP44" s="39"/>
+      <c r="AQ44" s="39"/>
+      <c r="AR44" s="39"/>
+      <c r="AS44" s="39"/>
+      <c r="AT44" s="39"/>
+      <c r="AU44" s="39"/>
+      <c r="AV44" s="39"/>
+      <c r="AW44" s="39"/>
+      <c r="AX44" s="39"/>
+      <c r="AY44" s="39"/>
+      <c r="AZ44" s="39"/>
+      <c r="BA44" s="39"/>
+      <c r="BB44" s="39"/>
+      <c r="BC44" s="39"/>
+      <c r="BD44" s="39"/>
+      <c r="BE44" s="39"/>
+      <c r="BF44" s="39"/>
+      <c r="BG44" s="39"/>
+      <c r="BH44" s="39"/>
+      <c r="BI44" s="39"/>
+      <c r="BJ44" s="39"/>
+      <c r="BK44" s="39"/>
+      <c r="BL44" s="39"/>
+      <c r="BM44" s="39"/>
+      <c r="BN44" s="39"/>
+      <c r="BO44" s="39"/>
+      <c r="BP44" s="39"/>
+      <c r="BQ44" s="39"/>
+      <c r="BR44" s="39"/>
+      <c r="BS44" s="39"/>
+      <c r="BT44" s="39"/>
+      <c r="BU44" s="39"/>
+      <c r="BV44" s="39"/>
+      <c r="BW44" s="39"/>
+      <c r="BX44" s="39"/>
+      <c r="BY44" s="39"/>
+      <c r="BZ44" s="39"/>
+      <c r="CA44" s="39"/>
+      <c r="CB44" s="39"/>
+      <c r="CC44" s="39"/>
+      <c r="CD44" s="39"/>
+      <c r="CE44" s="39"/>
+      <c r="CF44" s="39"/>
+      <c r="CG44" s="39"/>
+      <c r="CH44" s="39"/>
+      <c r="CI44" s="39"/>
+      <c r="CJ44" s="39"/>
+      <c r="CK44" s="39"/>
+      <c r="CL44" s="39"/>
+      <c r="CM44" s="39"/>
+      <c r="CN44" s="39"/>
+      <c r="CO44" s="39"/>
+      <c r="CP44" s="39"/>
+      <c r="CQ44" s="39"/>
+      <c r="CR44" s="39"/>
+      <c r="CS44" s="39"/>
+      <c r="CT44" s="39"/>
+      <c r="CU44" s="39"/>
+      <c r="CV44" s="39"/>
+      <c r="CW44" s="39"/>
+      <c r="CX44" s="39"/>
+      <c r="CY44" s="39"/>
+      <c r="CZ44" s="39"/>
+      <c r="DA44" s="39"/>
+      <c r="DB44" s="39"/>
+      <c r="DC44" s="39"/>
+      <c r="DD44" s="39"/>
+      <c r="DE44" s="39"/>
+      <c r="DF44" s="39"/>
+      <c r="DG44" s="39"/>
+      <c r="DH44" s="39"/>
+      <c r="DI44" s="39"/>
+      <c r="DJ44" s="39"/>
+      <c r="DK44" s="39"/>
+      <c r="DL44" s="39"/>
+      <c r="DM44" s="39"/>
+      <c r="DN44" s="39"/>
+      <c r="DO44" s="39"/>
+      <c r="DP44" s="39"/>
+      <c r="DQ44" s="39"/>
+      <c r="DR44" s="39"/>
+      <c r="DS44" s="39"/>
+      <c r="DT44" s="39"/>
+      <c r="DU44" s="39"/>
+      <c r="DV44" s="39"/>
+      <c r="DW44" s="39"/>
+      <c r="DX44" s="39"/>
+      <c r="DY44" s="39"/>
+      <c r="DZ44" s="39"/>
+      <c r="EA44" s="39"/>
+      <c r="EB44" s="39"/>
+      <c r="EC44" s="39"/>
+      <c r="ED44" s="39"/>
+      <c r="EE44" s="39"/>
+      <c r="EF44" s="39"/>
+      <c r="EG44" s="39"/>
+      <c r="EH44" s="39"/>
+      <c r="EI44" s="39"/>
+      <c r="EJ44" s="39"/>
+      <c r="EK44" s="39"/>
+      <c r="EL44" s="39"/>
+      <c r="EM44" s="39"/>
+      <c r="EN44" s="39"/>
+      <c r="EO44" s="39"/>
+      <c r="EP44" s="39"/>
+      <c r="EQ44" s="39"/>
+      <c r="ER44" s="39"/>
+      <c r="ES44" s="39"/>
+      <c r="ET44" s="39"/>
+      <c r="EU44" s="39"/>
+      <c r="EV44" s="39"/>
+      <c r="EW44" s="39"/>
+      <c r="EX44" s="39"/>
+      <c r="EY44" s="39"/>
+      <c r="EZ44" s="39"/>
+      <c r="FA44" s="39"/>
+      <c r="FB44" s="39"/>
+      <c r="FC44" s="39"/>
+      <c r="FD44" s="39"/>
+      <c r="FE44" s="39"/>
+      <c r="FF44" s="39"/>
+      <c r="FG44" s="39"/>
+      <c r="FH44" s="39"/>
+      <c r="FI44" s="39"/>
+      <c r="FJ44" s="39"/>
+      <c r="FK44" s="39"/>
+      <c r="FL44" s="39"/>
+      <c r="FM44" s="39"/>
+      <c r="FN44" s="39"/>
+      <c r="FO44" s="39"/>
+      <c r="FP44" s="39"/>
+      <c r="FQ44" s="39"/>
+      <c r="FR44" s="39"/>
+      <c r="FS44" s="39"/>
+      <c r="FT44" s="39"/>
+      <c r="FU44" s="39"/>
+      <c r="FV44" s="39"/>
+      <c r="FW44" s="39"/>
+      <c r="FX44" s="39"/>
+      <c r="FY44" s="39"/>
+      <c r="FZ44" s="39"/>
+      <c r="GA44" s="39"/>
+    </row>
+    <row r="45" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="43"/>
+      <c r="B45" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="58"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17" t="e">
+        <f t="shared" si="137"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="39"/>
+      <c r="Y45" s="39"/>
+      <c r="Z45" s="39"/>
+      <c r="AA45" s="39"/>
+      <c r="AB45" s="39"/>
+      <c r="AC45" s="39"/>
+      <c r="AD45" s="39"/>
+      <c r="AE45" s="39"/>
+      <c r="AF45" s="39"/>
+      <c r="AG45" s="39"/>
+      <c r="AH45" s="39"/>
+      <c r="AI45" s="39"/>
+      <c r="AJ45" s="39"/>
+      <c r="AK45" s="39"/>
+      <c r="AL45" s="39"/>
+      <c r="AM45" s="39"/>
+      <c r="AN45" s="39"/>
+      <c r="AO45" s="39"/>
+      <c r="AP45" s="39"/>
+      <c r="AQ45" s="39"/>
+      <c r="AR45" s="39"/>
+      <c r="AS45" s="39"/>
+      <c r="AT45" s="39"/>
+      <c r="AU45" s="39"/>
+      <c r="AV45" s="39"/>
+      <c r="AW45" s="39"/>
+      <c r="AX45" s="39"/>
+      <c r="AY45" s="39"/>
+      <c r="AZ45" s="39"/>
+      <c r="BA45" s="39"/>
+      <c r="BB45" s="39"/>
+      <c r="BC45" s="39"/>
+      <c r="BD45" s="39"/>
+      <c r="BE45" s="39"/>
+      <c r="BF45" s="39"/>
+      <c r="BG45" s="39"/>
+      <c r="BH45" s="39"/>
+      <c r="BI45" s="39"/>
+      <c r="BJ45" s="39"/>
+      <c r="BK45" s="39"/>
+      <c r="BL45" s="39"/>
+      <c r="BM45" s="39"/>
+      <c r="BN45" s="39"/>
+      <c r="BO45" s="39"/>
+      <c r="BP45" s="39"/>
+      <c r="BQ45" s="39"/>
+      <c r="BR45" s="39"/>
+      <c r="BS45" s="39"/>
+      <c r="BT45" s="39"/>
+      <c r="BU45" s="39"/>
+      <c r="BV45" s="39"/>
+      <c r="BW45" s="39"/>
+      <c r="BX45" s="39"/>
+      <c r="BY45" s="39"/>
+      <c r="BZ45" s="39"/>
+      <c r="CA45" s="39"/>
+      <c r="CB45" s="39"/>
+      <c r="CC45" s="39"/>
+      <c r="CD45" s="39"/>
+      <c r="CE45" s="39"/>
+      <c r="CF45" s="39"/>
+      <c r="CG45" s="39"/>
+      <c r="CH45" s="39"/>
+      <c r="CI45" s="39"/>
+      <c r="CJ45" s="39"/>
+      <c r="CK45" s="39"/>
+      <c r="CL45" s="39"/>
+      <c r="CM45" s="39"/>
+      <c r="CN45" s="39"/>
+      <c r="CO45" s="39"/>
+      <c r="CP45" s="39"/>
+      <c r="CQ45" s="39"/>
+      <c r="CR45" s="39"/>
+      <c r="CS45" s="39"/>
+      <c r="CT45" s="39"/>
+      <c r="CU45" s="39"/>
+      <c r="CV45" s="39"/>
+      <c r="CW45" s="39"/>
+      <c r="CX45" s="39"/>
+      <c r="CY45" s="39"/>
+      <c r="CZ45" s="39"/>
+      <c r="DA45" s="39"/>
+      <c r="DB45" s="39"/>
+      <c r="DC45" s="39"/>
+      <c r="DD45" s="39"/>
+      <c r="DE45" s="39"/>
+      <c r="DF45" s="39"/>
+      <c r="DG45" s="39"/>
+      <c r="DH45" s="39"/>
+      <c r="DI45" s="39"/>
+      <c r="DJ45" s="39"/>
+      <c r="DK45" s="39"/>
+      <c r="DL45" s="39"/>
+      <c r="DM45" s="39"/>
+      <c r="DN45" s="39"/>
+      <c r="DO45" s="39"/>
+      <c r="DP45" s="39"/>
+      <c r="DQ45" s="39"/>
+      <c r="DR45" s="39"/>
+      <c r="DS45" s="39"/>
+      <c r="DT45" s="39"/>
+      <c r="DU45" s="39"/>
+      <c r="DV45" s="39"/>
+      <c r="DW45" s="39"/>
+      <c r="DX45" s="39"/>
+      <c r="DY45" s="39"/>
+      <c r="DZ45" s="39"/>
+      <c r="EA45" s="39"/>
+      <c r="EB45" s="39"/>
+      <c r="EC45" s="39"/>
+      <c r="ED45" s="39"/>
+      <c r="EE45" s="39"/>
+      <c r="EF45" s="39"/>
+      <c r="EG45" s="39"/>
+      <c r="EH45" s="39"/>
+      <c r="EI45" s="39"/>
+      <c r="EJ45" s="39"/>
+      <c r="EK45" s="39"/>
+      <c r="EL45" s="39"/>
+      <c r="EM45" s="39"/>
+      <c r="EN45" s="39"/>
+      <c r="EO45" s="39"/>
+      <c r="EP45" s="39"/>
+      <c r="EQ45" s="39"/>
+      <c r="ER45" s="39"/>
+      <c r="ES45" s="39"/>
+      <c r="ET45" s="39"/>
+      <c r="EU45" s="39"/>
+      <c r="EV45" s="39"/>
+      <c r="EW45" s="39"/>
+      <c r="EX45" s="39"/>
+      <c r="EY45" s="39"/>
+      <c r="EZ45" s="39"/>
+      <c r="FA45" s="39"/>
+      <c r="FB45" s="39"/>
+      <c r="FC45" s="39"/>
+      <c r="FD45" s="39"/>
+      <c r="FE45" s="39"/>
+      <c r="FF45" s="39"/>
+      <c r="FG45" s="39"/>
+      <c r="FH45" s="39"/>
+      <c r="FI45" s="39"/>
+      <c r="FJ45" s="39"/>
+      <c r="FK45" s="39"/>
+      <c r="FL45" s="39"/>
+      <c r="FM45" s="39"/>
+      <c r="FN45" s="39"/>
+      <c r="FO45" s="39"/>
+      <c r="FP45" s="39"/>
+      <c r="FQ45" s="39"/>
+      <c r="FR45" s="39"/>
+      <c r="FS45" s="39"/>
+      <c r="FT45" s="39"/>
+      <c r="FU45" s="39"/>
+      <c r="FV45" s="39"/>
+      <c r="FW45" s="39"/>
+      <c r="FX45" s="39"/>
+      <c r="FY45" s="39"/>
+      <c r="FZ45" s="39"/>
+      <c r="GA45" s="39"/>
+    </row>
+    <row r="46" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="43"/>
+      <c r="B46" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="58"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17" t="e">
+        <f t="shared" si="137"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="39"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="39"/>
+      <c r="X46" s="39"/>
+      <c r="Y46" s="39"/>
+      <c r="Z46" s="39"/>
+      <c r="AA46" s="39"/>
+      <c r="AB46" s="39"/>
+      <c r="AC46" s="39"/>
+      <c r="AD46" s="39"/>
+      <c r="AE46" s="39"/>
+      <c r="AF46" s="39"/>
+      <c r="AG46" s="39"/>
+      <c r="AH46" s="39"/>
+      <c r="AI46" s="39"/>
+      <c r="AJ46" s="39"/>
+      <c r="AK46" s="39"/>
+      <c r="AL46" s="39"/>
+      <c r="AM46" s="39"/>
+      <c r="AN46" s="39"/>
+      <c r="AO46" s="39"/>
+      <c r="AP46" s="39"/>
+      <c r="AQ46" s="39"/>
+      <c r="AR46" s="39"/>
+      <c r="AS46" s="39"/>
+      <c r="AT46" s="39"/>
+      <c r="AU46" s="39"/>
+      <c r="AV46" s="39"/>
+      <c r="AW46" s="39"/>
+      <c r="AX46" s="39"/>
+      <c r="AY46" s="39"/>
+      <c r="AZ46" s="39"/>
+      <c r="BA46" s="39"/>
+      <c r="BB46" s="39"/>
+      <c r="BC46" s="39"/>
+      <c r="BD46" s="39"/>
+      <c r="BE46" s="39"/>
+      <c r="BF46" s="39"/>
+      <c r="BG46" s="39"/>
+      <c r="BH46" s="39"/>
+      <c r="BI46" s="39"/>
+      <c r="BJ46" s="39"/>
+      <c r="BK46" s="39"/>
+      <c r="BL46" s="39"/>
+      <c r="BM46" s="39"/>
+      <c r="BN46" s="39"/>
+      <c r="BO46" s="39"/>
+      <c r="BP46" s="39"/>
+      <c r="BQ46" s="39"/>
+      <c r="BR46" s="39"/>
+      <c r="BS46" s="39"/>
+      <c r="BT46" s="39"/>
+      <c r="BU46" s="39"/>
+      <c r="BV46" s="39"/>
+      <c r="BW46" s="39"/>
+      <c r="BX46" s="39"/>
+      <c r="BY46" s="39"/>
+      <c r="BZ46" s="39"/>
+      <c r="CA46" s="39"/>
+      <c r="CB46" s="39"/>
+      <c r="CC46" s="39"/>
+      <c r="CD46" s="39"/>
+      <c r="CE46" s="39"/>
+      <c r="CF46" s="39"/>
+      <c r="CG46" s="39"/>
+      <c r="CH46" s="39"/>
+      <c r="CI46" s="39"/>
+      <c r="CJ46" s="39"/>
+      <c r="CK46" s="39"/>
+      <c r="CL46" s="39"/>
+      <c r="CM46" s="39"/>
+      <c r="CN46" s="39"/>
+      <c r="CO46" s="39"/>
+      <c r="CP46" s="39"/>
+      <c r="CQ46" s="39"/>
+      <c r="CR46" s="39"/>
+      <c r="CS46" s="39"/>
+      <c r="CT46" s="39"/>
+      <c r="CU46" s="39"/>
+      <c r="CV46" s="39"/>
+      <c r="CW46" s="39"/>
+      <c r="CX46" s="39"/>
+      <c r="CY46" s="39"/>
+      <c r="CZ46" s="39"/>
+      <c r="DA46" s="39"/>
+      <c r="DB46" s="39"/>
+      <c r="DC46" s="39"/>
+      <c r="DD46" s="39"/>
+      <c r="DE46" s="39"/>
+      <c r="DF46" s="39"/>
+      <c r="DG46" s="39"/>
+      <c r="DH46" s="39"/>
+      <c r="DI46" s="39"/>
+      <c r="DJ46" s="39"/>
+      <c r="DK46" s="39"/>
+      <c r="DL46" s="39"/>
+      <c r="DM46" s="39"/>
+      <c r="DN46" s="39"/>
+      <c r="DO46" s="39"/>
+      <c r="DP46" s="39"/>
+      <c r="DQ46" s="39"/>
+      <c r="DR46" s="39"/>
+      <c r="DS46" s="39"/>
+      <c r="DT46" s="39"/>
+      <c r="DU46" s="39"/>
+      <c r="DV46" s="39"/>
+      <c r="DW46" s="39"/>
+      <c r="DX46" s="39"/>
+      <c r="DY46" s="39"/>
+      <c r="DZ46" s="39"/>
+      <c r="EA46" s="39"/>
+      <c r="EB46" s="39"/>
+      <c r="EC46" s="39"/>
+      <c r="ED46" s="39"/>
+      <c r="EE46" s="39"/>
+      <c r="EF46" s="39"/>
+      <c r="EG46" s="39"/>
+      <c r="EH46" s="39"/>
+      <c r="EI46" s="39"/>
+      <c r="EJ46" s="39"/>
+      <c r="EK46" s="39"/>
+      <c r="EL46" s="39"/>
+      <c r="EM46" s="39"/>
+      <c r="EN46" s="39"/>
+      <c r="EO46" s="39"/>
+      <c r="EP46" s="39"/>
+      <c r="EQ46" s="39"/>
+      <c r="ER46" s="39"/>
+      <c r="ES46" s="39"/>
+      <c r="ET46" s="39"/>
+      <c r="EU46" s="39"/>
+      <c r="EV46" s="39"/>
+      <c r="EW46" s="39"/>
+      <c r="EX46" s="39"/>
+      <c r="EY46" s="39"/>
+      <c r="EZ46" s="39"/>
+      <c r="FA46" s="39"/>
+      <c r="FB46" s="39"/>
+      <c r="FC46" s="39"/>
+      <c r="FD46" s="39"/>
+      <c r="FE46" s="39"/>
+      <c r="FF46" s="39"/>
+      <c r="FG46" s="39"/>
+      <c r="FH46" s="39"/>
+      <c r="FI46" s="39"/>
+      <c r="FJ46" s="39"/>
+      <c r="FK46" s="39"/>
+      <c r="FL46" s="39"/>
+      <c r="FM46" s="39"/>
+      <c r="FN46" s="39"/>
+      <c r="FO46" s="39"/>
+      <c r="FP46" s="39"/>
+      <c r="FQ46" s="39"/>
+      <c r="FR46" s="39"/>
+      <c r="FS46" s="39"/>
+      <c r="FT46" s="39"/>
+      <c r="FU46" s="39"/>
+      <c r="FV46" s="39"/>
+      <c r="FW46" s="39"/>
+      <c r="FX46" s="39"/>
+      <c r="FY46" s="39"/>
+      <c r="FZ46" s="39"/>
+      <c r="GA46" s="39"/>
+    </row>
+    <row r="47" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="63"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17" t="str">
+        <f t="shared" si="137"/>
+        <v/>
+      </c>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="39"/>
+      <c r="Z47" s="39"/>
+      <c r="AA47" s="39"/>
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="39"/>
+      <c r="AD47" s="39"/>
+      <c r="AE47" s="39"/>
+      <c r="AF47" s="39"/>
+      <c r="AG47" s="39"/>
+      <c r="AH47" s="39"/>
+      <c r="AI47" s="39"/>
+      <c r="AJ47" s="39"/>
+      <c r="AK47" s="39"/>
+      <c r="AL47" s="39"/>
+      <c r="AM47" s="39"/>
+      <c r="AN47" s="39"/>
+      <c r="AO47" s="39"/>
+      <c r="AP47" s="39"/>
+      <c r="AQ47" s="39"/>
+      <c r="AR47" s="39"/>
+      <c r="AS47" s="39"/>
+      <c r="AT47" s="39"/>
+      <c r="AU47" s="39"/>
+      <c r="AV47" s="39"/>
+      <c r="AW47" s="39"/>
+      <c r="AX47" s="39"/>
+      <c r="AY47" s="39"/>
+      <c r="AZ47" s="39"/>
+      <c r="BA47" s="39"/>
+      <c r="BB47" s="39"/>
+      <c r="BC47" s="39"/>
+      <c r="BD47" s="39"/>
+      <c r="BE47" s="39"/>
+      <c r="BF47" s="39"/>
+      <c r="BG47" s="39"/>
+      <c r="BH47" s="39"/>
+      <c r="BI47" s="39"/>
+      <c r="BJ47" s="39"/>
+      <c r="BK47" s="39"/>
+      <c r="BL47" s="39"/>
+      <c r="BM47" s="39"/>
+      <c r="BN47" s="39"/>
+      <c r="BO47" s="39"/>
+      <c r="BP47" s="39"/>
+      <c r="BQ47" s="39"/>
+      <c r="BR47" s="39"/>
+      <c r="BS47" s="39"/>
+      <c r="BT47" s="39"/>
+      <c r="BU47" s="39"/>
+      <c r="BV47" s="39"/>
+      <c r="BW47" s="39"/>
+      <c r="BX47" s="39"/>
+      <c r="BY47" s="39"/>
+      <c r="BZ47" s="39"/>
+      <c r="CA47" s="39"/>
+      <c r="CB47" s="39"/>
+      <c r="CC47" s="39"/>
+      <c r="CD47" s="39"/>
+      <c r="CE47" s="39"/>
+      <c r="CF47" s="39"/>
+      <c r="CG47" s="39"/>
+      <c r="CH47" s="39"/>
+      <c r="CI47" s="39"/>
+      <c r="CJ47" s="39"/>
+      <c r="CK47" s="39"/>
+      <c r="CL47" s="39"/>
+      <c r="CM47" s="39"/>
+      <c r="CN47" s="39"/>
+      <c r="CO47" s="39"/>
+      <c r="CP47" s="39"/>
+      <c r="CQ47" s="39"/>
+      <c r="CR47" s="39"/>
+      <c r="CS47" s="39"/>
+      <c r="CT47" s="39"/>
+      <c r="CU47" s="39"/>
+      <c r="CV47" s="39"/>
+      <c r="CW47" s="39"/>
+      <c r="CX47" s="39"/>
+      <c r="CY47" s="39"/>
+      <c r="CZ47" s="39"/>
+      <c r="DA47" s="39"/>
+      <c r="DB47" s="39"/>
+      <c r="DC47" s="39"/>
+      <c r="DD47" s="39"/>
+      <c r="DE47" s="39"/>
+      <c r="DF47" s="39"/>
+      <c r="DG47" s="39"/>
+      <c r="DH47" s="39"/>
+      <c r="DI47" s="39"/>
+      <c r="DJ47" s="39"/>
+      <c r="DK47" s="39"/>
+      <c r="DL47" s="39"/>
+      <c r="DM47" s="39"/>
+      <c r="DN47" s="39"/>
+      <c r="DO47" s="39"/>
+      <c r="DP47" s="39"/>
+      <c r="DQ47" s="39"/>
+      <c r="DR47" s="39"/>
+      <c r="DS47" s="39"/>
+      <c r="DT47" s="39"/>
+      <c r="DU47" s="39"/>
+      <c r="DV47" s="39"/>
+      <c r="DW47" s="39"/>
+      <c r="DX47" s="39"/>
+      <c r="DY47" s="39"/>
+      <c r="DZ47" s="39"/>
+      <c r="EA47" s="39"/>
+      <c r="EB47" s="39"/>
+      <c r="EC47" s="39"/>
+      <c r="ED47" s="39"/>
+      <c r="EE47" s="39"/>
+      <c r="EF47" s="39"/>
+      <c r="EG47" s="39"/>
+      <c r="EH47" s="39"/>
+      <c r="EI47" s="39"/>
+      <c r="EJ47" s="39"/>
+      <c r="EK47" s="39"/>
+      <c r="EL47" s="39"/>
+      <c r="EM47" s="39"/>
+      <c r="EN47" s="39"/>
+      <c r="EO47" s="39"/>
+      <c r="EP47" s="39"/>
+      <c r="EQ47" s="39"/>
+      <c r="ER47" s="39"/>
+      <c r="ES47" s="39"/>
+      <c r="ET47" s="39"/>
+      <c r="EU47" s="39"/>
+      <c r="EV47" s="39"/>
+      <c r="EW47" s="39"/>
+      <c r="EX47" s="39"/>
+      <c r="EY47" s="39"/>
+      <c r="EZ47" s="39"/>
+      <c r="FA47" s="39"/>
+      <c r="FB47" s="39"/>
+      <c r="FC47" s="39"/>
+      <c r="FD47" s="39"/>
+      <c r="FE47" s="39"/>
+      <c r="FF47" s="39"/>
+      <c r="FG47" s="39"/>
+      <c r="FH47" s="39"/>
+      <c r="FI47" s="39"/>
+      <c r="FJ47" s="39"/>
+      <c r="FK47" s="39"/>
+      <c r="FL47" s="39"/>
+      <c r="FM47" s="39"/>
+      <c r="FN47" s="39"/>
+      <c r="FO47" s="39"/>
+      <c r="FP47" s="39"/>
+      <c r="FQ47" s="39"/>
+      <c r="FR47" s="39"/>
+      <c r="FS47" s="39"/>
+      <c r="FT47" s="39"/>
+      <c r="FU47" s="39"/>
+      <c r="FV47" s="39"/>
+      <c r="FW47" s="39"/>
+      <c r="FX47" s="39"/>
+      <c r="FY47" s="39"/>
+      <c r="FZ47" s="39"/>
+      <c r="GA47" s="39"/>
+    </row>
+    <row r="48" spans="1:183" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="34"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38" t="str">
+        <f t="shared" si="137"/>
+        <v/>
+      </c>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="41"/>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="41"/>
+      <c r="Z48" s="41"/>
+      <c r="AA48" s="41"/>
+      <c r="AB48" s="41"/>
+      <c r="AC48" s="41"/>
+      <c r="AD48" s="41"/>
+      <c r="AE48" s="41"/>
+      <c r="AF48" s="41"/>
+      <c r="AG48" s="41"/>
+      <c r="AH48" s="41"/>
+      <c r="AI48" s="41"/>
+      <c r="AJ48" s="41"/>
+      <c r="AK48" s="41"/>
+      <c r="AL48" s="41"/>
+      <c r="AM48" s="41"/>
+      <c r="AN48" s="41"/>
+      <c r="AO48" s="41"/>
+      <c r="AP48" s="41"/>
+      <c r="AQ48" s="41"/>
+      <c r="AR48" s="41"/>
+      <c r="AS48" s="41"/>
+      <c r="AT48" s="41"/>
+      <c r="AU48" s="41"/>
+      <c r="AV48" s="41"/>
+      <c r="AW48" s="41"/>
+      <c r="AX48" s="41"/>
+      <c r="AY48" s="41"/>
+      <c r="AZ48" s="41"/>
+      <c r="BA48" s="41"/>
+      <c r="BB48" s="41"/>
+      <c r="BC48" s="41"/>
+      <c r="BD48" s="41"/>
+      <c r="BE48" s="41"/>
+      <c r="BF48" s="41"/>
+      <c r="BG48" s="41"/>
+      <c r="BH48" s="41"/>
+      <c r="BI48" s="41"/>
+      <c r="BJ48" s="41"/>
+      <c r="BK48" s="41"/>
+      <c r="BL48" s="41"/>
+      <c r="BM48" s="41"/>
+      <c r="BN48" s="41"/>
+      <c r="BO48" s="41"/>
+      <c r="BP48" s="41"/>
+      <c r="BQ48" s="41"/>
+      <c r="BR48" s="41"/>
+      <c r="BS48" s="41"/>
+      <c r="BT48" s="41"/>
+      <c r="BU48" s="41"/>
+      <c r="BV48" s="41"/>
+      <c r="BW48" s="41"/>
+      <c r="BX48" s="41"/>
+      <c r="BY48" s="41"/>
+      <c r="BZ48" s="41"/>
+      <c r="CA48" s="41"/>
+      <c r="CB48" s="41"/>
+      <c r="CC48" s="41"/>
+      <c r="CD48" s="41"/>
+      <c r="CE48" s="41"/>
+      <c r="CF48" s="41"/>
+      <c r="CG48" s="41"/>
+      <c r="CH48" s="41"/>
+      <c r="CI48" s="41"/>
+      <c r="CJ48" s="41"/>
+      <c r="CK48" s="41"/>
+      <c r="CL48" s="41"/>
+      <c r="CM48" s="41"/>
+      <c r="CN48" s="41"/>
+      <c r="CO48" s="41"/>
+      <c r="CP48" s="41"/>
+      <c r="CQ48" s="41"/>
+      <c r="CR48" s="41"/>
+      <c r="CS48" s="41"/>
+      <c r="CT48" s="41"/>
+      <c r="CU48" s="41"/>
+      <c r="CV48" s="41"/>
+      <c r="CW48" s="41"/>
+      <c r="CX48" s="41"/>
+      <c r="CY48" s="41"/>
+      <c r="CZ48" s="41"/>
+      <c r="DA48" s="41"/>
+      <c r="DB48" s="41"/>
+      <c r="DC48" s="41"/>
+      <c r="DD48" s="41"/>
+      <c r="DE48" s="41"/>
+      <c r="DF48" s="41"/>
+      <c r="DG48" s="41"/>
+      <c r="DH48" s="41"/>
+      <c r="DI48" s="41"/>
+      <c r="DJ48" s="41"/>
+      <c r="DK48" s="41"/>
+      <c r="DL48" s="41"/>
+      <c r="DM48" s="41"/>
+      <c r="DN48" s="41"/>
+      <c r="DO48" s="41"/>
+      <c r="DP48" s="41"/>
+      <c r="DQ48" s="41"/>
+      <c r="DR48" s="41"/>
+      <c r="DS48" s="41"/>
+      <c r="DT48" s="41"/>
+      <c r="DU48" s="41"/>
+      <c r="DV48" s="41"/>
+      <c r="DW48" s="41"/>
+      <c r="DX48" s="41"/>
+      <c r="DY48" s="41"/>
+      <c r="DZ48" s="41"/>
+      <c r="EA48" s="41"/>
+      <c r="EB48" s="41"/>
+      <c r="EC48" s="41"/>
+      <c r="ED48" s="41"/>
+      <c r="EE48" s="41"/>
+      <c r="EF48" s="41"/>
+      <c r="EG48" s="41"/>
+      <c r="EH48" s="41"/>
+      <c r="EI48" s="41"/>
+      <c r="EJ48" s="41"/>
+      <c r="EK48" s="41"/>
+      <c r="EL48" s="41"/>
+      <c r="EM48" s="41"/>
+      <c r="EN48" s="41"/>
+      <c r="EO48" s="41"/>
+      <c r="EP48" s="41"/>
+      <c r="EQ48" s="41"/>
+      <c r="ER48" s="41"/>
+      <c r="ES48" s="41"/>
+      <c r="ET48" s="41"/>
+      <c r="EU48" s="41"/>
+      <c r="EV48" s="41"/>
+      <c r="EW48" s="41"/>
+      <c r="EX48" s="41"/>
+      <c r="EY48" s="41"/>
+      <c r="EZ48" s="41"/>
+      <c r="FA48" s="41"/>
+      <c r="FB48" s="41"/>
+      <c r="FC48" s="41"/>
+      <c r="FD48" s="41"/>
+      <c r="FE48" s="41"/>
+      <c r="FF48" s="41"/>
+      <c r="FG48" s="41"/>
+      <c r="FH48" s="41"/>
+      <c r="FI48" s="41"/>
+      <c r="FJ48" s="41"/>
+      <c r="FK48" s="41"/>
+      <c r="FL48" s="41"/>
+      <c r="FM48" s="41"/>
+      <c r="FN48" s="41"/>
+      <c r="FO48" s="41"/>
+      <c r="FP48" s="41"/>
+      <c r="FQ48" s="41"/>
+      <c r="FR48" s="41"/>
+      <c r="FS48" s="41"/>
+      <c r="FT48" s="41"/>
+      <c r="FU48" s="41"/>
+      <c r="FV48" s="41"/>
+      <c r="FW48" s="41"/>
+      <c r="FX48" s="41"/>
+      <c r="FY48" s="41"/>
+      <c r="FZ48" s="41"/>
+      <c r="GA48" s="41"/>
+    </row>
+    <row r="49" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="14"/>
+      <c r="F50" s="45"/>
+    </row>
+    <row r="51" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
     <mergeCell ref="FN4:FT4"/>
     <mergeCell ref="FU4:GA4"/>
     <mergeCell ref="EE4:EK4"/>
@@ -10010,29 +11369,8 @@
     <mergeCell ref="ES4:EY4"/>
     <mergeCell ref="EZ4:FF4"/>
     <mergeCell ref="FG4:FM4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D15:D41 D7">
+  <conditionalFormatting sqref="D15:D48 D7">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10046,16 +11384,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL30 BM5:GA6 BM8:GA30 I31:GA41">
-    <cfRule type="expression" dxfId="3" priority="34">
+  <conditionalFormatting sqref="I5:BL30 BM5:GA6 BM8:GA30 I31:GA48">
+    <cfRule type="expression" dxfId="2" priority="34">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL30 BM8:GA30 I31:GA41">
-    <cfRule type="expression" dxfId="2" priority="28">
+  <conditionalFormatting sqref="I7:BL30 BM8:GA30 I31:GA48">
+    <cfRule type="expression" dxfId="1" priority="28">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="29" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10086,7 +11424,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D15:D41 D7</xm:sqref>
+          <xm:sqref>D15:D48 D7</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/docs/GEMSB_Gantt_Chart.xlsx
+++ b/docs/GEMSB_Gantt_Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88202C76-0E28-4EF8-BEDB-F8E61CEBFC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B4CCEC-A18A-49E9-A107-C49BF0F3BF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>Task 3</t>
   </si>
@@ -925,14 +925,14 @@
     <xf numFmtId="167" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1448,8 +1448,8 @@
   <dimension ref="A1:GA51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <pane ySplit="6" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1493,23 +1493,23 @@
         <v>26</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83">
+      <c r="D3" s="83"/>
+      <c r="E3" s="81">
         <v>44844</v>
       </c>
-      <c r="F3" s="83"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:183" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="82"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>40</v>
       </c>
       <c r="D18" s="22">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E18" s="50">
         <f>F14+1</f>
@@ -5460,7 +5460,7 @@
         <v>36</v>
       </c>
       <c r="D19" s="22">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E19" s="50">
         <f>F14+1</f>
@@ -5660,7 +5660,7 @@
         <v>36</v>
       </c>
       <c r="D20" s="22">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E20" s="50">
         <f>F14+1</f>
@@ -5860,7 +5860,7 @@
         <v>38</v>
       </c>
       <c r="D21" s="22">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E21" s="50">
         <f>E16</f>
@@ -6060,7 +6060,7 @@
         <v>48</v>
       </c>
       <c r="D22" s="22">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E22" s="50">
         <f>F17+1</f>
@@ -6460,7 +6460,7 @@
         <v>53</v>
       </c>
       <c r="D24" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="50">
         <f>F19+1</f>
@@ -6660,7 +6660,7 @@
         <v>53</v>
       </c>
       <c r="D25" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="50">
         <f>F18+1</f>
@@ -8233,7 +8233,9 @@
       <c r="B33" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="56"/>
+      <c r="C33" s="56" t="s">
+        <v>36</v>
+      </c>
       <c r="D33" s="27">
         <v>0</v>
       </c>
@@ -8429,7 +8431,9 @@
       <c r="B34" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="56"/>
+      <c r="C34" s="56" t="s">
+        <v>36</v>
+      </c>
       <c r="D34" s="27">
         <v>0</v>
       </c>
@@ -8625,7 +8629,9 @@
       <c r="B35" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="56"/>
+      <c r="C35" s="56" t="s">
+        <v>32</v>
+      </c>
       <c r="D35" s="27">
         <v>0</v>
       </c>
@@ -8821,7 +8827,9 @@
       <c r="B36" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="56"/>
+      <c r="C36" s="56" t="s">
+        <v>34</v>
+      </c>
       <c r="D36" s="27">
         <v>0.3</v>
       </c>
@@ -11341,27 +11349,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:ED4"/>
     <mergeCell ref="FN4:FT4"/>
     <mergeCell ref="FU4:GA4"/>
     <mergeCell ref="EE4:EK4"/>
@@ -11369,6 +11356,27 @@
     <mergeCell ref="ES4:EY4"/>
     <mergeCell ref="EZ4:FF4"/>
     <mergeCell ref="FG4:FM4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
   <conditionalFormatting sqref="D15:D48 D7">
     <cfRule type="dataBar" priority="15">
